--- a/scripts/codegen/CAN/CanMsgs.xlsx
+++ b/scripts/codegen/CAN/CanMsgs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5038" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5046" uniqueCount="527">
   <si>
     <t>Message Name</t>
   </si>
@@ -1590,6 +1590,12 @@
   </si>
   <si>
     <t>A_LO_UVLOH</t>
+  </si>
+  <si>
+    <t>INV_STATE_REQ</t>
+  </si>
+  <si>
+    <t>STATE_REQ</t>
   </si>
 </sst>
 </file>
@@ -1962,10 +1968,10 @@
   <dimension ref="A1:AE1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I233" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H331" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D239" sqref="D239"/>
+      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18096,7 +18102,7 @@
     </row>
     <row r="313" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B313">
-        <f t="shared" ref="B313:B335" si="15">IF(C313&lt;&gt;C312,B312+1,B312)</f>
+        <f t="shared" ref="B313:B334" si="15">IF(C313&lt;&gt;C312,B312+1,B312)</f>
         <v>626</v>
       </c>
       <c r="C313" t="s">
@@ -19220,7 +19226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="337" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I337" t="s">
         <v>50</v>
       </c>
@@ -19248,7 +19254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="338" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I338" t="s">
         <v>50</v>
       </c>
@@ -19276,7 +19282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="339" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I339" t="s">
         <v>50</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="340" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I340" t="s">
         <v>50</v>
       </c>
@@ -19332,7 +19338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="341" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I341" t="s">
         <v>50</v>
       </c>
@@ -19360,7 +19366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="342" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I342" t="s">
         <v>50</v>
       </c>
@@ -19388,7 +19394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="343" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I343" t="s">
         <v>50</v>
       </c>
@@ -19416,7 +19422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="344" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I344" t="s">
         <v>50</v>
       </c>
@@ -19444,7 +19450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="345" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I345" t="s">
         <v>50</v>
       </c>
@@ -19472,7 +19478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="346" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>700</v>
       </c>
@@ -19524,8 +19530,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="347" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B347">
+        <f t="shared" ref="B347:B351" si="22">IF(C347&lt;&gt;C346,B346+1,B346)</f>
         <v>701</v>
       </c>
       <c r="C347" t="s">
@@ -19576,8 +19583,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="348" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B348">
+        <f t="shared" si="22"/>
         <v>702</v>
       </c>
       <c r="C348" t="s">
@@ -19631,8 +19639,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="349" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B349">
+        <f t="shared" si="22"/>
         <v>703</v>
       </c>
       <c r="C349" t="s">
@@ -19686,8 +19695,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="350" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B350">
+        <f t="shared" si="22"/>
         <v>704</v>
       </c>
       <c r="C350" t="s">
@@ -19741,7 +19751,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="351" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <f t="shared" si="22"/>
+        <v>705</v>
+      </c>
+      <c r="C351" t="s">
+        <v>525</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351" t="s">
+        <v>47</v>
+      </c>
+      <c r="F351">
+        <v>10</v>
+      </c>
+      <c r="G351" t="s">
+        <v>526</v>
+      </c>
+      <c r="H351">
+        <v>2</v>
+      </c>
       <c r="I351" t="s">
         <v>50</v>
       </c>
@@ -19760,16 +19792,31 @@
       </c>
       <c r="N351">
         <f t="shared" si="17"/>
-        <v>4294967295</v>
+        <v>3</v>
       </c>
       <c r="O351" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="U351" t="s">
+        <v>43</v>
       </c>
       <c r="X351" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="352" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y351" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="352" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I352" t="s">
         <v>50</v>
       </c>
@@ -20931,7 +20978,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <f t="shared" ref="M393:M456" si="22">IF(J393="Unsigned",0,-N393)</f>
+        <f t="shared" ref="M393:M456" si="23">IF(J393="Unsigned",0,-N393)</f>
         <v>0</v>
       </c>
       <c r="N393">
@@ -20959,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N394">
@@ -20987,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N395">
@@ -21015,7 +21062,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N396">
@@ -21043,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N397">
@@ -21071,11 +21118,11 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N398">
-        <f t="shared" ref="N398:N461" si="23">IF(J398="Unsigned",2^(MIN(H398,32))-1,2^(MIN(H398,32))/2-1)</f>
+        <f t="shared" ref="N398:N461" si="24">IF(J398="Unsigned",2^(MIN(H398,32))-1,2^(MIN(H398,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O398" t="s">
@@ -21099,11 +21146,11 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N399">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O399" t="s">
@@ -21127,11 +21174,11 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N400">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O400" t="s">
@@ -21155,11 +21202,11 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N401">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O401" t="s">
@@ -21183,11 +21230,11 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N402">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O402" t="s">
@@ -21211,11 +21258,11 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N403">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O403" t="s">
@@ -21239,11 +21286,11 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N404">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O404" t="s">
@@ -21267,11 +21314,11 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N405">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O405" t="s">
@@ -21295,11 +21342,11 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N406">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O406" t="s">
@@ -21323,11 +21370,11 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N407">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O407" t="s">
@@ -21351,11 +21398,11 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N408">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O408" t="s">
@@ -21379,11 +21426,11 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N409">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O409" t="s">
@@ -21407,11 +21454,11 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N410">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O410" t="s">
@@ -21435,11 +21482,11 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N411">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O411" t="s">
@@ -21463,11 +21510,11 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N412">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O412" t="s">
@@ -21491,11 +21538,11 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N413">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O413" t="s">
@@ -21519,11 +21566,11 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N414">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O414" t="s">
@@ -21547,11 +21594,11 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N415">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O415" t="s">
@@ -21575,11 +21622,11 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N416">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O416" t="s">
@@ -21603,11 +21650,11 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N417">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O417" t="s">
@@ -21631,11 +21678,11 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N418">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O418" t="s">
@@ -21659,11 +21706,11 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N419">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O419" t="s">
@@ -21687,11 +21734,11 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N420">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O420" t="s">
@@ -21715,11 +21762,11 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N421">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O421" t="s">
@@ -21743,11 +21790,11 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N422">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O422" t="s">
@@ -21771,11 +21818,11 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N423">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O423" t="s">
@@ -21799,11 +21846,11 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N424">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O424" t="s">
@@ -21827,11 +21874,11 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N425">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O425" t="s">
@@ -21855,11 +21902,11 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N426">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O426" t="s">
@@ -21883,11 +21930,11 @@
         <v>0</v>
       </c>
       <c r="M427">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N427">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O427" t="s">
@@ -21911,11 +21958,11 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N428">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O428" t="s">
@@ -21939,11 +21986,11 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N429">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O429" t="s">
@@ -21967,11 +22014,11 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N430">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O430" t="s">
@@ -21995,11 +22042,11 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N431">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O431" t="s">
@@ -22023,11 +22070,11 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N432">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O432" t="s">
@@ -22051,11 +22098,11 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N433">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O433" t="s">
@@ -22079,11 +22126,11 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N434">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O434" t="s">
@@ -22107,11 +22154,11 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N435">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O435" t="s">
@@ -22135,11 +22182,11 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N436">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O436" t="s">
@@ -22163,11 +22210,11 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N437">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O437" t="s">
@@ -22191,11 +22238,11 @@
         <v>0</v>
       </c>
       <c r="M438">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N438">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O438" t="s">
@@ -22219,11 +22266,11 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N439">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O439" t="s">
@@ -22247,11 +22294,11 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N440">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O440" t="s">
@@ -22275,11 +22322,11 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N441">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O441" t="s">
@@ -22303,11 +22350,11 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O442" t="s">
@@ -22331,11 +22378,11 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N443">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O443" t="s">
@@ -22359,11 +22406,11 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N444">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O444" t="s">
@@ -22387,11 +22434,11 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N445">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O445" t="s">
@@ -22415,11 +22462,11 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N446">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O446" t="s">
@@ -22443,11 +22490,11 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N447">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O447" t="s">
@@ -22471,11 +22518,11 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N448">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O448" t="s">
@@ -22499,11 +22546,11 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N449">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O449" t="s">
@@ -22527,11 +22574,11 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N450">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O450" t="s">
@@ -22555,11 +22602,11 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N451">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O451" t="s">
@@ -22583,11 +22630,11 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N452">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O452" t="s">
@@ -22611,11 +22658,11 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N453">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O453" t="s">
@@ -22639,11 +22686,11 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N454">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O454" t="s">
@@ -22667,11 +22714,11 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N455">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O455" t="s">
@@ -22695,11 +22742,11 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N456">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O456" t="s">
@@ -22723,11 +22770,11 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <f t="shared" ref="M457:M520" si="24">IF(J457="Unsigned",0,-N457)</f>
+        <f t="shared" ref="M457:M520" si="25">IF(J457="Unsigned",0,-N457)</f>
         <v>0</v>
       </c>
       <c r="N457">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4294967295</v>
       </c>
       <c r="O457" t="s">
@@ -22751,11 +22798,11 @@
         <v>0</v>
       </c>
       <c r="M458">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N458">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N458">
-        <f t="shared" si="23"/>
         <v>4294967295</v>
       </c>
       <c r="O458" t="s">
@@ -22779,11 +22826,11 @@
         <v>0</v>
       </c>
       <c r="M459">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N459">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N459">
-        <f t="shared" si="23"/>
         <v>4294967295</v>
       </c>
       <c r="O459" t="s">
@@ -22807,11 +22854,11 @@
         <v>0</v>
       </c>
       <c r="M460">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N460">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N460">
-        <f t="shared" si="23"/>
         <v>4294967295</v>
       </c>
       <c r="O460" t="s">
@@ -22835,11 +22882,11 @@
         <v>0</v>
       </c>
       <c r="M461">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N461">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N461">
-        <f t="shared" si="23"/>
         <v>4294967295</v>
       </c>
       <c r="O461" t="s">
@@ -22863,11 +22910,11 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N462">
-        <f t="shared" ref="N462:N525" si="25">IF(J462="Unsigned",2^(MIN(H462,32))-1,2^(MIN(H462,32))/2-1)</f>
+        <f t="shared" ref="N462:N525" si="26">IF(J462="Unsigned",2^(MIN(H462,32))-1,2^(MIN(H462,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O462" t="s">
@@ -22891,11 +22938,11 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N463">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O463" t="s">
@@ -22919,11 +22966,11 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N464">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O464" t="s">
@@ -22947,11 +22994,11 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N465">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O465" t="s">
@@ -22975,11 +23022,11 @@
         <v>0</v>
       </c>
       <c r="M466">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N466">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O466" t="s">
@@ -23003,11 +23050,11 @@
         <v>0</v>
       </c>
       <c r="M467">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N467">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O467" t="s">
@@ -23031,11 +23078,11 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N468">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O468" t="s">
@@ -23059,11 +23106,11 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N469">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O469" t="s">
@@ -23087,11 +23134,11 @@
         <v>0</v>
       </c>
       <c r="M470">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N470">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O470" t="s">
@@ -23115,11 +23162,11 @@
         <v>0</v>
       </c>
       <c r="M471">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N471">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O471" t="s">
@@ -23143,11 +23190,11 @@
         <v>0</v>
       </c>
       <c r="M472">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N472">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O472" t="s">
@@ -23171,11 +23218,11 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N473">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O473" t="s">
@@ -23199,11 +23246,11 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N474">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O474" t="s">
@@ -23227,11 +23274,11 @@
         <v>0</v>
       </c>
       <c r="M475">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N475">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O475" t="s">
@@ -23255,11 +23302,11 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N476">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O476" t="s">
@@ -23283,11 +23330,11 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N477">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O477" t="s">
@@ -23311,11 +23358,11 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N478">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O478" t="s">
@@ -23339,11 +23386,11 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N479">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O479" t="s">
@@ -23367,11 +23414,11 @@
         <v>0</v>
       </c>
       <c r="M480">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N480">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O480" t="s">
@@ -23395,11 +23442,11 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N481">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O481" t="s">
@@ -23423,11 +23470,11 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N482">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O482" t="s">
@@ -23451,11 +23498,11 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N483">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O483" t="s">
@@ -23479,11 +23526,11 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N484">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O484" t="s">
@@ -23507,11 +23554,11 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N485">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O485" t="s">
@@ -23535,11 +23582,11 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N486">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O486" t="s">
@@ -23563,11 +23610,11 @@
         <v>0</v>
       </c>
       <c r="M487">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N487">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O487" t="s">
@@ -23591,11 +23638,11 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N488">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O488" t="s">
@@ -23619,11 +23666,11 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N489">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O489" t="s">
@@ -23647,11 +23694,11 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N490">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O490" t="s">
@@ -23675,11 +23722,11 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N491">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O491" t="s">
@@ -23703,11 +23750,11 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N492">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O492" t="s">
@@ -23731,11 +23778,11 @@
         <v>0</v>
       </c>
       <c r="M493">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N493">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O493" t="s">
@@ -23759,11 +23806,11 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N494">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O494" t="s">
@@ -23787,11 +23834,11 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N495">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O495" t="s">
@@ -23815,11 +23862,11 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N496">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O496" t="s">
@@ -23843,11 +23890,11 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N497">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O497" t="s">
@@ -23871,11 +23918,11 @@
         <v>0</v>
       </c>
       <c r="M498">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N498">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O498" t="s">
@@ -23899,11 +23946,11 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N499">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O499" t="s">
@@ -23927,11 +23974,11 @@
         <v>0</v>
       </c>
       <c r="M500">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N500">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O500" t="s">
@@ -23955,11 +24002,11 @@
         <v>0</v>
       </c>
       <c r="M501">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N501">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O501" t="s">
@@ -23983,11 +24030,11 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N502">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O502" t="s">
@@ -24011,11 +24058,11 @@
         <v>0</v>
       </c>
       <c r="M503">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N503">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O503" t="s">
@@ -24039,11 +24086,11 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N504">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O504" t="s">
@@ -24067,11 +24114,11 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N505">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O505" t="s">
@@ -24095,11 +24142,11 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N506">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O506" t="s">
@@ -24123,11 +24170,11 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N507">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O507" t="s">
@@ -24151,11 +24198,11 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N508">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O508" t="s">
@@ -24179,11 +24226,11 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N509">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O509" t="s">
@@ -24207,11 +24254,11 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N510">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O510" t="s">
@@ -24235,11 +24282,11 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N511">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O511" t="s">
@@ -24263,11 +24310,11 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N512">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O512" t="s">
@@ -24291,11 +24338,11 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N513">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O513" t="s">
@@ -24319,11 +24366,11 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N514">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O514" t="s">
@@ -24347,11 +24394,11 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N515">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O515" t="s">
@@ -24375,11 +24422,11 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N516">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O516" t="s">
@@ -24403,11 +24450,11 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N517">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O517" t="s">
@@ -24431,11 +24478,11 @@
         <v>0</v>
       </c>
       <c r="M518">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N518">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O518" t="s">
@@ -24459,11 +24506,11 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N519">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O519" t="s">
@@ -24487,11 +24534,11 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N520">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O520" t="s">
@@ -24515,11 +24562,11 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <f t="shared" ref="M521:M584" si="26">IF(J521="Unsigned",0,-N521)</f>
+        <f t="shared" ref="M521:M584" si="27">IF(J521="Unsigned",0,-N521)</f>
         <v>0</v>
       </c>
       <c r="N521">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4294967295</v>
       </c>
       <c r="O521" t="s">
@@ -24543,11 +24590,11 @@
         <v>0</v>
       </c>
       <c r="M522">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N522">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N522">
-        <f t="shared" si="25"/>
         <v>4294967295</v>
       </c>
       <c r="O522" t="s">
@@ -24571,11 +24618,11 @@
         <v>0</v>
       </c>
       <c r="M523">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N523">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N523">
-        <f t="shared" si="25"/>
         <v>4294967295</v>
       </c>
       <c r="O523" t="s">
@@ -24599,11 +24646,11 @@
         <v>0</v>
       </c>
       <c r="M524">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N524">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N524">
-        <f t="shared" si="25"/>
         <v>4294967295</v>
       </c>
       <c r="O524" t="s">
@@ -24627,11 +24674,11 @@
         <v>0</v>
       </c>
       <c r="M525">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N525">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N525">
-        <f t="shared" si="25"/>
         <v>4294967295</v>
       </c>
       <c r="O525" t="s">
@@ -24655,11 +24702,11 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N526">
-        <f t="shared" ref="N526:N589" si="27">IF(J526="Unsigned",2^(MIN(H526,32))-1,2^(MIN(H526,32))/2-1)</f>
+        <f t="shared" ref="N526:N589" si="28">IF(J526="Unsigned",2^(MIN(H526,32))-1,2^(MIN(H526,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O526" t="s">
@@ -24683,11 +24730,11 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N527">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O527" t="s">
@@ -24711,11 +24758,11 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N528">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O528" t="s">
@@ -24739,11 +24786,11 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N529">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O529" t="s">
@@ -24767,11 +24814,11 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N530">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O530" t="s">
@@ -24795,11 +24842,11 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N531">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O531" t="s">
@@ -24823,11 +24870,11 @@
         <v>0</v>
       </c>
       <c r="M532">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N532">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O532" t="s">
@@ -24851,11 +24898,11 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N533">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O533" t="s">
@@ -24879,11 +24926,11 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N534">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O534" t="s">
@@ -24907,11 +24954,11 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N535">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O535" t="s">
@@ -24935,11 +24982,11 @@
         <v>0</v>
       </c>
       <c r="M536">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N536">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O536" t="s">
@@ -24963,11 +25010,11 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N537">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O537" t="s">
@@ -24991,11 +25038,11 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N538">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O538" t="s">
@@ -25019,11 +25066,11 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N539">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O539" t="s">
@@ -25047,11 +25094,11 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O540" t="s">
@@ -25075,11 +25122,11 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N541">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O541" t="s">
@@ -25103,11 +25150,11 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N542">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O542" t="s">
@@ -25131,11 +25178,11 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N543">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O543" t="s">
@@ -25159,11 +25206,11 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N544">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O544" t="s">
@@ -25187,11 +25234,11 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N545">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O545" t="s">
@@ -25215,11 +25262,11 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N546">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O546" t="s">
@@ -25243,11 +25290,11 @@
         <v>0</v>
       </c>
       <c r="M547">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N547">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O547" t="s">
@@ -25271,11 +25318,11 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N548">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O548" t="s">
@@ -25299,11 +25346,11 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N549">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O549" t="s">
@@ -25327,11 +25374,11 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N550">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O550" t="s">
@@ -25355,11 +25402,11 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N551">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O551" t="s">
@@ -25383,11 +25430,11 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N552">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O552" t="s">
@@ -25411,11 +25458,11 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N553">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O553" t="s">
@@ -25439,11 +25486,11 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N554">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O554" t="s">
@@ -25467,11 +25514,11 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N555">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O555" t="s">
@@ -25495,11 +25542,11 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N556">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O556" t="s">
@@ -25523,11 +25570,11 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N557">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O557" t="s">
@@ -25551,11 +25598,11 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N558">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O558" t="s">
@@ -25579,11 +25626,11 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N559">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O559" t="s">
@@ -25607,11 +25654,11 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N560">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O560" t="s">
@@ -25635,11 +25682,11 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N561">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O561" t="s">
@@ -25663,11 +25710,11 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N562">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O562" t="s">
@@ -25691,11 +25738,11 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N563">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O563" t="s">
@@ -25719,11 +25766,11 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N564">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O564" t="s">
@@ -25747,11 +25794,11 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N565">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O565" t="s">
@@ -25775,11 +25822,11 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N566">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O566" t="s">
@@ -25803,11 +25850,11 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N567">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O567" t="s">
@@ -25831,11 +25878,11 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N568">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O568" t="s">
@@ -25859,11 +25906,11 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N569">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O569" t="s">
@@ -25887,11 +25934,11 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N570">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O570" t="s">
@@ -25915,11 +25962,11 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N571">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O571" t="s">
@@ -25943,11 +25990,11 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N572">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O572" t="s">
@@ -25971,11 +26018,11 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N573">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O573" t="s">
@@ -25999,11 +26046,11 @@
         <v>0</v>
       </c>
       <c r="M574">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N574">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O574" t="s">
@@ -26027,11 +26074,11 @@
         <v>0</v>
       </c>
       <c r="M575">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N575">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O575" t="s">
@@ -26055,11 +26102,11 @@
         <v>0</v>
       </c>
       <c r="M576">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N576">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O576" t="s">
@@ -26083,11 +26130,11 @@
         <v>0</v>
       </c>
       <c r="M577">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N577">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O577" t="s">
@@ -26111,11 +26158,11 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N578">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O578" t="s">
@@ -26139,11 +26186,11 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N579">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O579" t="s">
@@ -26167,11 +26214,11 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N580">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O580" t="s">
@@ -26195,11 +26242,11 @@
         <v>0</v>
       </c>
       <c r="M581">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N581">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O581" t="s">
@@ -26223,11 +26270,11 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N582">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O582" t="s">
@@ -26251,11 +26298,11 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N583">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O583" t="s">
@@ -26279,11 +26326,11 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N584">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O584" t="s">
@@ -26307,11 +26354,11 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <f t="shared" ref="M585:M648" si="28">IF(J585="Unsigned",0,-N585)</f>
+        <f t="shared" ref="M585:M648" si="29">IF(J585="Unsigned",0,-N585)</f>
         <v>0</v>
       </c>
       <c r="N585">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
       <c r="O585" t="s">
@@ -26335,11 +26382,11 @@
         <v>0</v>
       </c>
       <c r="M586">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N586">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N586">
-        <f t="shared" si="27"/>
         <v>4294967295</v>
       </c>
       <c r="O586" t="s">
@@ -26363,11 +26410,11 @@
         <v>0</v>
       </c>
       <c r="M587">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N587">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N587">
-        <f t="shared" si="27"/>
         <v>4294967295</v>
       </c>
       <c r="O587" t="s">
@@ -26391,11 +26438,11 @@
         <v>0</v>
       </c>
       <c r="M588">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N588">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N588">
-        <f t="shared" si="27"/>
         <v>4294967295</v>
       </c>
       <c r="O588" t="s">
@@ -26419,11 +26466,11 @@
         <v>0</v>
       </c>
       <c r="M589">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N589">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N589">
-        <f t="shared" si="27"/>
         <v>4294967295</v>
       </c>
       <c r="O589" t="s">
@@ -26447,11 +26494,11 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N590">
-        <f t="shared" ref="N590:N653" si="29">IF(J590="Unsigned",2^(MIN(H590,32))-1,2^(MIN(H590,32))/2-1)</f>
+        <f t="shared" ref="N590:N653" si="30">IF(J590="Unsigned",2^(MIN(H590,32))-1,2^(MIN(H590,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O590" t="s">
@@ -26475,11 +26522,11 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N591">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O591" t="s">
@@ -26503,11 +26550,11 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N592">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O592" t="s">
@@ -26531,11 +26578,11 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N593">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O593" t="s">
@@ -26559,11 +26606,11 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N594">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O594" t="s">
@@ -26587,11 +26634,11 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N595">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O595" t="s">
@@ -26615,11 +26662,11 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N596">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O596" t="s">
@@ -26643,11 +26690,11 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N597">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O597" t="s">
@@ -26671,11 +26718,11 @@
         <v>0</v>
       </c>
       <c r="M598">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N598">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O598" t="s">
@@ -26699,11 +26746,11 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N599">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O599" t="s">
@@ -26727,11 +26774,11 @@
         <v>0</v>
       </c>
       <c r="M600">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N600">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O600" t="s">
@@ -26755,11 +26802,11 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N601">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O601" t="s">
@@ -26783,11 +26830,11 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N602">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O602" t="s">
@@ -26811,11 +26858,11 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N603">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O603" t="s">
@@ -26839,11 +26886,11 @@
         <v>0</v>
       </c>
       <c r="M604">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N604">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O604" t="s">
@@ -26867,11 +26914,11 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N605">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O605" t="s">
@@ -26895,11 +26942,11 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N606">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O606" t="s">
@@ -26923,11 +26970,11 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N607">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O607" t="s">
@@ -26951,11 +26998,11 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N608">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O608" t="s">
@@ -26979,11 +27026,11 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N609">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O609" t="s">
@@ -27007,11 +27054,11 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N610">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O610" t="s">
@@ -27035,11 +27082,11 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N611">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O611" t="s">
@@ -27063,11 +27110,11 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N612">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O612" t="s">
@@ -27091,11 +27138,11 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N613">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O613" t="s">
@@ -27119,11 +27166,11 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N614">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O614" t="s">
@@ -27147,11 +27194,11 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N615">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O615" t="s">
@@ -27175,11 +27222,11 @@
         <v>0</v>
       </c>
       <c r="M616">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N616">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O616" t="s">
@@ -27203,11 +27250,11 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N617">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O617" t="s">
@@ -27231,11 +27278,11 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N618">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O618" t="s">
@@ -27259,11 +27306,11 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N619">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O619" t="s">
@@ -27287,11 +27334,11 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N620">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O620" t="s">
@@ -27315,11 +27362,11 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N621">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O621" t="s">
@@ -27343,11 +27390,11 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N622">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O622" t="s">
@@ -27371,11 +27418,11 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N623">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O623" t="s">
@@ -27399,11 +27446,11 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N624">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O624" t="s">
@@ -27427,11 +27474,11 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N625">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O625" t="s">
@@ -27455,11 +27502,11 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N626">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O626" t="s">
@@ -27483,11 +27530,11 @@
         <v>0</v>
       </c>
       <c r="M627">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N627">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O627" t="s">
@@ -27511,11 +27558,11 @@
         <v>0</v>
       </c>
       <c r="M628">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N628">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O628" t="s">
@@ -27539,11 +27586,11 @@
         <v>0</v>
       </c>
       <c r="M629">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N629">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O629" t="s">
@@ -27567,11 +27614,11 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N630">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O630" t="s">
@@ -27595,11 +27642,11 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N631">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O631" t="s">
@@ -27623,11 +27670,11 @@
         <v>0</v>
       </c>
       <c r="M632">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N632">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O632" t="s">
@@ -27651,11 +27698,11 @@
         <v>0</v>
       </c>
       <c r="M633">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N633">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O633" t="s">
@@ -27679,11 +27726,11 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N634">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O634" t="s">
@@ -27707,11 +27754,11 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N635">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O635" t="s">
@@ -27735,11 +27782,11 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N636">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O636" t="s">
@@ -27763,11 +27810,11 @@
         <v>0</v>
       </c>
       <c r="M637">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N637">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O637" t="s">
@@ -27791,11 +27838,11 @@
         <v>0</v>
       </c>
       <c r="M638">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N638">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O638" t="s">
@@ -27819,11 +27866,11 @@
         <v>0</v>
       </c>
       <c r="M639">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N639">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O639" t="s">
@@ -27847,11 +27894,11 @@
         <v>0</v>
       </c>
       <c r="M640">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N640">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O640" t="s">
@@ -27875,11 +27922,11 @@
         <v>0</v>
       </c>
       <c r="M641">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N641">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O641" t="s">
@@ -27903,11 +27950,11 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N642">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O642" t="s">
@@ -27931,11 +27978,11 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N643">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O643" t="s">
@@ -27959,11 +28006,11 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N644">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O644" t="s">
@@ -27987,11 +28034,11 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N645">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O645" t="s">
@@ -28015,11 +28062,11 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N646">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O646" t="s">
@@ -28043,11 +28090,11 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N647">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O647" t="s">
@@ -28071,11 +28118,11 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N648">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O648" t="s">
@@ -28099,11 +28146,11 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <f t="shared" ref="M649:M712" si="30">IF(J649="Unsigned",0,-N649)</f>
+        <f t="shared" ref="M649:M712" si="31">IF(J649="Unsigned",0,-N649)</f>
         <v>0</v>
       </c>
       <c r="N649">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O649" t="s">
@@ -28127,11 +28174,11 @@
         <v>0</v>
       </c>
       <c r="M650">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N650">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N650">
-        <f t="shared" si="29"/>
         <v>4294967295</v>
       </c>
       <c r="O650" t="s">
@@ -28155,11 +28202,11 @@
         <v>0</v>
       </c>
       <c r="M651">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N651">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N651">
-        <f t="shared" si="29"/>
         <v>4294967295</v>
       </c>
       <c r="O651" t="s">
@@ -28183,11 +28230,11 @@
         <v>0</v>
       </c>
       <c r="M652">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N652">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N652">
-        <f t="shared" si="29"/>
         <v>4294967295</v>
       </c>
       <c r="O652" t="s">
@@ -28211,11 +28258,11 @@
         <v>0</v>
       </c>
       <c r="M653">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N653">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N653">
-        <f t="shared" si="29"/>
         <v>4294967295</v>
       </c>
       <c r="O653" t="s">
@@ -28239,11 +28286,11 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N654">
-        <f t="shared" ref="N654:N717" si="31">IF(J654="Unsigned",2^(MIN(H654,32))-1,2^(MIN(H654,32))/2-1)</f>
+        <f t="shared" ref="N654:N717" si="32">IF(J654="Unsigned",2^(MIN(H654,32))-1,2^(MIN(H654,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O654" t="s">
@@ -28267,11 +28314,11 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N655">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O655" t="s">
@@ -28295,11 +28342,11 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N656">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O656" t="s">
@@ -28323,11 +28370,11 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N657">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O657" t="s">
@@ -28351,11 +28398,11 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N658">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O658" t="s">
@@ -28379,11 +28426,11 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N659">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O659" t="s">
@@ -28407,11 +28454,11 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N660">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O660" t="s">
@@ -28435,11 +28482,11 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N661">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O661" t="s">
@@ -28463,11 +28510,11 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N662">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O662" t="s">
@@ -28491,11 +28538,11 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N663">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O663" t="s">
@@ -28519,11 +28566,11 @@
         <v>0</v>
       </c>
       <c r="M664">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N664">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O664" t="s">
@@ -28547,11 +28594,11 @@
         <v>0</v>
       </c>
       <c r="M665">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N665">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O665" t="s">
@@ -28575,11 +28622,11 @@
         <v>0</v>
       </c>
       <c r="M666">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N666">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O666" t="s">
@@ -28603,11 +28650,11 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N667">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O667" t="s">
@@ -28631,11 +28678,11 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N668">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O668" t="s">
@@ -28659,11 +28706,11 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N669">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O669" t="s">
@@ -28687,11 +28734,11 @@
         <v>0</v>
       </c>
       <c r="M670">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N670">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O670" t="s">
@@ -28715,11 +28762,11 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N671">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O671" t="s">
@@ -28743,11 +28790,11 @@
         <v>0</v>
       </c>
       <c r="M672">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N672">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O672" t="s">
@@ -28771,11 +28818,11 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N673">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O673" t="s">
@@ -28799,11 +28846,11 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N674">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O674" t="s">
@@ -28827,11 +28874,11 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N675">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O675" t="s">
@@ -28855,11 +28902,11 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N676">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O676" t="s">
@@ -28883,11 +28930,11 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N677">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O677" t="s">
@@ -28911,11 +28958,11 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N678">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O678" t="s">
@@ -28939,11 +28986,11 @@
         <v>0</v>
       </c>
       <c r="M679">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N679">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O679" t="s">
@@ -28967,11 +29014,11 @@
         <v>0</v>
       </c>
       <c r="M680">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N680">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O680" t="s">
@@ -28995,11 +29042,11 @@
         <v>0</v>
       </c>
       <c r="M681">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N681">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O681" t="s">
@@ -29023,11 +29070,11 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N682">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O682" t="s">
@@ -29051,11 +29098,11 @@
         <v>0</v>
       </c>
       <c r="M683">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N683">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O683" t="s">
@@ -29079,11 +29126,11 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N684">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O684" t="s">
@@ -29107,11 +29154,11 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N685">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O685" t="s">
@@ -29135,11 +29182,11 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N686">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O686" t="s">
@@ -29163,11 +29210,11 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N687">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O687" t="s">
@@ -29191,11 +29238,11 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N688">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O688" t="s">
@@ -29219,11 +29266,11 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N689">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O689" t="s">
@@ -29247,11 +29294,11 @@
         <v>0</v>
       </c>
       <c r="M690">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N690">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O690" t="s">
@@ -29275,11 +29322,11 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N691">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O691" t="s">
@@ -29303,11 +29350,11 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N692">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O692" t="s">
@@ -29331,11 +29378,11 @@
         <v>0</v>
       </c>
       <c r="M693">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N693">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O693" t="s">
@@ -29359,11 +29406,11 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N694">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O694" t="s">
@@ -29387,11 +29434,11 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N695">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O695" t="s">
@@ -29415,11 +29462,11 @@
         <v>0</v>
       </c>
       <c r="M696">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N696">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O696" t="s">
@@ -29443,11 +29490,11 @@
         <v>0</v>
       </c>
       <c r="M697">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N697">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O697" t="s">
@@ -29471,11 +29518,11 @@
         <v>0</v>
       </c>
       <c r="M698">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N698">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O698" t="s">
@@ -29499,11 +29546,11 @@
         <v>0</v>
       </c>
       <c r="M699">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N699">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O699" t="s">
@@ -29527,11 +29574,11 @@
         <v>0</v>
       </c>
       <c r="M700">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N700">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O700" t="s">
@@ -29555,11 +29602,11 @@
         <v>0</v>
       </c>
       <c r="M701">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N701">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O701" t="s">
@@ -29583,11 +29630,11 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N702">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O702" t="s">
@@ -29611,11 +29658,11 @@
         <v>0</v>
       </c>
       <c r="M703">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N703">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O703" t="s">
@@ -29639,11 +29686,11 @@
         <v>0</v>
       </c>
       <c r="M704">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N704">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O704" t="s">
@@ -29667,11 +29714,11 @@
         <v>0</v>
       </c>
       <c r="M705">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N705">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O705" t="s">
@@ -29695,11 +29742,11 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N706">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O706" t="s">
@@ -29723,11 +29770,11 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N707">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O707" t="s">
@@ -29751,11 +29798,11 @@
         <v>0</v>
       </c>
       <c r="M708">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N708">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O708" t="s">
@@ -29779,11 +29826,11 @@
         <v>0</v>
       </c>
       <c r="M709">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N709">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O709" t="s">
@@ -29807,11 +29854,11 @@
         <v>0</v>
       </c>
       <c r="M710">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N710">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O710" t="s">
@@ -29835,11 +29882,11 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N711">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O711" t="s">
@@ -29863,11 +29910,11 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N712">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O712" t="s">
@@ -29891,11 +29938,11 @@
         <v>0</v>
       </c>
       <c r="M713">
-        <f t="shared" ref="M713:M776" si="32">IF(J713="Unsigned",0,-N713)</f>
+        <f t="shared" ref="M713:M776" si="33">IF(J713="Unsigned",0,-N713)</f>
         <v>0</v>
       </c>
       <c r="N713">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O713" t="s">
@@ -29919,11 +29966,11 @@
         <v>0</v>
       </c>
       <c r="M714">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N714">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N714">
-        <f t="shared" si="31"/>
         <v>4294967295</v>
       </c>
       <c r="O714" t="s">
@@ -29947,11 +29994,11 @@
         <v>0</v>
       </c>
       <c r="M715">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N715">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N715">
-        <f t="shared" si="31"/>
         <v>4294967295</v>
       </c>
       <c r="O715" t="s">
@@ -29975,11 +30022,11 @@
         <v>0</v>
       </c>
       <c r="M716">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N716">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N716">
-        <f t="shared" si="31"/>
         <v>4294967295</v>
       </c>
       <c r="O716" t="s">
@@ -30003,11 +30050,11 @@
         <v>0</v>
       </c>
       <c r="M717">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N717">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N717">
-        <f t="shared" si="31"/>
         <v>4294967295</v>
       </c>
       <c r="O717" t="s">
@@ -30031,11 +30078,11 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N718">
-        <f t="shared" ref="N718:N781" si="33">IF(J718="Unsigned",2^(MIN(H718,32))-1,2^(MIN(H718,32))/2-1)</f>
+        <f t="shared" ref="N718:N781" si="34">IF(J718="Unsigned",2^(MIN(H718,32))-1,2^(MIN(H718,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O718" t="s">
@@ -30059,11 +30106,11 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N719">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O719" t="s">
@@ -30087,11 +30134,11 @@
         <v>0</v>
       </c>
       <c r="M720">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N720">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O720" t="s">
@@ -30115,11 +30162,11 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N721">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O721" t="s">
@@ -30143,11 +30190,11 @@
         <v>0</v>
       </c>
       <c r="M722">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N722">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O722" t="s">
@@ -30171,11 +30218,11 @@
         <v>0</v>
       </c>
       <c r="M723">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N723">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O723" t="s">
@@ -30199,11 +30246,11 @@
         <v>0</v>
       </c>
       <c r="M724">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N724">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O724" t="s">
@@ -30227,11 +30274,11 @@
         <v>0</v>
       </c>
       <c r="M725">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N725">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O725" t="s">
@@ -30255,11 +30302,11 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N726">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O726" t="s">
@@ -30283,11 +30330,11 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N727">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O727" t="s">
@@ -30311,11 +30358,11 @@
         <v>0</v>
       </c>
       <c r="M728">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N728">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O728" t="s">
@@ -30339,11 +30386,11 @@
         <v>0</v>
       </c>
       <c r="M729">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N729">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O729" t="s">
@@ -30367,11 +30414,11 @@
         <v>0</v>
       </c>
       <c r="M730">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N730">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O730" t="s">
@@ -30395,11 +30442,11 @@
         <v>0</v>
       </c>
       <c r="M731">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N731">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O731" t="s">
@@ -30423,11 +30470,11 @@
         <v>0</v>
       </c>
       <c r="M732">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N732">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O732" t="s">
@@ -30451,11 +30498,11 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N733">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O733" t="s">
@@ -30479,11 +30526,11 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N734">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O734" t="s">
@@ -30507,11 +30554,11 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N735">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O735" t="s">
@@ -30535,11 +30582,11 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N736">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O736" t="s">
@@ -30563,11 +30610,11 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N737">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O737" t="s">
@@ -30591,11 +30638,11 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N738">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O738" t="s">
@@ -30619,11 +30666,11 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N739">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O739" t="s">
@@ -30647,11 +30694,11 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N740">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O740" t="s">
@@ -30675,11 +30722,11 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N741">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O741" t="s">
@@ -30703,11 +30750,11 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N742">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O742" t="s">
@@ -30731,11 +30778,11 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N743">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O743" t="s">
@@ -30759,11 +30806,11 @@
         <v>0</v>
       </c>
       <c r="M744">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N744">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X744" t="s">
@@ -30784,11 +30831,11 @@
         <v>0</v>
       </c>
       <c r="M745">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N745">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X745" t="s">
@@ -30809,11 +30856,11 @@
         <v>0</v>
       </c>
       <c r="M746">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N746">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X746" t="s">
@@ -30834,11 +30881,11 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N747">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X747" t="s">
@@ -30859,11 +30906,11 @@
         <v>0</v>
       </c>
       <c r="M748">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N748">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X748" t="s">
@@ -30884,11 +30931,11 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N749">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X749" t="s">
@@ -30909,11 +30956,11 @@
         <v>0</v>
       </c>
       <c r="M750">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N750">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X750" t="s">
@@ -30934,11 +30981,11 @@
         <v>0</v>
       </c>
       <c r="M751">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N751">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X751" t="s">
@@ -30959,11 +31006,11 @@
         <v>0</v>
       </c>
       <c r="M752">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N752">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X752" t="s">
@@ -30984,11 +31031,11 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N753">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X753" t="s">
@@ -31009,11 +31056,11 @@
         <v>0</v>
       </c>
       <c r="M754">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N754">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X754" t="s">
@@ -31034,11 +31081,11 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N755">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X755" t="s">
@@ -31059,11 +31106,11 @@
         <v>0</v>
       </c>
       <c r="M756">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N756">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X756" t="s">
@@ -31084,11 +31131,11 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N757">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X757" t="s">
@@ -31109,11 +31156,11 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N758">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X758" t="s">
@@ -31134,11 +31181,11 @@
         <v>0</v>
       </c>
       <c r="M759">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N759">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X759" t="s">
@@ -31159,11 +31206,11 @@
         <v>0</v>
       </c>
       <c r="M760">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N760">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X760" t="s">
@@ -31184,11 +31231,11 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N761">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X761" t="s">
@@ -31209,11 +31256,11 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N762">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X762" t="s">
@@ -31234,11 +31281,11 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N763">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X763" t="s">
@@ -31259,11 +31306,11 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N764">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X764" t="s">
@@ -31284,11 +31331,11 @@
         <v>0</v>
       </c>
       <c r="M765">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N765">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X765" t="s">
@@ -31309,11 +31356,11 @@
         <v>0</v>
       </c>
       <c r="M766">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N766">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X766" t="s">
@@ -31334,11 +31381,11 @@
         <v>0</v>
       </c>
       <c r="M767">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N767">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X767" t="s">
@@ -31359,11 +31406,11 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N768">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X768" t="s">
@@ -31384,11 +31431,11 @@
         <v>0</v>
       </c>
       <c r="M769">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N769">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X769" t="s">
@@ -31409,11 +31456,11 @@
         <v>0</v>
       </c>
       <c r="M770">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N770">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X770" t="s">
@@ -31434,11 +31481,11 @@
         <v>0</v>
       </c>
       <c r="M771">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N771">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X771" t="s">
@@ -31459,11 +31506,11 @@
         <v>0</v>
       </c>
       <c r="M772">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N772">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X772" t="s">
@@ -31484,11 +31531,11 @@
         <v>0</v>
       </c>
       <c r="M773">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N773">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X773" t="s">
@@ -31509,11 +31556,11 @@
         <v>0</v>
       </c>
       <c r="M774">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N774">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X774" t="s">
@@ -31534,11 +31581,11 @@
         <v>0</v>
       </c>
       <c r="M775">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N775">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X775" t="s">
@@ -31559,11 +31606,11 @@
         <v>0</v>
       </c>
       <c r="M776">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N776">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X776" t="s">
@@ -31584,11 +31631,11 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <f t="shared" ref="M777:M840" si="34">IF(J777="Unsigned",0,-N777)</f>
+        <f t="shared" ref="M777:M840" si="35">IF(J777="Unsigned",0,-N777)</f>
         <v>0</v>
       </c>
       <c r="N777">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="X777" t="s">
@@ -31609,11 +31656,11 @@
         <v>0</v>
       </c>
       <c r="M778">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N778">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N778">
-        <f t="shared" si="33"/>
         <v>4294967295</v>
       </c>
       <c r="X778" t="s">
@@ -31634,11 +31681,11 @@
         <v>0</v>
       </c>
       <c r="M779">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N779">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N779">
-        <f t="shared" si="33"/>
         <v>4294967295</v>
       </c>
       <c r="X779" t="s">
@@ -31659,11 +31706,11 @@
         <v>0</v>
       </c>
       <c r="M780">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N780">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N780">
-        <f t="shared" si="33"/>
         <v>4294967295</v>
       </c>
       <c r="X780" t="s">
@@ -31684,11 +31731,11 @@
         <v>0</v>
       </c>
       <c r="M781">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N781">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N781">
-        <f t="shared" si="33"/>
         <v>4294967295</v>
       </c>
       <c r="X781" t="s">
@@ -31709,11 +31756,11 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N782">
-        <f t="shared" ref="N782:N845" si="35">IF(J782="Unsigned",2^(MIN(H782,32))-1,2^(MIN(H782,32))/2-1)</f>
+        <f t="shared" ref="N782:N845" si="36">IF(J782="Unsigned",2^(MIN(H782,32))-1,2^(MIN(H782,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="X782" t="s">
@@ -31734,11 +31781,11 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N783">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X783" t="s">
@@ -31759,11 +31806,11 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N784">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X784" t="s">
@@ -31784,11 +31831,11 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N785">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X785" t="s">
@@ -31809,11 +31856,11 @@
         <v>0</v>
       </c>
       <c r="M786">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N786">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X786" t="s">
@@ -31834,11 +31881,11 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N787">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X787" t="s">
@@ -31859,11 +31906,11 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N788">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X788" t="s">
@@ -31884,11 +31931,11 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N789">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X789" t="s">
@@ -31909,11 +31956,11 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N790">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X790" t="s">
@@ -31934,11 +31981,11 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N791">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X791" t="s">
@@ -31959,11 +32006,11 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N792">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X792" t="s">
@@ -31984,11 +32031,11 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N793">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X793" t="s">
@@ -32009,11 +32056,11 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N794">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X794" t="s">
@@ -32034,11 +32081,11 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N795">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X795" t="s">
@@ -32059,11 +32106,11 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N796">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X796" t="s">
@@ -32084,11 +32131,11 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N797">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X797" t="s">
@@ -32109,11 +32156,11 @@
         <v>0</v>
       </c>
       <c r="M798">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N798">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X798" t="s">
@@ -32134,11 +32181,11 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N799">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X799" t="s">
@@ -32159,11 +32206,11 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N800">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X800" t="s">
@@ -32184,11 +32231,11 @@
         <v>0</v>
       </c>
       <c r="M801">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N801">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X801" t="s">
@@ -32209,11 +32256,11 @@
         <v>0</v>
       </c>
       <c r="M802">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N802">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X802" t="s">
@@ -32234,11 +32281,11 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N803">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X803" t="s">
@@ -32259,11 +32306,11 @@
         <v>0</v>
       </c>
       <c r="M804">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N804">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X804" t="s">
@@ -32284,11 +32331,11 @@
         <v>0</v>
       </c>
       <c r="M805">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N805">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X805" t="s">
@@ -32309,11 +32356,11 @@
         <v>0</v>
       </c>
       <c r="M806">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N806">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X806" t="s">
@@ -32334,11 +32381,11 @@
         <v>0</v>
       </c>
       <c r="M807">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N807">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X807" t="s">
@@ -32359,11 +32406,11 @@
         <v>0</v>
       </c>
       <c r="M808">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N808">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X808" t="s">
@@ -32384,11 +32431,11 @@
         <v>0</v>
       </c>
       <c r="M809">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N809">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X809" t="s">
@@ -32409,11 +32456,11 @@
         <v>0</v>
       </c>
       <c r="M810">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N810">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X810" t="s">
@@ -32434,11 +32481,11 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N811">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X811" t="s">
@@ -32459,11 +32506,11 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N812">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X812" t="s">
@@ -32484,11 +32531,11 @@
         <v>0</v>
       </c>
       <c r="M813">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N813">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X813" t="s">
@@ -32509,11 +32556,11 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N814">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X814" t="s">
@@ -32534,11 +32581,11 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N815">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X815" t="s">
@@ -32559,11 +32606,11 @@
         <v>0</v>
       </c>
       <c r="M816">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N816">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X816" t="s">
@@ -32584,11 +32631,11 @@
         <v>0</v>
       </c>
       <c r="M817">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N817">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X817" t="s">
@@ -32609,11 +32656,11 @@
         <v>0</v>
       </c>
       <c r="M818">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N818">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X818" t="s">
@@ -32634,11 +32681,11 @@
         <v>0</v>
       </c>
       <c r="M819">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N819">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X819" t="s">
@@ -32659,11 +32706,11 @@
         <v>0</v>
       </c>
       <c r="M820">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N820">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X820" t="s">
@@ -32684,11 +32731,11 @@
         <v>0</v>
       </c>
       <c r="M821">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N821">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X821" t="s">
@@ -32709,11 +32756,11 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N822">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X822" t="s">
@@ -32734,11 +32781,11 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N823">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X823" t="s">
@@ -32759,11 +32806,11 @@
         <v>0</v>
       </c>
       <c r="M824">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N824">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X824" t="s">
@@ -32784,11 +32831,11 @@
         <v>0</v>
       </c>
       <c r="M825">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N825">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X825" t="s">
@@ -32809,11 +32856,11 @@
         <v>0</v>
       </c>
       <c r="M826">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N826">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X826" t="s">
@@ -32834,11 +32881,11 @@
         <v>0</v>
       </c>
       <c r="M827">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N827">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X827" t="s">
@@ -32859,11 +32906,11 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N828">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X828" t="s">
@@ -32884,11 +32931,11 @@
         <v>0</v>
       </c>
       <c r="M829">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N829">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X829" t="s">
@@ -32909,11 +32956,11 @@
         <v>0</v>
       </c>
       <c r="M830">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N830">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X830" t="s">
@@ -32934,11 +32981,11 @@
         <v>0</v>
       </c>
       <c r="M831">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N831">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X831" t="s">
@@ -32959,11 +33006,11 @@
         <v>0</v>
       </c>
       <c r="M832">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N832">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X832" t="s">
@@ -32984,11 +33031,11 @@
         <v>0</v>
       </c>
       <c r="M833">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N833">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X833" t="s">
@@ -33009,11 +33056,11 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N834">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X834" t="s">
@@ -33034,11 +33081,11 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N835">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X835" t="s">
@@ -33059,11 +33106,11 @@
         <v>0</v>
       </c>
       <c r="M836">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N836">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X836" t="s">
@@ -33084,11 +33131,11 @@
         <v>0</v>
       </c>
       <c r="M837">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N837">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X837" t="s">
@@ -33109,11 +33156,11 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N838">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X838" t="s">
@@ -33134,11 +33181,11 @@
         <v>0</v>
       </c>
       <c r="M839">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N839">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X839" t="s">
@@ -33159,11 +33206,11 @@
         <v>0</v>
       </c>
       <c r="M840">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N840">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X840" t="s">
@@ -33184,11 +33231,11 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <f t="shared" ref="M841:M904" si="36">IF(J841="Unsigned",0,-N841)</f>
+        <f t="shared" ref="M841:M904" si="37">IF(J841="Unsigned",0,-N841)</f>
         <v>0</v>
       </c>
       <c r="N841">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="X841" t="s">
@@ -33209,11 +33256,11 @@
         <v>0</v>
       </c>
       <c r="M842">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N842">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N842">
-        <f t="shared" si="35"/>
         <v>4294967295</v>
       </c>
       <c r="X842" t="s">
@@ -33234,11 +33281,11 @@
         <v>0</v>
       </c>
       <c r="M843">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N843">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N843">
-        <f t="shared" si="35"/>
         <v>4294967295</v>
       </c>
       <c r="X843" t="s">
@@ -33259,11 +33306,11 @@
         <v>0</v>
       </c>
       <c r="M844">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N844">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N844">
-        <f t="shared" si="35"/>
         <v>4294967295</v>
       </c>
       <c r="X844" t="s">
@@ -33284,11 +33331,11 @@
         <v>0</v>
       </c>
       <c r="M845">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N845">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N845">
-        <f t="shared" si="35"/>
         <v>4294967295</v>
       </c>
       <c r="X845" t="s">
@@ -33309,11 +33356,11 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N846">
-        <f t="shared" ref="N846:N909" si="37">IF(J846="Unsigned",2^(MIN(H846,32))-1,2^(MIN(H846,32))/2-1)</f>
+        <f t="shared" ref="N846:N909" si="38">IF(J846="Unsigned",2^(MIN(H846,32))-1,2^(MIN(H846,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="X846" t="s">
@@ -33334,11 +33381,11 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N847">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X847" t="s">
@@ -33359,11 +33406,11 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N848">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X848" t="s">
@@ -33384,11 +33431,11 @@
         <v>0</v>
       </c>
       <c r="M849">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N849">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X849" t="s">
@@ -33409,11 +33456,11 @@
         <v>0</v>
       </c>
       <c r="M850">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N850">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X850" t="s">
@@ -33434,11 +33481,11 @@
         <v>0</v>
       </c>
       <c r="M851">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N851">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X851" t="s">
@@ -33459,11 +33506,11 @@
         <v>0</v>
       </c>
       <c r="M852">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N852">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X852" t="s">
@@ -33484,11 +33531,11 @@
         <v>0</v>
       </c>
       <c r="M853">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N853">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X853" t="s">
@@ -33509,11 +33556,11 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N854">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X854" t="s">
@@ -33534,11 +33581,11 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N855">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="X855" t="s">
@@ -33559,11 +33606,11 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N856">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33581,11 +33628,11 @@
         <v>0</v>
       </c>
       <c r="M857">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N857">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33603,11 +33650,11 @@
         <v>0</v>
       </c>
       <c r="M858">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N858">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33625,11 +33672,11 @@
         <v>0</v>
       </c>
       <c r="M859">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N859">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33647,11 +33694,11 @@
         <v>0</v>
       </c>
       <c r="M860">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N860">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33669,11 +33716,11 @@
         <v>0</v>
       </c>
       <c r="M861">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N861">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33691,11 +33738,11 @@
         <v>0</v>
       </c>
       <c r="M862">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N862">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33713,11 +33760,11 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N863">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33735,11 +33782,11 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N864">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33757,11 +33804,11 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N865">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33779,11 +33826,11 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N866">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33801,11 +33848,11 @@
         <v>0</v>
       </c>
       <c r="M867">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N867">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33823,11 +33870,11 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N868">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33845,11 +33892,11 @@
         <v>0</v>
       </c>
       <c r="M869">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N869">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33867,11 +33914,11 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N870">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33889,11 +33936,11 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N871">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33911,11 +33958,11 @@
         <v>0</v>
       </c>
       <c r="M872">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N872">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33933,11 +33980,11 @@
         <v>0</v>
       </c>
       <c r="M873">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N873">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33955,11 +34002,11 @@
         <v>0</v>
       </c>
       <c r="M874">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N874">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33977,11 +34024,11 @@
         <v>0</v>
       </c>
       <c r="M875">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N875">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -33999,11 +34046,11 @@
         <v>0</v>
       </c>
       <c r="M876">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N876">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34021,11 +34068,11 @@
         <v>0</v>
       </c>
       <c r="M877">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N877">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34043,11 +34090,11 @@
         <v>0</v>
       </c>
       <c r="M878">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N878">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34065,11 +34112,11 @@
         <v>0</v>
       </c>
       <c r="M879">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N879">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34087,11 +34134,11 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N880">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34109,11 +34156,11 @@
         <v>0</v>
       </c>
       <c r="M881">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N881">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34131,11 +34178,11 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N882">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34153,11 +34200,11 @@
         <v>0</v>
       </c>
       <c r="M883">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N883">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34175,11 +34222,11 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N884">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34197,11 +34244,11 @@
         <v>0</v>
       </c>
       <c r="M885">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N885">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34219,11 +34266,11 @@
         <v>0</v>
       </c>
       <c r="M886">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N886">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34241,11 +34288,11 @@
         <v>0</v>
       </c>
       <c r="M887">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N887">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34263,11 +34310,11 @@
         <v>0</v>
       </c>
       <c r="M888">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N888">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34285,11 +34332,11 @@
         <v>0</v>
       </c>
       <c r="M889">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N889">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34307,11 +34354,11 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N890">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34329,11 +34376,11 @@
         <v>0</v>
       </c>
       <c r="M891">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N891">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34351,11 +34398,11 @@
         <v>0</v>
       </c>
       <c r="M892">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N892">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34373,11 +34420,11 @@
         <v>0</v>
       </c>
       <c r="M893">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N893">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34395,11 +34442,11 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N894">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34417,11 +34464,11 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N895">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34439,11 +34486,11 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N896">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34461,11 +34508,11 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N897">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34483,11 +34530,11 @@
         <v>0</v>
       </c>
       <c r="M898">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N898">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34505,11 +34552,11 @@
         <v>0</v>
       </c>
       <c r="M899">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N899">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34527,11 +34574,11 @@
         <v>0</v>
       </c>
       <c r="M900">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N900">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34549,11 +34596,11 @@
         <v>0</v>
       </c>
       <c r="M901">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N901">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34571,11 +34618,11 @@
         <v>0</v>
       </c>
       <c r="M902">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N902">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34593,11 +34640,11 @@
         <v>0</v>
       </c>
       <c r="M903">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N903">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34615,11 +34662,11 @@
         <v>0</v>
       </c>
       <c r="M904">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N904">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34637,11 +34684,11 @@
         <v>0</v>
       </c>
       <c r="M905">
-        <f t="shared" ref="M905:M968" si="38">IF(J905="Unsigned",0,-N905)</f>
+        <f t="shared" ref="M905:M968" si="39">IF(J905="Unsigned",0,-N905)</f>
         <v>0</v>
       </c>
       <c r="N905">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34659,11 +34706,11 @@
         <v>0</v>
       </c>
       <c r="M906">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N906">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N906">
-        <f t="shared" si="37"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34681,11 +34728,11 @@
         <v>0</v>
       </c>
       <c r="M907">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N907">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N907">
-        <f t="shared" si="37"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34703,11 +34750,11 @@
         <v>0</v>
       </c>
       <c r="M908">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N908">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N908">
-        <f t="shared" si="37"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34725,11 +34772,11 @@
         <v>0</v>
       </c>
       <c r="M909">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N909">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N909">
-        <f t="shared" si="37"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34747,11 +34794,11 @@
         <v>0</v>
       </c>
       <c r="M910">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N910">
-        <f t="shared" ref="N910:N973" si="39">IF(J910="Unsigned",2^(MIN(H910,32))-1,2^(MIN(H910,32))/2-1)</f>
+        <f t="shared" ref="N910:N973" si="40">IF(J910="Unsigned",2^(MIN(H910,32))-1,2^(MIN(H910,32))/2-1)</f>
         <v>4294967295</v>
       </c>
     </row>
@@ -34769,11 +34816,11 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N911">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34791,11 +34838,11 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N912">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34813,11 +34860,11 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N913">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34835,11 +34882,11 @@
         <v>0</v>
       </c>
       <c r="M914">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N914">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34857,11 +34904,11 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N915">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34879,11 +34926,11 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N916">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34901,11 +34948,11 @@
         <v>0</v>
       </c>
       <c r="M917">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N917">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34923,11 +34970,11 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N918">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34945,11 +34992,11 @@
         <v>0</v>
       </c>
       <c r="M919">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N919">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34967,11 +35014,11 @@
         <v>0</v>
       </c>
       <c r="M920">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N920">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -34989,11 +35036,11 @@
         <v>0</v>
       </c>
       <c r="M921">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N921">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35011,11 +35058,11 @@
         <v>0</v>
       </c>
       <c r="M922">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N922">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35033,11 +35080,11 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N923">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35055,11 +35102,11 @@
         <v>0</v>
       </c>
       <c r="M924">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N924">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35077,11 +35124,11 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N925">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35099,11 +35146,11 @@
         <v>0</v>
       </c>
       <c r="M926">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N926">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35121,11 +35168,11 @@
         <v>0</v>
       </c>
       <c r="M927">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N927">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35143,11 +35190,11 @@
         <v>0</v>
       </c>
       <c r="M928">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N928">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35165,11 +35212,11 @@
         <v>0</v>
       </c>
       <c r="M929">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N929">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35187,11 +35234,11 @@
         <v>0</v>
       </c>
       <c r="M930">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N930">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35209,11 +35256,11 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N931">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35231,11 +35278,11 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N932">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35253,11 +35300,11 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N933">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35275,11 +35322,11 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N934">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35297,11 +35344,11 @@
         <v>0</v>
       </c>
       <c r="M935">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N935">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35319,11 +35366,11 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N936">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35341,11 +35388,11 @@
         <v>0</v>
       </c>
       <c r="M937">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N937">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35363,11 +35410,11 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N938">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35385,11 +35432,11 @@
         <v>0</v>
       </c>
       <c r="M939">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N939">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35407,11 +35454,11 @@
         <v>0</v>
       </c>
       <c r="M940">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N940">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35429,11 +35476,11 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N941">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35451,11 +35498,11 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N942">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35473,11 +35520,11 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N943">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35495,11 +35542,11 @@
         <v>0</v>
       </c>
       <c r="M944">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N944">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35517,11 +35564,11 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N945">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35539,11 +35586,11 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N946">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35561,11 +35608,11 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N947">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35583,11 +35630,11 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N948">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35605,11 +35652,11 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N949">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35627,11 +35674,11 @@
         <v>0</v>
       </c>
       <c r="M950">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N950">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35649,11 +35696,11 @@
         <v>0</v>
       </c>
       <c r="M951">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N951">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35671,11 +35718,11 @@
         <v>0</v>
       </c>
       <c r="M952">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N952">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35693,11 +35740,11 @@
         <v>0</v>
       </c>
       <c r="M953">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N953">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35715,11 +35762,11 @@
         <v>0</v>
       </c>
       <c r="M954">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N954">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35737,11 +35784,11 @@
         <v>0</v>
       </c>
       <c r="M955">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N955">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35759,11 +35806,11 @@
         <v>0</v>
       </c>
       <c r="M956">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N956">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35781,11 +35828,11 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N957">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35803,11 +35850,11 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N958">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35825,11 +35872,11 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N959">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35847,11 +35894,11 @@
         <v>0</v>
       </c>
       <c r="M960">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N960">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35869,11 +35916,11 @@
         <v>0</v>
       </c>
       <c r="M961">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N961">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35891,11 +35938,11 @@
         <v>0</v>
       </c>
       <c r="M962">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N962">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35913,11 +35960,11 @@
         <v>0</v>
       </c>
       <c r="M963">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N963">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35935,11 +35982,11 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N964">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35957,11 +36004,11 @@
         <v>0</v>
       </c>
       <c r="M965">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N965">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35979,11 +36026,11 @@
         <v>0</v>
       </c>
       <c r="M966">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N966">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36001,11 +36048,11 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N967">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36023,11 +36070,11 @@
         <v>0</v>
       </c>
       <c r="M968">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N968">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36045,11 +36092,11 @@
         <v>0</v>
       </c>
       <c r="M969">
-        <f t="shared" ref="M969:M1025" si="40">IF(J969="Unsigned",0,-N969)</f>
+        <f t="shared" ref="M969:M1025" si="41">IF(J969="Unsigned",0,-N969)</f>
         <v>0</v>
       </c>
       <c r="N969">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36067,11 +36114,11 @@
         <v>0</v>
       </c>
       <c r="M970">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N970">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N970">
-        <f t="shared" si="39"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36089,11 +36136,11 @@
         <v>0</v>
       </c>
       <c r="M971">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N971">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N971">
-        <f t="shared" si="39"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36111,11 +36158,11 @@
         <v>0</v>
       </c>
       <c r="M972">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N972">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N972">
-        <f t="shared" si="39"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36133,11 +36180,11 @@
         <v>0</v>
       </c>
       <c r="M973">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N973">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N973">
-        <f t="shared" si="39"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36155,11 +36202,11 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N974">
-        <f t="shared" ref="N974:N1025" si="41">IF(J974="Unsigned",2^(MIN(H974,32))-1,2^(MIN(H974,32))/2-1)</f>
+        <f t="shared" ref="N974:N1025" si="42">IF(J974="Unsigned",2^(MIN(H974,32))-1,2^(MIN(H974,32))/2-1)</f>
         <v>4294967295</v>
       </c>
     </row>
@@ -36177,11 +36224,11 @@
         <v>0</v>
       </c>
       <c r="M975">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N975">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36199,11 +36246,11 @@
         <v>0</v>
       </c>
       <c r="M976">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N976">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36221,11 +36268,11 @@
         <v>0</v>
       </c>
       <c r="M977">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N977">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36243,11 +36290,11 @@
         <v>0</v>
       </c>
       <c r="M978">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N978">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36265,11 +36312,11 @@
         <v>0</v>
       </c>
       <c r="M979">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N979">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36287,11 +36334,11 @@
         <v>0</v>
       </c>
       <c r="M980">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N980">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36309,11 +36356,11 @@
         <v>0</v>
       </c>
       <c r="M981">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N981">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36331,11 +36378,11 @@
         <v>0</v>
       </c>
       <c r="M982">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N982">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36353,11 +36400,11 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N983">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36375,11 +36422,11 @@
         <v>0</v>
       </c>
       <c r="M984">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N984">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36397,11 +36444,11 @@
         <v>0</v>
       </c>
       <c r="M985">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N985">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36419,11 +36466,11 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N986">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36441,11 +36488,11 @@
         <v>0</v>
       </c>
       <c r="M987">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N987">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36463,11 +36510,11 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N988">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36485,11 +36532,11 @@
         <v>0</v>
       </c>
       <c r="M989">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N989">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36507,11 +36554,11 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N990">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36529,11 +36576,11 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N991">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36551,11 +36598,11 @@
         <v>0</v>
       </c>
       <c r="M992">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N992">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36573,11 +36620,11 @@
         <v>0</v>
       </c>
       <c r="M993">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N993">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36595,11 +36642,11 @@
         <v>0</v>
       </c>
       <c r="M994">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N994">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36617,11 +36664,11 @@
         <v>0</v>
       </c>
       <c r="M995">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N995">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36639,11 +36686,11 @@
         <v>0</v>
       </c>
       <c r="M996">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N996">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36661,11 +36708,11 @@
         <v>0</v>
       </c>
       <c r="M997">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N997">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36683,11 +36730,11 @@
         <v>0</v>
       </c>
       <c r="M998">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N998">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36705,11 +36752,11 @@
         <v>0</v>
       </c>
       <c r="M999">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N999">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36727,11 +36774,11 @@
         <v>0</v>
       </c>
       <c r="M1000">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1000">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36749,11 +36796,11 @@
         <v>0</v>
       </c>
       <c r="M1001">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1001">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36771,11 +36818,11 @@
         <v>0</v>
       </c>
       <c r="M1002">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1002">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36793,11 +36840,11 @@
         <v>0</v>
       </c>
       <c r="M1003">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1003">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36815,11 +36862,11 @@
         <v>0</v>
       </c>
       <c r="M1004">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1004">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36837,11 +36884,11 @@
         <v>0</v>
       </c>
       <c r="M1005">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1005">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36859,11 +36906,11 @@
         <v>0</v>
       </c>
       <c r="M1006">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1006">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36881,11 +36928,11 @@
         <v>0</v>
       </c>
       <c r="M1007">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1007">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36903,11 +36950,11 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1008">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36925,11 +36972,11 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1009">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36947,11 +36994,11 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1010">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36969,11 +37016,11 @@
         <v>0</v>
       </c>
       <c r="M1011">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1011">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36991,11 +37038,11 @@
         <v>0</v>
       </c>
       <c r="M1012">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1012">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37013,11 +37060,11 @@
         <v>0</v>
       </c>
       <c r="M1013">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1013">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37035,11 +37082,11 @@
         <v>0</v>
       </c>
       <c r="M1014">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1014">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37057,11 +37104,11 @@
         <v>0</v>
       </c>
       <c r="M1015">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1015">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37079,11 +37126,11 @@
         <v>0</v>
       </c>
       <c r="M1016">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1016">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37101,11 +37148,11 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1017">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37123,11 +37170,11 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1018">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37145,11 +37192,11 @@
         <v>0</v>
       </c>
       <c r="M1019">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1019">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37167,11 +37214,11 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1020">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37189,11 +37236,11 @@
         <v>0</v>
       </c>
       <c r="M1021">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1021">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37211,11 +37258,11 @@
         <v>0</v>
       </c>
       <c r="M1022">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1022">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37233,11 +37280,11 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1023">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37255,11 +37302,11 @@
         <v>0</v>
       </c>
       <c r="M1024">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1024">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37277,11 +37324,11 @@
         <v>0</v>
       </c>
       <c r="M1025">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N1025">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -37295,7 +37342,7 @@
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:W182 E3:E166 E168:E321 Q327:W1048576 Q183:X321 X322:X1048576 E335:E1048576</xm:sqref>
+          <xm:sqref>Q3:W182 E3:E166 E168:E321 E335:E1048576 Q183:X321 X322:X1048576 Q327:W1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/scripts/codegen/CAN/CanMsgs.xlsx
+++ b/scripts/codegen/CAN/CanMsgs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5046" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="527">
   <si>
     <t>Message Name</t>
   </si>
@@ -1968,10 +1968,10 @@
   <dimension ref="A1:AE1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H331" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="X331" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
+      <selection pane="bottomRight" activeCell="E344" sqref="E344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12762,7 +12762,7 @@
         <v>68</v>
       </c>
       <c r="P206" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X206" t="s">
         <v>47</v>
@@ -12815,7 +12815,7 @@
         <v>68</v>
       </c>
       <c r="P207" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X207" t="s">
         <v>47</v>
@@ -19581,6 +19581,18 @@
       </c>
       <c r="X347" t="s">
         <v>47</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="348" spans="2:28" x14ac:dyDescent="0.25">

--- a/scripts/codegen/CAN/CanMsgs.xlsx
+++ b/scripts/codegen/CAN/CanMsgs.xlsx
@@ -272,9 +272,6 @@
     <t>TASK_100HZ</t>
   </si>
   <si>
-    <t>TASK_1000HZ</t>
-  </si>
-  <si>
     <t>STACK_WATERMARK_ABOVE_THRESHOLD_TASK1HZ</t>
   </si>
   <si>
@@ -1650,6 +1647,9 @@
   </si>
   <si>
     <t>IS_REF</t>
+  </si>
+  <si>
+    <t>TASK_1KHZ</t>
   </si>
 </sst>
 </file>
@@ -2037,10 +2037,10 @@
   <dimension ref="A1:AE1026"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H321" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H334" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E336" sqref="E336"/>
+      <selection pane="bottomRight" activeCell="F349" sqref="F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,10 +2143,10 @@
         <v>39</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>70</v>
@@ -2167,15 +2167,15 @@
         <v>75</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -2246,7 +2246,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="1">
         <v>32</v>
@@ -2357,7 +2357,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="1">
         <v>32</v>
@@ -2404,7 +2404,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2451,7 +2451,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -2498,7 +2498,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -2510,7 +2510,7 @@
         <v>1000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -2559,7 +2559,7 @@
         <v>1000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -2608,7 +2608,7 @@
         <v>1000</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -2657,7 +2657,7 @@
         <v>1000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -2694,7 +2694,7 @@
         <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -2706,7 +2706,7 @@
         <v>1000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -2755,7 +2755,7 @@
         <v>1000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -2787,13 +2787,13 @@
         <v>47</v>
       </c>
       <c r="Y13" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z13" t="s">
         <v>377</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>378</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -2813,7 +2813,7 @@
         <v>1000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -2845,13 +2845,13 @@
         <v>47</v>
       </c>
       <c r="Y14" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z14" t="s">
         <v>377</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>378</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
@@ -2871,7 +2871,7 @@
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -2903,13 +2903,13 @@
         <v>47</v>
       </c>
       <c r="Y15" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z15" t="s">
         <v>377</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>378</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -2961,13 +2961,13 @@
         <v>47</v>
       </c>
       <c r="Y16" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z16" t="s">
         <v>377</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>378</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
@@ -2987,7 +2987,7 @@
         <v>1000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -3019,13 +3019,13 @@
         <v>47</v>
       </c>
       <c r="Y17" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z17" t="s">
         <v>377</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>378</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
@@ -3033,7 +3033,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -3045,7 +3045,7 @@
         <v>1000</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
@@ -3077,13 +3077,13 @@
         <v>47</v>
       </c>
       <c r="Y18" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z18" t="s">
         <v>377</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>378</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
@@ -3091,7 +3091,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
@@ -3103,7 +3103,7 @@
         <v>1000</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
@@ -3135,13 +3135,13 @@
         <v>47</v>
       </c>
       <c r="Y19" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z19" t="s">
         <v>377</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>378</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
@@ -3161,7 +3161,7 @@
         <v>1000</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
@@ -3193,13 +3193,13 @@
         <v>47</v>
       </c>
       <c r="Y20" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z20" t="s">
         <v>377</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>378</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="1">
         <v>8</v>
@@ -3219,7 +3219,7 @@
         <v>1000</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -3251,13 +3251,13 @@
         <v>47</v>
       </c>
       <c r="Y21" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z21" t="s">
         <v>377</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>378</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
@@ -3265,7 +3265,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
@@ -3277,7 +3277,7 @@
         <v>1000</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H22" s="1">
         <v>2</v>
@@ -3309,13 +3309,13 @@
         <v>47</v>
       </c>
       <c r="Y22" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z22" t="s">
         <v>377</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>378</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -3335,7 +3335,7 @@
         <v>1000</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -3367,13 +3367,13 @@
         <v>47</v>
       </c>
       <c r="Y23" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z23" t="s">
         <v>377</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>378</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -3393,7 +3393,7 @@
         <v>1000</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -3425,13 +3425,13 @@
         <v>47</v>
       </c>
       <c r="Y24" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z24" t="s">
         <v>377</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>378</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -3451,7 +3451,7 @@
         <v>1000</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -3483,13 +3483,13 @@
         <v>47</v>
       </c>
       <c r="Y25" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z25" t="s">
         <v>377</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>378</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
@@ -3497,7 +3497,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
@@ -3509,7 +3509,7 @@
         <v>1000</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -3541,13 +3541,13 @@
         <v>47</v>
       </c>
       <c r="Y26" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z26" t="s">
         <v>377</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>378</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
         <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
@@ -3567,7 +3567,7 @@
         <v>1000</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -3610,7 +3610,7 @@
         <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
@@ -3622,7 +3622,7 @@
         <v>1000</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" s="1">
         <v>3</v>
@@ -3654,25 +3654,25 @@
         <v>47</v>
       </c>
       <c r="Y28" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z28" t="s">
         <v>380</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>381</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>382</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>383</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>384</v>
       </c>
-      <c r="AD28" t="s">
-        <v>385</v>
-      </c>
       <c r="AE28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
         <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H29" s="1">
         <v>8</v>
@@ -3719,7 +3719,7 @@
         <v>69</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X29" t="s">
         <v>47</v>
@@ -3730,7 +3730,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H30" s="1">
         <v>8</v>
@@ -3777,7 +3777,7 @@
         <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="1">
         <v>8</v>
@@ -3816,7 +3816,7 @@
         <v>69</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X31" t="s">
         <v>47</v>
@@ -3827,7 +3827,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="1">
         <v>8</v>
@@ -3866,7 +3866,7 @@
         <v>69</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X32" t="s">
         <v>47</v>
@@ -3877,7 +3877,7 @@
         <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="1">
         <v>8</v>
@@ -3924,7 +3924,7 @@
         <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H34" s="1">
         <v>8</v>
@@ -3974,7 +3974,7 @@
         <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="1">
         <v>8</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -4024,7 +4024,7 @@
         <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H36" s="1">
         <v>32</v>
@@ -4074,7 +4074,7 @@
         <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H37" s="1">
         <v>8</v>
@@ -4116,22 +4116,22 @@
         <v>47</v>
       </c>
       <c r="Y37" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z37" t="s">
         <v>386</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>387</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>388</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>389</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>390</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
         <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H38" s="1">
         <v>32</v>
@@ -4189,7 +4189,7 @@
         <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -4242,7 +4242,7 @@
         <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H40" s="1">
         <v>2</v>
@@ -4284,13 +4284,13 @@
         <v>47</v>
       </c>
       <c r="Y40" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z40" t="s">
         <v>377</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>378</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H41" s="1">
         <v>2</v>
@@ -4340,13 +4340,13 @@
         <v>47</v>
       </c>
       <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z41" t="s">
         <v>377</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>378</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
         <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -4401,7 +4401,7 @@
         <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -4448,7 +4448,7 @@
         <v>111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -4495,7 +4495,7 @@
         <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -4593,10 +4593,10 @@
         <v>47</v>
       </c>
       <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z46" t="s">
         <v>392</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -4655,10 +4655,10 @@
         <v>47</v>
       </c>
       <c r="Y47" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z47" t="s">
         <v>392</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
         <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="1">
         <v>8</v>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>114</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H49" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D50" s="1">
         <v>8</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H50" s="1">
         <v>32</v>
@@ -4813,7 +4813,7 @@
         <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" s="1">
         <v>32</v>
@@ -4863,7 +4863,7 @@
         <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H52" s="1">
         <v>32</v>
@@ -4913,7 +4913,7 @@
         <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H53" s="1">
         <v>32</v>
@@ -4963,7 +4963,7 @@
         <v>118</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
@@ -5013,7 +5013,7 @@
         <v>119</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55" s="1">
         <v>32</v>
@@ -5063,7 +5063,7 @@
         <v>120</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H56" s="1">
         <v>32</v>
@@ -5113,7 +5113,7 @@
         <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H57" s="1">
         <v>32</v>
@@ -5163,7 +5163,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H58" s="1">
         <v>32</v>
@@ -5213,7 +5213,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H59" s="1">
         <v>32</v>
@@ -5263,7 +5263,7 @@
         <v>124</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H60" s="1">
         <v>32</v>
@@ -5313,7 +5313,7 @@
         <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H61" s="1">
         <v>32</v>
@@ -5363,7 +5363,7 @@
         <v>126</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H62" s="1">
         <v>32</v>
@@ -5413,7 +5413,7 @@
         <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H63" s="1">
         <v>32</v>
@@ -5463,7 +5463,7 @@
         <v>128</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D64" s="1">
         <v>4</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H64" s="1">
         <v>32</v>
@@ -5513,7 +5513,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H65" s="1">
         <v>32</v>
@@ -5563,7 +5563,7 @@
         <v>200</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -5575,7 +5575,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H66" s="1">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>201</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D67" s="1">
         <v>8</v>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H67" s="1">
         <v>32</v>
@@ -5662,7 +5662,7 @@
         <v>201</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D68" s="1">
         <v>8</v>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H68" s="1">
         <v>32</v>
@@ -5709,7 +5709,7 @@
         <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -5756,7 +5756,7 @@
         <v>203</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D70" s="1">
         <v>8</v>
@@ -5803,7 +5803,7 @@
         <v>204</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
@@ -5815,7 +5815,7 @@
         <v>1000</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H71" s="1">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>204</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D72" s="1">
         <v>8</v>
@@ -5864,7 +5864,7 @@
         <v>1000</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H72" s="1">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         <v>204</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>
@@ -5913,7 +5913,7 @@
         <v>1000</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H73" s="1">
         <v>1</v>
@@ -5950,7 +5950,7 @@
         <v>204</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D74" s="1">
         <v>8</v>
@@ -5962,7 +5962,7 @@
         <v>1000</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H74" s="1">
         <v>1</v>
@@ -5999,7 +5999,7 @@
         <v>204</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D75" s="1">
         <v>8</v>
@@ -6011,7 +6011,7 @@
         <v>1000</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" s="1">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D76" s="1">
         <v>8</v>
@@ -6060,7 +6060,7 @@
         <v>1000</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H76" s="1">
         <v>1</v>
@@ -6092,13 +6092,13 @@
         <v>47</v>
       </c>
       <c r="Y76" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z76" t="s">
         <v>377</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>378</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
         <v>204</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D77" s="1">
         <v>8</v>
@@ -6118,7 +6118,7 @@
         <v>1000</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H77" s="1">
         <v>1</v>
@@ -6150,13 +6150,13 @@
         <v>47</v>
       </c>
       <c r="Y77" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z77" t="s">
         <v>377</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>378</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>204</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D78" s="1">
         <v>8</v>
@@ -6176,7 +6176,7 @@
         <v>1000</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H78" s="1">
         <v>1</v>
@@ -6208,13 +6208,13 @@
         <v>47</v>
       </c>
       <c r="Y78" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z78" t="s">
         <v>377</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>378</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>205</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H79" s="1">
         <v>8</v>
@@ -6264,13 +6264,13 @@
         <v>47</v>
       </c>
       <c r="Y79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Z79" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA79" t="s">
         <v>390</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.25">
@@ -6278,7 +6278,7 @@
         <v>206</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H80" s="1">
         <v>32</v>
@@ -6317,7 +6317,7 @@
         <v>68</v>
       </c>
       <c r="P80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U80" t="s">
         <v>43</v>
@@ -6334,7 +6334,7 @@
         <v>207</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D81" s="1">
         <v>8</v>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H81" s="1">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>208</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D82" s="1">
         <v>8</v>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H82" s="1">
         <v>1</v>
@@ -6428,7 +6428,7 @@
         <v>209</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D83" s="1">
         <v>4</v>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H83" s="1">
         <v>32</v>
@@ -6478,7 +6478,7 @@
         <v>210</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H84" s="1">
         <v>32</v>
@@ -6528,7 +6528,7 @@
         <v>211</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H85" s="1">
         <v>32</v>
@@ -6578,7 +6578,7 @@
         <v>300</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D86" s="1">
         <v>8</v>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -6620,13 +6620,13 @@
         <v>47</v>
       </c>
       <c r="Y86" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z86" t="s">
         <v>377</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>378</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.25">
@@ -6634,7 +6634,7 @@
         <v>300</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D87" s="1">
         <v>8</v>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H87" s="1">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>47</v>
       </c>
       <c r="Y87" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z87" t="s">
         <v>377</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>378</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.25">
@@ -6690,7 +6690,7 @@
         <v>300</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D88" s="1">
         <v>8</v>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>
@@ -6737,7 +6737,7 @@
         <v>300</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D89" s="1">
         <v>8</v>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H89" s="1">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>300</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D90" s="1">
         <v>8</v>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H90" s="1">
         <v>1</v>
@@ -6831,7 +6831,7 @@
         <v>300</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D91" s="1">
         <v>8</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H91" s="1">
         <v>1</v>
@@ -6878,7 +6878,7 @@
         <v>300</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D92" s="1">
         <v>8</v>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H92" s="1">
         <v>1</v>
@@ -6925,7 +6925,7 @@
         <v>300</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="1">
         <v>8</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H93" s="1">
         <v>1</v>
@@ -6975,7 +6975,7 @@
         <v>300</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="1">
         <v>8</v>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H94" s="1">
         <v>2</v>
@@ -7017,13 +7017,13 @@
         <v>47</v>
       </c>
       <c r="Y94" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z94" t="s">
         <v>377</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>378</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.25">
@@ -7031,7 +7031,7 @@
         <v>300</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="1">
         <v>8</v>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H95" s="1">
         <v>2</v>
@@ -7073,13 +7073,13 @@
         <v>47</v>
       </c>
       <c r="Y95" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z95" t="s">
         <v>377</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>378</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>300</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="1">
         <v>8</v>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H96" s="1">
         <v>2</v>
@@ -7129,13 +7129,13 @@
         <v>47</v>
       </c>
       <c r="Y96" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z96" t="s">
         <v>377</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>378</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
@@ -7143,7 +7143,7 @@
         <v>300</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="1">
         <v>8</v>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H97" s="1">
         <v>2</v>
@@ -7185,13 +7185,13 @@
         <v>47</v>
       </c>
       <c r="Y97" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z97" t="s">
         <v>377</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>378</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.25">
@@ -7199,7 +7199,7 @@
         <v>300</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="1">
         <v>8</v>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H98" s="1">
         <v>2</v>
@@ -7241,13 +7241,13 @@
         <v>47</v>
       </c>
       <c r="Y98" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z98" t="s">
         <v>377</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>378</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.25">
@@ -7255,7 +7255,7 @@
         <v>300</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="1">
         <v>8</v>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H99" s="1">
         <v>2</v>
@@ -7297,13 +7297,13 @@
         <v>47</v>
       </c>
       <c r="Y99" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z99" t="s">
         <v>377</v>
       </c>
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>378</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.25">
@@ -7311,7 +7311,7 @@
         <v>301</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -7323,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H100" s="1">
         <v>1</v>
@@ -7363,7 +7363,7 @@
         <v>302</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="1">
         <v>8</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H101" s="1">
         <v>32</v>
@@ -7410,7 +7410,7 @@
         <v>302</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="1">
         <v>8</v>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H102" s="1">
         <v>32</v>
@@ -7457,7 +7457,7 @@
         <v>303</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H103" s="1">
         <v>1</v>
@@ -7504,7 +7504,7 @@
         <v>304</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="1">
         <v>8</v>
@@ -7551,7 +7551,7 @@
         <v>305</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H105" s="1">
         <v>8</v>
@@ -7593,10 +7593,10 @@
         <v>47</v>
       </c>
       <c r="Y105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Z105" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>306</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H106" s="1">
         <v>1</v>
@@ -7651,7 +7651,7 @@
         <v>307</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="1">
         <v>8</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H107" s="1">
         <v>32</v>
@@ -7701,7 +7701,7 @@
         <v>307</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="1">
         <v>8</v>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H108" s="1">
         <v>32</v>
@@ -7751,7 +7751,7 @@
         <v>308</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="1">
         <v>8</v>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H109" s="1">
         <v>32</v>
@@ -7798,7 +7798,7 @@
         <v>308</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="1">
         <v>8</v>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H110" s="1">
         <v>1</v>
@@ -7854,7 +7854,7 @@
         <v>308</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D111" s="1">
         <v>8</v>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H111" s="1">
         <v>1</v>
@@ -7907,7 +7907,7 @@
         <v>309</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D112" s="1">
         <v>8</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H112" s="1">
         <v>32</v>
@@ -7960,7 +7960,7 @@
         <v>309</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H113" s="1">
         <v>32</v>
@@ -8013,7 +8013,7 @@
         <v>310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H114" s="1">
         <v>1</v>
@@ -8060,7 +8060,7 @@
         <v>311</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D115" s="1">
         <v>4</v>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H115" s="1">
         <v>32</v>
@@ -8099,7 +8099,7 @@
         <v>68</v>
       </c>
       <c r="P115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R115" t="s">
         <v>42</v>
@@ -8113,7 +8113,7 @@
         <v>313</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D116" s="1">
         <v>4</v>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H116" s="1">
         <v>32</v>
@@ -8163,7 +8163,7 @@
         <v>314</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D117" s="1">
         <v>4</v>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H117" s="1">
         <v>32</v>
@@ -8213,7 +8213,7 @@
         <v>315</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D118" s="1">
         <v>8</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H118" s="1">
         <v>1</v>
@@ -8266,7 +8266,7 @@
         <v>315</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H119" s="1">
         <v>1</v>
@@ -8319,7 +8319,7 @@
         <v>315</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D120" s="1">
         <v>8</v>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H120" s="1">
         <v>1</v>
@@ -8372,7 +8372,7 @@
         <v>315</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H121" s="1">
         <v>1</v>
@@ -8425,7 +8425,7 @@
         <v>315</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D122" s="1">
         <v>8</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H122" s="1">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>315</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D123" s="1">
         <v>8</v>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H123" s="1">
         <v>1</v>
@@ -8531,7 +8531,7 @@
         <v>316</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D124" s="1">
         <v>4</v>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H124" s="1">
         <v>32</v>
@@ -8584,7 +8584,7 @@
         <v>400</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D125" s="1">
         <v>8</v>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H125" s="1">
         <v>1</v>
@@ -8631,7 +8631,7 @@
         <v>400</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D126" s="1">
         <v>8</v>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H126" s="1">
         <v>1</v>
@@ -8678,7 +8678,7 @@
         <v>400</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D127" s="1">
         <v>8</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H127" s="1">
         <v>1</v>
@@ -8725,7 +8725,7 @@
         <v>400</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H128" s="1">
         <v>1</v>
@@ -8772,7 +8772,7 @@
         <v>400</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D129" s="1">
         <v>8</v>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H129" s="1">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>400</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H130" s="1">
         <v>1</v>
@@ -8866,7 +8866,7 @@
         <v>400</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D131" s="1">
         <v>8</v>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H131" s="1">
         <v>1</v>
@@ -8913,7 +8913,7 @@
         <v>400</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D132" s="1">
         <v>8</v>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H132" s="1">
         <v>1</v>
@@ -8960,7 +8960,7 @@
         <v>400</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D133" s="1">
         <v>8</v>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H133" s="1">
         <v>1</v>
@@ -9007,7 +9007,7 @@
         <v>400</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D134" s="1">
         <v>8</v>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H134" s="1">
         <v>2</v>
@@ -9049,13 +9049,13 @@
         <v>47</v>
       </c>
       <c r="Y134" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z134" t="s">
         <v>377</v>
       </c>
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>378</v>
-      </c>
-      <c r="AA134" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="135" spans="2:27" x14ac:dyDescent="0.25">
@@ -9063,7 +9063,7 @@
         <v>400</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D135" s="1">
         <v>8</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H135" s="1">
         <v>2</v>
@@ -9105,13 +9105,13 @@
         <v>47</v>
       </c>
       <c r="Y135" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z135" t="s">
         <v>377</v>
       </c>
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>378</v>
-      </c>
-      <c r="AA135" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="136" spans="2:27" x14ac:dyDescent="0.25">
@@ -9119,7 +9119,7 @@
         <v>400</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D136" s="1">
         <v>8</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H136" s="1">
         <v>2</v>
@@ -9161,13 +9161,13 @@
         <v>47</v>
       </c>
       <c r="Y136" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z136" t="s">
         <v>377</v>
       </c>
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>378</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="137" spans="2:27" x14ac:dyDescent="0.25">
@@ -9175,7 +9175,7 @@
         <v>400</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D137" s="1">
         <v>8</v>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H137" s="1">
         <v>2</v>
@@ -9217,13 +9217,13 @@
         <v>47</v>
       </c>
       <c r="Y137" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z137" t="s">
         <v>377</v>
       </c>
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>378</v>
-      </c>
-      <c r="AA137" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="138" spans="2:27" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>400</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D138" s="1">
         <v>8</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H138" s="1">
         <v>2</v>
@@ -9273,13 +9273,13 @@
         <v>47</v>
       </c>
       <c r="Y138" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z138" t="s">
         <v>377</v>
       </c>
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>378</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
         <v>400</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D139" s="1">
         <v>8</v>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H139" s="1">
         <v>2</v>
@@ -9329,13 +9329,13 @@
         <v>47</v>
       </c>
       <c r="Y139" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z139" t="s">
         <v>377</v>
       </c>
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>378</v>
-      </c>
-      <c r="AA139" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="140" spans="2:27" x14ac:dyDescent="0.25">
@@ -9343,7 +9343,7 @@
         <v>400</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D140" s="1">
         <v>8</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H140" s="1">
         <v>2</v>
@@ -9385,13 +9385,13 @@
         <v>47</v>
       </c>
       <c r="Y140" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z140" t="s">
         <v>377</v>
       </c>
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>378</v>
-      </c>
-      <c r="AA140" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="141" spans="2:27" x14ac:dyDescent="0.25">
@@ -9399,7 +9399,7 @@
         <v>400</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D141" s="1">
         <v>8</v>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H141" s="1">
         <v>2</v>
@@ -9441,13 +9441,13 @@
         <v>47</v>
       </c>
       <c r="Y141" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z141" t="s">
         <v>377</v>
       </c>
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>378</v>
-      </c>
-      <c r="AA141" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="142" spans="2:27" x14ac:dyDescent="0.25">
@@ -9455,7 +9455,7 @@
         <v>400</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D142" s="1">
         <v>8</v>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H142" s="1">
         <v>2</v>
@@ -9497,13 +9497,13 @@
         <v>47</v>
       </c>
       <c r="Y142" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z142" t="s">
         <v>377</v>
       </c>
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>378</v>
-      </c>
-      <c r="AA142" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="143" spans="2:27" x14ac:dyDescent="0.25">
@@ -9511,7 +9511,7 @@
         <v>400</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D143" s="1">
         <v>8</v>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H143" s="1">
         <v>2</v>
@@ -9553,13 +9553,13 @@
         <v>47</v>
       </c>
       <c r="Y143" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z143" t="s">
         <v>377</v>
       </c>
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>378</v>
-      </c>
-      <c r="AA143" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="144" spans="2:27" x14ac:dyDescent="0.25">
@@ -9567,7 +9567,7 @@
         <v>401</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -9579,7 +9579,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H144" s="1">
         <v>1</v>
@@ -9619,7 +9619,7 @@
         <v>402</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D145" s="1">
         <v>8</v>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H145" s="1">
         <v>32</v>
@@ -9666,7 +9666,7 @@
         <v>402</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D146" s="1">
         <v>8</v>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H146" s="1">
         <v>32</v>
@@ -9713,7 +9713,7 @@
         <v>403</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H147" s="1">
         <v>1</v>
@@ -9760,7 +9760,7 @@
         <v>404</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D148" s="1">
         <v>8</v>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H148" s="1">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>405</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D149" s="1">
         <v>8</v>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H149" s="1">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>406</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D150" s="1">
         <v>8</v>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H150" s="1">
         <v>32</v>
@@ -9904,7 +9904,7 @@
         <v>406</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D151" s="1">
         <v>8</v>
@@ -9914,7 +9914,7 @@
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H151" s="1">
         <v>32</v>
@@ -9954,7 +9954,7 @@
         <v>407</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D152" s="1">
         <v>8</v>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H152" s="1">
         <v>32</v>
@@ -10004,7 +10004,7 @@
         <v>407</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D153" s="1">
         <v>8</v>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H153" s="1">
         <v>32</v>
@@ -10054,7 +10054,7 @@
         <v>408</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D154" s="1">
         <v>8</v>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H154" s="1">
         <v>32</v>
@@ -10104,7 +10104,7 @@
         <v>408</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D155" s="1">
         <v>8</v>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H155" s="1">
         <v>32</v>
@@ -10154,7 +10154,7 @@
         <v>409</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D156" s="1">
         <v>8</v>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H156" s="1">
         <v>32</v>
@@ -10204,7 +10204,7 @@
         <v>409</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D157" s="1">
         <v>8</v>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H157" s="1">
         <v>32</v>
@@ -10254,7 +10254,7 @@
         <v>410</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D158" s="1">
         <v>8</v>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H158" s="1">
         <v>32</v>
@@ -10304,7 +10304,7 @@
         <v>410</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D159" s="1">
         <v>8</v>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H159" s="1">
         <v>32</v>
@@ -10354,7 +10354,7 @@
         <v>411</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D160" s="1">
         <v>4</v>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H160" s="1">
         <v>32</v>
@@ -10404,7 +10404,7 @@
         <v>412</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D161" s="1">
         <v>8</v>
@@ -10451,7 +10451,7 @@
         <v>413</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H162" s="1">
         <v>8</v>
@@ -10493,13 +10493,13 @@
         <v>47</v>
       </c>
       <c r="Y162" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z162" t="s">
         <v>386</v>
       </c>
-      <c r="Z162" t="s">
-        <v>387</v>
-      </c>
       <c r="AA162" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="2:30" x14ac:dyDescent="0.25">
@@ -10507,7 +10507,7 @@
         <v>500</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H163" s="1">
         <v>1</v>
@@ -10568,7 +10568,7 @@
         <v>501</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D164" s="1">
         <v>8</v>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H164" s="1">
         <v>32</v>
@@ -10615,7 +10615,7 @@
         <v>501</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D165" s="1">
         <v>8</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H165" s="1">
         <v>32</v>
@@ -10662,7 +10662,7 @@
         <v>502</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H166" s="1">
         <v>1</v>
@@ -10709,7 +10709,7 @@
         <v>503</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -10721,7 +10721,7 @@
         <v>10</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H167" s="1">
         <v>8</v>
@@ -10753,7 +10753,7 @@
         <v>47</v>
       </c>
       <c r="Y167" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="2:30" x14ac:dyDescent="0.25">
@@ -10761,7 +10761,7 @@
         <v>504</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D168" s="1">
         <v>8</v>
@@ -10808,7 +10808,7 @@
         <v>505</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D169" s="1">
         <v>8</v>
@@ -10820,7 +10820,7 @@
         <v>10</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H169" s="1">
         <v>32</v>
@@ -10860,7 +10860,7 @@
         <v>505</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D170" s="1">
         <v>8</v>
@@ -10872,7 +10872,7 @@
         <v>10</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H170" s="1">
         <v>32</v>
@@ -10915,7 +10915,7 @@
         <v>506</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -10927,7 +10927,7 @@
         <v>1000</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H171" s="1">
         <v>3</v>
@@ -10962,22 +10962,22 @@
         <v>47</v>
       </c>
       <c r="Y171" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z171" t="s">
         <v>395</v>
       </c>
-      <c r="Z171" t="s">
+      <c r="AA171" t="s">
         <v>396</v>
       </c>
-      <c r="AA171" t="s">
+      <c r="AB171" t="s">
         <v>397</v>
       </c>
-      <c r="AB171" t="s">
+      <c r="AC171" t="s">
         <v>398</v>
       </c>
-      <c r="AC171" t="s">
+      <c r="AD171" t="s">
         <v>399</v>
-      </c>
-      <c r="AD171" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="172" spans="2:30" x14ac:dyDescent="0.25">
@@ -10985,7 +10985,7 @@
         <v>507</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -10997,7 +10997,7 @@
         <v>10</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H172" s="1">
         <v>1</v>
@@ -11032,10 +11032,10 @@
         <v>47</v>
       </c>
       <c r="Y172" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z172" t="s">
         <v>401</v>
-      </c>
-      <c r="Z172" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="173" spans="2:30" x14ac:dyDescent="0.25">
@@ -11043,7 +11043,7 @@
         <v>507</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -11055,7 +11055,7 @@
         <v>10</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H173" s="1">
         <v>1</v>
@@ -11090,10 +11090,10 @@
         <v>47</v>
       </c>
       <c r="Y173" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z173" t="s">
         <v>401</v>
-      </c>
-      <c r="Z173" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="174" spans="2:30" x14ac:dyDescent="0.25">
@@ -11101,7 +11101,7 @@
         <v>507</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -11113,7 +11113,7 @@
         <v>10</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H174" s="1">
         <v>1</v>
@@ -11148,10 +11148,10 @@
         <v>47</v>
       </c>
       <c r="Y174" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z174" t="s">
         <v>401</v>
-      </c>
-      <c r="Z174" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="175" spans="2:30" x14ac:dyDescent="0.25">
@@ -11159,7 +11159,7 @@
         <v>508</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D175" s="1">
         <v>8</v>
@@ -11171,7 +11171,7 @@
         <v>1000</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H175" s="1">
         <v>1</v>
@@ -11208,7 +11208,7 @@
         <v>508</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D176" s="1">
         <v>8</v>
@@ -11220,7 +11220,7 @@
         <v>1000</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H176" s="1">
         <v>1</v>
@@ -11257,7 +11257,7 @@
         <v>508</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D177" s="1">
         <v>8</v>
@@ -11269,7 +11269,7 @@
         <v>1000</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H177" s="1">
         <v>1</v>
@@ -11306,7 +11306,7 @@
         <v>508</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D178" s="1">
         <v>8</v>
@@ -11318,7 +11318,7 @@
         <v>1000</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H178" s="1">
         <v>1</v>
@@ -11355,7 +11355,7 @@
         <v>508</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D179" s="1">
         <v>8</v>
@@ -11367,7 +11367,7 @@
         <v>1000</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H179" s="1">
         <v>1</v>
@@ -11404,7 +11404,7 @@
         <v>508</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D180" s="1">
         <v>8</v>
@@ -11416,7 +11416,7 @@
         <v>1000</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H180" s="1">
         <v>1</v>
@@ -11453,7 +11453,7 @@
         <v>509</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D181" s="1">
         <v>8</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H181" s="1">
         <v>1</v>
@@ -11500,7 +11500,7 @@
         <v>510</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D182" s="1">
         <v>8</v>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H182" s="1">
         <v>1</v>
@@ -11556,10 +11556,10 @@
         <v>43</v>
       </c>
       <c r="F183">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -11624,7 +11624,7 @@
         <v>1000</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H184">
         <v>32</v>
@@ -11674,7 +11674,7 @@
         <v>1000</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H185">
         <v>32</v>
@@ -11721,10 +11721,10 @@
         <v>43</v>
       </c>
       <c r="F186">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G186" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H186">
         <v>8</v>
@@ -11756,16 +11756,16 @@
         <v>47</v>
       </c>
       <c r="Y186" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Z186" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AA186" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB186" t="s">
         <v>390</v>
-      </c>
-      <c r="AB186" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="187" spans="2:30" x14ac:dyDescent="0.25">
@@ -11783,10 +11783,10 @@
         <v>43</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G187" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H187">
         <v>8</v>
@@ -11818,16 +11818,16 @@
         <v>47</v>
       </c>
       <c r="Y187" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Z187" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AA187" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB187" t="s">
         <v>390</v>
-      </c>
-      <c r="AB187" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="188" spans="2:30" x14ac:dyDescent="0.25">
@@ -11839,7 +11839,7 @@
         <v>79</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
         <v>43</v>
@@ -11848,7 +11848,7 @@
         <v>80</v>
       </c>
       <c r="H188">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="I188" t="s">
         <v>50</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="N188">
         <f t="shared" si="8"/>
-        <v>4294967295</v>
+        <v>255</v>
       </c>
       <c r="O188" t="s">
         <v>69</v>
@@ -11886,13 +11886,13 @@
         <v>84</v>
       </c>
       <c r="AB188" t="s">
-        <v>85</v>
+        <v>544</v>
       </c>
       <c r="AC188" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD188" t="s">
         <v>91</v>
-      </c>
-      <c r="AD188" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="189" spans="2:30" x14ac:dyDescent="0.25">
@@ -11913,7 +11913,7 @@
         <v>1000</v>
       </c>
       <c r="G189" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -11966,7 +11966,7 @@
         <v>1000</v>
       </c>
       <c r="G190" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -12019,7 +12019,7 @@
         <v>1000</v>
       </c>
       <c r="G191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -12072,7 +12072,7 @@
         <v>1000</v>
       </c>
       <c r="G192" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>1000</v>
       </c>
       <c r="G193" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -12178,7 +12178,7 @@
         <v>1000</v>
       </c>
       <c r="G194" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -12219,7 +12219,7 @@
         <v>605</v>
       </c>
       <c r="C195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -12228,7 +12228,7 @@
         <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -12266,7 +12266,7 @@
         <v>606</v>
       </c>
       <c r="C196" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D196">
         <v>4</v>
@@ -12275,10 +12275,10 @@
         <v>43</v>
       </c>
       <c r="F196">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G196" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H196">
         <v>32</v>
@@ -12319,7 +12319,7 @@
         <v>607</v>
       </c>
       <c r="C197" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D197">
         <v>4</v>
@@ -12328,10 +12328,10 @@
         <v>43</v>
       </c>
       <c r="F197">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G197" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H197">
         <v>32</v>
@@ -12372,7 +12372,7 @@
         <v>608</v>
       </c>
       <c r="C198" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D198">
         <v>4</v>
@@ -12381,10 +12381,10 @@
         <v>43</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G198" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H198">
         <v>32</v>
@@ -12425,7 +12425,7 @@
         <v>609</v>
       </c>
       <c r="C199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D199">
         <v>4</v>
@@ -12434,10 +12434,10 @@
         <v>43</v>
       </c>
       <c r="F199">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G199" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H199">
         <v>32</v>
@@ -12478,7 +12478,7 @@
         <v>610</v>
       </c>
       <c r="C200" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D200">
         <v>4</v>
@@ -12487,10 +12487,10 @@
         <v>43</v>
       </c>
       <c r="F200">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G200" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H200">
         <v>32</v>
@@ -12531,7 +12531,7 @@
         <v>611</v>
       </c>
       <c r="C201" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -12540,10 +12540,10 @@
         <v>43</v>
       </c>
       <c r="F201">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G201" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H201">
         <v>32</v>
@@ -12572,7 +12572,7 @@
         <v>68</v>
       </c>
       <c r="P201" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X201" t="s">
         <v>47</v>
@@ -12584,7 +12584,7 @@
         <v>612</v>
       </c>
       <c r="C202" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D202">
         <v>4</v>
@@ -12593,10 +12593,10 @@
         <v>43</v>
       </c>
       <c r="F202">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G202" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H202">
         <v>32</v>
@@ -12637,7 +12637,7 @@
         <v>613</v>
       </c>
       <c r="C203" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D203">
         <v>4</v>
@@ -12646,10 +12646,10 @@
         <v>43</v>
       </c>
       <c r="F203">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G203" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H203">
         <v>32</v>
@@ -12690,7 +12690,7 @@
         <v>614</v>
       </c>
       <c r="C204" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D204">
         <v>4</v>
@@ -12699,10 +12699,10 @@
         <v>43</v>
       </c>
       <c r="F204">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G204" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H204">
         <v>32</v>
@@ -12731,7 +12731,7 @@
         <v>68</v>
       </c>
       <c r="P204" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X204" t="s">
         <v>47</v>
@@ -12743,7 +12743,7 @@
         <v>615</v>
       </c>
       <c r="C205" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -12752,10 +12752,10 @@
         <v>43</v>
       </c>
       <c r="F205">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G205" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H205">
         <v>32</v>
@@ -12796,7 +12796,7 @@
         <v>616</v>
       </c>
       <c r="C206" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D206">
         <v>4</v>
@@ -12805,10 +12805,10 @@
         <v>43</v>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G206" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H206">
         <v>32</v>
@@ -12849,7 +12849,7 @@
         <v>617</v>
       </c>
       <c r="C207" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D207">
         <v>4</v>
@@ -12858,10 +12858,10 @@
         <v>43</v>
       </c>
       <c r="F207">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G207" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H207">
         <v>32</v>
@@ -12902,7 +12902,7 @@
         <v>618</v>
       </c>
       <c r="C208" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D208">
         <v>4</v>
@@ -12911,10 +12911,10 @@
         <v>43</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G208" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H208">
         <v>32</v>
@@ -12955,7 +12955,7 @@
         <v>619</v>
       </c>
       <c r="C209" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D209">
         <v>4</v>
@@ -12964,10 +12964,10 @@
         <v>43</v>
       </c>
       <c r="F209">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G209" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H209">
         <v>32</v>
@@ -13008,7 +13008,7 @@
         <v>620</v>
       </c>
       <c r="C210" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -13020,7 +13020,7 @@
         <v>1000</v>
       </c>
       <c r="G210" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H210">
         <v>32</v>
@@ -13061,7 +13061,7 @@
         <v>621</v>
       </c>
       <c r="C211" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D211">
         <v>4</v>
@@ -13073,7 +13073,7 @@
         <v>1000</v>
       </c>
       <c r="G211" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H211">
         <v>32</v>
@@ -13114,7 +13114,7 @@
         <v>622</v>
       </c>
       <c r="C212" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D212">
         <v>4</v>
@@ -13126,7 +13126,7 @@
         <v>1000</v>
       </c>
       <c r="G212" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H212">
         <v>32</v>
@@ -13167,7 +13167,7 @@
         <v>623</v>
       </c>
       <c r="C213" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D213">
         <v>4</v>
@@ -13176,10 +13176,10 @@
         <v>43</v>
       </c>
       <c r="F213">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G213" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H213">
         <v>32</v>
@@ -13220,7 +13220,7 @@
         <v>624</v>
       </c>
       <c r="C214" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -13229,10 +13229,10 @@
         <v>43</v>
       </c>
       <c r="F214">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G214" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H214">
         <v>32</v>
@@ -13273,7 +13273,7 @@
         <v>625</v>
       </c>
       <c r="C215" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -13282,10 +13282,10 @@
         <v>43</v>
       </c>
       <c r="F215">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G215" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H215">
         <v>32</v>
@@ -13326,7 +13326,7 @@
         <v>626</v>
       </c>
       <c r="C216" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -13338,7 +13338,7 @@
         <v>1000</v>
       </c>
       <c r="G216" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H216">
         <v>32</v>
@@ -13379,7 +13379,7 @@
         <v>627</v>
       </c>
       <c r="C217" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D217">
         <v>4</v>
@@ -13391,7 +13391,7 @@
         <v>1000</v>
       </c>
       <c r="G217" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H217">
         <v>32</v>
@@ -13432,7 +13432,7 @@
         <v>628</v>
       </c>
       <c r="C218" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D218">
         <v>4</v>
@@ -13441,10 +13441,10 @@
         <v>43</v>
       </c>
       <c r="F218">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G218" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H218">
         <v>32</v>
@@ -13473,7 +13473,7 @@
         <v>68</v>
       </c>
       <c r="P218" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X218" t="s">
         <v>47</v>
@@ -13485,7 +13485,7 @@
         <v>629</v>
       </c>
       <c r="C219" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D219">
         <v>4</v>
@@ -13494,10 +13494,10 @@
         <v>43</v>
       </c>
       <c r="F219">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G219" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H219">
         <v>32</v>
@@ -13538,7 +13538,7 @@
         <v>630</v>
       </c>
       <c r="C220" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -13547,10 +13547,10 @@
         <v>43</v>
       </c>
       <c r="F220">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G220" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -13582,16 +13582,16 @@
         <v>47</v>
       </c>
       <c r="Y220" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Z220" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB220" t="s">
         <v>121</v>
-      </c>
-      <c r="AA220" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB220" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="221" spans="2:28" x14ac:dyDescent="0.25">
@@ -13600,7 +13600,7 @@
         <v>631</v>
       </c>
       <c r="C221" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D221">
         <v>5</v>
@@ -13612,7 +13612,7 @@
         <v>1000</v>
       </c>
       <c r="G221" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H221">
         <v>32</v>
@@ -13653,7 +13653,7 @@
         <v>631</v>
       </c>
       <c r="C222" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D222">
         <v>5</v>
@@ -13665,7 +13665,7 @@
         <v>1000</v>
       </c>
       <c r="G222" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -13701,7 +13701,7 @@
         <v>631</v>
       </c>
       <c r="C223" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D223">
         <v>5</v>
@@ -13713,7 +13713,7 @@
         <v>1000</v>
       </c>
       <c r="G223" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -13749,7 +13749,7 @@
         <v>632</v>
       </c>
       <c r="C224" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D224">
         <v>8</v>
@@ -13761,7 +13761,7 @@
         <v>1000</v>
       </c>
       <c r="G224" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H224">
         <v>32</v>
@@ -13802,7 +13802,7 @@
         <v>632</v>
       </c>
       <c r="C225" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D225">
         <v>8</v>
@@ -13814,7 +13814,7 @@
         <v>1000</v>
       </c>
       <c r="G225" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H225">
         <v>32</v>
@@ -13855,7 +13855,7 @@
         <v>633</v>
       </c>
       <c r="C226" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D226">
         <v>8</v>
@@ -13867,7 +13867,7 @@
         <v>1000</v>
       </c>
       <c r="G226" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H226">
         <v>32</v>
@@ -13908,7 +13908,7 @@
         <v>633</v>
       </c>
       <c r="C227" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D227">
         <v>8</v>
@@ -13920,7 +13920,7 @@
         <v>1000</v>
       </c>
       <c r="G227" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H227">
         <v>32</v>
@@ -13961,7 +13961,7 @@
         <v>634</v>
       </c>
       <c r="C228" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D228">
         <v>4</v>
@@ -13973,7 +13973,7 @@
         <v>1000</v>
       </c>
       <c r="G228" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -14011,7 +14011,7 @@
         <v>634</v>
       </c>
       <c r="C229" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D229">
         <v>4</v>
@@ -14023,7 +14023,7 @@
         <v>1000</v>
       </c>
       <c r="G229" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>634</v>
       </c>
       <c r="C230" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D230">
         <v>4</v>
@@ -14073,7 +14073,7 @@
         <v>1000</v>
       </c>
       <c r="G230" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -14111,7 +14111,7 @@
         <v>634</v>
       </c>
       <c r="C231" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D231">
         <v>4</v>
@@ -14123,7 +14123,7 @@
         <v>1000</v>
       </c>
       <c r="G231" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -14161,7 +14161,7 @@
         <v>634</v>
       </c>
       <c r="C232" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D232">
         <v>4</v>
@@ -14173,7 +14173,7 @@
         <v>1000</v>
       </c>
       <c r="G232" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -14211,7 +14211,7 @@
         <v>634</v>
       </c>
       <c r="C233" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D233">
         <v>4</v>
@@ -14223,7 +14223,7 @@
         <v>1000</v>
       </c>
       <c r="G233" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -14261,7 +14261,7 @@
         <v>634</v>
       </c>
       <c r="C234" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D234">
         <v>4</v>
@@ -14273,7 +14273,7 @@
         <v>1000</v>
       </c>
       <c r="G234" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -14311,7 +14311,7 @@
         <v>634</v>
       </c>
       <c r="C235" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D235">
         <v>4</v>
@@ -14323,7 +14323,7 @@
         <v>1000</v>
       </c>
       <c r="G235" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -14361,7 +14361,7 @@
         <v>634</v>
       </c>
       <c r="C236" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D236">
         <v>4</v>
@@ -14373,7 +14373,7 @@
         <v>1000</v>
       </c>
       <c r="G236" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>634</v>
       </c>
       <c r="C237" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D237">
         <v>4</v>
@@ -14423,7 +14423,7 @@
         <v>1000</v>
       </c>
       <c r="G237" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -14461,7 +14461,7 @@
         <v>634</v>
       </c>
       <c r="C238" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D238">
         <v>4</v>
@@ -14473,7 +14473,7 @@
         <v>1000</v>
       </c>
       <c r="G238" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -14511,7 +14511,7 @@
         <v>634</v>
       </c>
       <c r="C239" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D239">
         <v>4</v>
@@ -14523,7 +14523,7 @@
         <v>1000</v>
       </c>
       <c r="G239" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -14561,7 +14561,7 @@
         <v>634</v>
       </c>
       <c r="C240" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D240">
         <v>4</v>
@@ -14573,7 +14573,7 @@
         <v>1000</v>
       </c>
       <c r="G240" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -14611,7 +14611,7 @@
         <v>634</v>
       </c>
       <c r="C241" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -14623,7 +14623,7 @@
         <v>1000</v>
       </c>
       <c r="G241" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         <v>634</v>
       </c>
       <c r="C242" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D242">
         <v>4</v>
@@ -14673,7 +14673,7 @@
         <v>1000</v>
       </c>
       <c r="G242" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -14711,7 +14711,7 @@
         <v>634</v>
       </c>
       <c r="C243" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D243">
         <v>4</v>
@@ -14723,7 +14723,7 @@
         <v>1000</v>
       </c>
       <c r="G243" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -14761,7 +14761,7 @@
         <v>634</v>
       </c>
       <c r="C244" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D244">
         <v>4</v>
@@ -14773,7 +14773,7 @@
         <v>1000</v>
       </c>
       <c r="G244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -14811,7 +14811,7 @@
         <v>634</v>
       </c>
       <c r="C245" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D245">
         <v>4</v>
@@ -14823,7 +14823,7 @@
         <v>1000</v>
       </c>
       <c r="G245" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>634</v>
       </c>
       <c r="C246" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D246">
         <v>4</v>
@@ -14873,7 +14873,7 @@
         <v>1000</v>
       </c>
       <c r="G246" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -14911,7 +14911,7 @@
         <v>634</v>
       </c>
       <c r="C247" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D247">
         <v>4</v>
@@ -14923,7 +14923,7 @@
         <v>1000</v>
       </c>
       <c r="G247" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -14961,7 +14961,7 @@
         <v>634</v>
       </c>
       <c r="C248" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D248">
         <v>4</v>
@@ -14973,7 +14973,7 @@
         <v>1000</v>
       </c>
       <c r="G248" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -15011,7 +15011,7 @@
         <v>634</v>
       </c>
       <c r="C249" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D249">
         <v>4</v>
@@ -15023,7 +15023,7 @@
         <v>1000</v>
       </c>
       <c r="G249" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>634</v>
       </c>
       <c r="C250" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D250">
         <v>4</v>
@@ -15073,7 +15073,7 @@
         <v>1000</v>
       </c>
       <c r="G250" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -15111,7 +15111,7 @@
         <v>634</v>
       </c>
       <c r="C251" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D251">
         <v>4</v>
@@ -15123,7 +15123,7 @@
         <v>1000</v>
       </c>
       <c r="G251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -15161,7 +15161,7 @@
         <v>634</v>
       </c>
       <c r="C252" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D252">
         <v>4</v>
@@ -15173,7 +15173,7 @@
         <v>1000</v>
       </c>
       <c r="G252" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -15211,7 +15211,7 @@
         <v>634</v>
       </c>
       <c r="C253" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D253">
         <v>4</v>
@@ -15223,7 +15223,7 @@
         <v>1000</v>
       </c>
       <c r="G253" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -15261,7 +15261,7 @@
         <v>634</v>
       </c>
       <c r="C254" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D254">
         <v>4</v>
@@ -15273,7 +15273,7 @@
         <v>1000</v>
       </c>
       <c r="G254" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -15311,7 +15311,7 @@
         <v>634</v>
       </c>
       <c r="C255" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D255">
         <v>4</v>
@@ -15323,7 +15323,7 @@
         <v>1000</v>
       </c>
       <c r="G255" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -15361,7 +15361,7 @@
         <v>634</v>
       </c>
       <c r="C256" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D256">
         <v>4</v>
@@ -15373,7 +15373,7 @@
         <v>1000</v>
       </c>
       <c r="G256" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>634</v>
       </c>
       <c r="C257" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D257">
         <v>4</v>
@@ -15423,7 +15423,7 @@
         <v>1000</v>
       </c>
       <c r="G257" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -15461,7 +15461,7 @@
         <v>635</v>
       </c>
       <c r="C258" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D258">
         <v>4</v>
@@ -15473,7 +15473,7 @@
         <v>1000</v>
       </c>
       <c r="G258" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -15511,7 +15511,7 @@
         <v>635</v>
       </c>
       <c r="C259" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D259">
         <v>4</v>
@@ -15523,7 +15523,7 @@
         <v>1000</v>
       </c>
       <c r="G259" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -15561,7 +15561,7 @@
         <v>635</v>
       </c>
       <c r="C260" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D260">
         <v>4</v>
@@ -15573,7 +15573,7 @@
         <v>1000</v>
       </c>
       <c r="G260" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H260">
         <v>1</v>
@@ -15611,7 +15611,7 @@
         <v>635</v>
       </c>
       <c r="C261" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D261">
         <v>4</v>
@@ -15623,7 +15623,7 @@
         <v>1000</v>
       </c>
       <c r="G261" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -15661,7 +15661,7 @@
         <v>635</v>
       </c>
       <c r="C262" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D262">
         <v>4</v>
@@ -15673,7 +15673,7 @@
         <v>1000</v>
       </c>
       <c r="G262" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -15711,7 +15711,7 @@
         <v>635</v>
       </c>
       <c r="C263" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D263">
         <v>4</v>
@@ -15723,7 +15723,7 @@
         <v>1000</v>
       </c>
       <c r="G263" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -15761,7 +15761,7 @@
         <v>635</v>
       </c>
       <c r="C264" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D264">
         <v>4</v>
@@ -15773,7 +15773,7 @@
         <v>1000</v>
       </c>
       <c r="G264" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -15811,7 +15811,7 @@
         <v>635</v>
       </c>
       <c r="C265" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D265">
         <v>4</v>
@@ -15823,7 +15823,7 @@
         <v>1000</v>
       </c>
       <c r="G265" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -15861,7 +15861,7 @@
         <v>635</v>
       </c>
       <c r="C266" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D266">
         <v>4</v>
@@ -15873,7 +15873,7 @@
         <v>1000</v>
       </c>
       <c r="G266" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -15911,7 +15911,7 @@
         <v>635</v>
       </c>
       <c r="C267" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D267">
         <v>4</v>
@@ -15923,7 +15923,7 @@
         <v>1000</v>
       </c>
       <c r="G267" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>635</v>
       </c>
       <c r="C268" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D268">
         <v>4</v>
@@ -15973,7 +15973,7 @@
         <v>1000</v>
       </c>
       <c r="G268" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -16011,7 +16011,7 @@
         <v>635</v>
       </c>
       <c r="C269" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D269">
         <v>4</v>
@@ -16023,7 +16023,7 @@
         <v>1000</v>
       </c>
       <c r="G269" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -16061,7 +16061,7 @@
         <v>635</v>
       </c>
       <c r="C270" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D270">
         <v>4</v>
@@ -16073,7 +16073,7 @@
         <v>1000</v>
       </c>
       <c r="G270" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -16111,7 +16111,7 @@
         <v>635</v>
       </c>
       <c r="C271" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D271">
         <v>4</v>
@@ -16123,7 +16123,7 @@
         <v>1000</v>
       </c>
       <c r="G271" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -16161,7 +16161,7 @@
         <v>635</v>
       </c>
       <c r="C272" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D272">
         <v>4</v>
@@ -16173,7 +16173,7 @@
         <v>1000</v>
       </c>
       <c r="G272" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -16211,7 +16211,7 @@
         <v>635</v>
       </c>
       <c r="C273" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D273">
         <v>4</v>
@@ -16223,7 +16223,7 @@
         <v>1000</v>
       </c>
       <c r="G273" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -16261,7 +16261,7 @@
         <v>635</v>
       </c>
       <c r="C274" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D274">
         <v>4</v>
@@ -16273,7 +16273,7 @@
         <v>1000</v>
       </c>
       <c r="G274" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -16311,7 +16311,7 @@
         <v>635</v>
       </c>
       <c r="C275" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D275">
         <v>4</v>
@@ -16323,7 +16323,7 @@
         <v>1000</v>
       </c>
       <c r="G275" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -16361,7 +16361,7 @@
         <v>635</v>
       </c>
       <c r="C276" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D276">
         <v>4</v>
@@ -16373,7 +16373,7 @@
         <v>1000</v>
       </c>
       <c r="G276" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -16411,7 +16411,7 @@
         <v>635</v>
       </c>
       <c r="C277" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D277">
         <v>4</v>
@@ -16423,7 +16423,7 @@
         <v>1000</v>
       </c>
       <c r="G277" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         <v>635</v>
       </c>
       <c r="C278" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D278">
         <v>4</v>
@@ -16473,7 +16473,7 @@
         <v>1000</v>
       </c>
       <c r="G278" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -16511,7 +16511,7 @@
         <v>635</v>
       </c>
       <c r="C279" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D279">
         <v>4</v>
@@ -16523,7 +16523,7 @@
         <v>1000</v>
       </c>
       <c r="G279" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -16561,7 +16561,7 @@
         <v>635</v>
       </c>
       <c r="C280" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D280">
         <v>4</v>
@@ -16573,7 +16573,7 @@
         <v>1000</v>
       </c>
       <c r="G280" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -16611,7 +16611,7 @@
         <v>635</v>
       </c>
       <c r="C281" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D281">
         <v>4</v>
@@ -16623,7 +16623,7 @@
         <v>1000</v>
       </c>
       <c r="G281" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -16661,7 +16661,7 @@
         <v>635</v>
       </c>
       <c r="C282" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D282">
         <v>4</v>
@@ -16673,7 +16673,7 @@
         <v>1000</v>
       </c>
       <c r="G282" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -16711,7 +16711,7 @@
         <v>635</v>
       </c>
       <c r="C283" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D283">
         <v>4</v>
@@ -16723,7 +16723,7 @@
         <v>1000</v>
       </c>
       <c r="G283" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -16761,7 +16761,7 @@
         <v>635</v>
       </c>
       <c r="C284" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D284">
         <v>4</v>
@@ -16773,7 +16773,7 @@
         <v>1000</v>
       </c>
       <c r="G284" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -16811,7 +16811,7 @@
         <v>635</v>
       </c>
       <c r="C285" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D285">
         <v>4</v>
@@ -16823,7 +16823,7 @@
         <v>1000</v>
       </c>
       <c r="G285" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -16861,7 +16861,7 @@
         <v>635</v>
       </c>
       <c r="C286" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D286">
         <v>4</v>
@@ -16873,7 +16873,7 @@
         <v>1000</v>
       </c>
       <c r="G286" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -16911,7 +16911,7 @@
         <v>635</v>
       </c>
       <c r="C287" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D287">
         <v>4</v>
@@ -16923,7 +16923,7 @@
         <v>1000</v>
       </c>
       <c r="G287" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -16961,7 +16961,7 @@
         <v>636</v>
       </c>
       <c r="C288" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D288">
         <v>4</v>
@@ -16973,7 +16973,7 @@
         <v>1000</v>
       </c>
       <c r="G288" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -17011,7 +17011,7 @@
         <v>636</v>
       </c>
       <c r="C289" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D289">
         <v>4</v>
@@ -17023,7 +17023,7 @@
         <v>1000</v>
       </c>
       <c r="G289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -17061,7 +17061,7 @@
         <v>636</v>
       </c>
       <c r="C290" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D290">
         <v>4</v>
@@ -17073,7 +17073,7 @@
         <v>1000</v>
       </c>
       <c r="G290" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -17111,7 +17111,7 @@
         <v>636</v>
       </c>
       <c r="C291" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D291">
         <v>4</v>
@@ -17123,7 +17123,7 @@
         <v>1000</v>
       </c>
       <c r="G291" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -17161,7 +17161,7 @@
         <v>636</v>
       </c>
       <c r="C292" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D292">
         <v>4</v>
@@ -17173,7 +17173,7 @@
         <v>1000</v>
       </c>
       <c r="G292" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -17211,7 +17211,7 @@
         <v>636</v>
       </c>
       <c r="C293" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D293">
         <v>4</v>
@@ -17223,7 +17223,7 @@
         <v>1000</v>
       </c>
       <c r="G293" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -17261,7 +17261,7 @@
         <v>636</v>
       </c>
       <c r="C294" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D294">
         <v>4</v>
@@ -17273,7 +17273,7 @@
         <v>1000</v>
       </c>
       <c r="G294" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -17311,7 +17311,7 @@
         <v>636</v>
       </c>
       <c r="C295" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D295">
         <v>4</v>
@@ -17323,7 +17323,7 @@
         <v>1000</v>
       </c>
       <c r="G295" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -17361,7 +17361,7 @@
         <v>636</v>
       </c>
       <c r="C296" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D296">
         <v>4</v>
@@ -17373,7 +17373,7 @@
         <v>1000</v>
       </c>
       <c r="G296" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -17411,7 +17411,7 @@
         <v>636</v>
       </c>
       <c r="C297" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D297">
         <v>4</v>
@@ -17423,7 +17423,7 @@
         <v>1000</v>
       </c>
       <c r="G297" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -17461,7 +17461,7 @@
         <v>636</v>
       </c>
       <c r="C298" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D298">
         <v>4</v>
@@ -17473,7 +17473,7 @@
         <v>1000</v>
       </c>
       <c r="G298" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -17511,7 +17511,7 @@
         <v>636</v>
       </c>
       <c r="C299" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D299">
         <v>4</v>
@@ -17523,7 +17523,7 @@
         <v>1000</v>
       </c>
       <c r="G299" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -17561,7 +17561,7 @@
         <v>636</v>
       </c>
       <c r="C300" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D300">
         <v>4</v>
@@ -17573,7 +17573,7 @@
         <v>1000</v>
       </c>
       <c r="G300" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -17611,7 +17611,7 @@
         <v>636</v>
       </c>
       <c r="C301" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D301">
         <v>4</v>
@@ -17623,7 +17623,7 @@
         <v>1000</v>
       </c>
       <c r="G301" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -17661,7 +17661,7 @@
         <v>636</v>
       </c>
       <c r="C302" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D302">
         <v>4</v>
@@ -17673,7 +17673,7 @@
         <v>1000</v>
       </c>
       <c r="G302" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -17711,7 +17711,7 @@
         <v>636</v>
       </c>
       <c r="C303" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D303">
         <v>4</v>
@@ -17723,7 +17723,7 @@
         <v>1000</v>
       </c>
       <c r="G303" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -17761,7 +17761,7 @@
         <v>636</v>
       </c>
       <c r="C304" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D304">
         <v>4</v>
@@ -17773,7 +17773,7 @@
         <v>1000</v>
       </c>
       <c r="G304" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -17811,7 +17811,7 @@
         <v>636</v>
       </c>
       <c r="C305" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D305">
         <v>4</v>
@@ -17823,7 +17823,7 @@
         <v>1000</v>
       </c>
       <c r="G305" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -17861,7 +17861,7 @@
         <v>636</v>
       </c>
       <c r="C306" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D306">
         <v>4</v>
@@ -17873,7 +17873,7 @@
         <v>1000</v>
       </c>
       <c r="G306" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -17911,7 +17911,7 @@
         <v>636</v>
       </c>
       <c r="C307" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D307">
         <v>4</v>
@@ -17923,7 +17923,7 @@
         <v>1000</v>
       </c>
       <c r="G307" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -17961,7 +17961,7 @@
         <v>636</v>
       </c>
       <c r="C308" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D308">
         <v>4</v>
@@ -17973,7 +17973,7 @@
         <v>1000</v>
       </c>
       <c r="G308" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -18011,7 +18011,7 @@
         <v>636</v>
       </c>
       <c r="C309" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D309">
         <v>4</v>
@@ -18023,7 +18023,7 @@
         <v>1000</v>
       </c>
       <c r="G309" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -18061,7 +18061,7 @@
         <v>636</v>
       </c>
       <c r="C310" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D310">
         <v>4</v>
@@ -18073,7 +18073,7 @@
         <v>1000</v>
       </c>
       <c r="G310" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -18111,7 +18111,7 @@
         <v>636</v>
       </c>
       <c r="C311" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D311">
         <v>4</v>
@@ -18123,7 +18123,7 @@
         <v>1000</v>
       </c>
       <c r="G311" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>636</v>
       </c>
       <c r="C312" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D312">
         <v>4</v>
@@ -18173,7 +18173,7 @@
         <v>1000</v>
       </c>
       <c r="G312" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -18211,7 +18211,7 @@
         <v>636</v>
       </c>
       <c r="C313" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D313">
         <v>4</v>
@@ -18223,7 +18223,7 @@
         <v>1000</v>
       </c>
       <c r="G313" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         <v>636</v>
       </c>
       <c r="C314" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D314">
         <v>4</v>
@@ -18273,7 +18273,7 @@
         <v>1000</v>
       </c>
       <c r="G314" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -18311,7 +18311,7 @@
         <v>636</v>
       </c>
       <c r="C315" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D315">
         <v>4</v>
@@ -18323,7 +18323,7 @@
         <v>1000</v>
       </c>
       <c r="G315" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>636</v>
       </c>
       <c r="C316" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D316">
         <v>4</v>
@@ -18373,7 +18373,7 @@
         <v>1000</v>
       </c>
       <c r="G316" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -18411,7 +18411,7 @@
         <v>636</v>
       </c>
       <c r="C317" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D317">
         <v>4</v>
@@ -18423,7 +18423,7 @@
         <v>1000</v>
       </c>
       <c r="G317" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -18461,7 +18461,7 @@
         <v>637</v>
       </c>
       <c r="C318" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D318">
         <v>4</v>
@@ -18473,7 +18473,7 @@
         <v>1000</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -18511,7 +18511,7 @@
         <v>637</v>
       </c>
       <c r="C319" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D319">
         <v>4</v>
@@ -18523,7 +18523,7 @@
         <v>1000</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -18561,7 +18561,7 @@
         <v>637</v>
       </c>
       <c r="C320" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D320">
         <v>4</v>
@@ -18573,7 +18573,7 @@
         <v>1000</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -18611,7 +18611,7 @@
         <v>637</v>
       </c>
       <c r="C321" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D321">
         <v>4</v>
@@ -18623,7 +18623,7 @@
         <v>1000</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -18661,7 +18661,7 @@
         <v>637</v>
       </c>
       <c r="C322" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D322">
         <v>4</v>
@@ -18673,7 +18673,7 @@
         <v>1000</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -18711,7 +18711,7 @@
         <v>637</v>
       </c>
       <c r="C323" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D323">
         <v>4</v>
@@ -18723,7 +18723,7 @@
         <v>1000</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -18761,7 +18761,7 @@
         <v>637</v>
       </c>
       <c r="C324" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D324">
         <v>4</v>
@@ -18773,7 +18773,7 @@
         <v>1000</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -18811,7 +18811,7 @@
         <v>637</v>
       </c>
       <c r="C325" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D325">
         <v>4</v>
@@ -18823,7 +18823,7 @@
         <v>1000</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -18861,7 +18861,7 @@
         <v>637</v>
       </c>
       <c r="C326" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D326">
         <v>4</v>
@@ -18873,7 +18873,7 @@
         <v>1000</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H326">
         <v>1</v>
@@ -18911,7 +18911,7 @@
         <v>637</v>
       </c>
       <c r="C327" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D327">
         <v>4</v>
@@ -18923,7 +18923,7 @@
         <v>1000</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -18961,7 +18961,7 @@
         <v>637</v>
       </c>
       <c r="C328" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D328">
         <v>4</v>
@@ -18973,7 +18973,7 @@
         <v>1000</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H328">
         <v>1</v>
@@ -19011,7 +19011,7 @@
         <v>637</v>
       </c>
       <c r="C329" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D329">
         <v>4</v>
@@ -19023,7 +19023,7 @@
         <v>1000</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H329">
         <v>1</v>
@@ -19061,7 +19061,7 @@
         <v>637</v>
       </c>
       <c r="C330" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D330">
         <v>4</v>
@@ -19073,7 +19073,7 @@
         <v>1000</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -19111,7 +19111,7 @@
         <v>637</v>
       </c>
       <c r="C331" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D331">
         <v>4</v>
@@ -19123,7 +19123,7 @@
         <v>1000</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>637</v>
       </c>
       <c r="C332" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D332">
         <v>4</v>
@@ -19173,7 +19173,7 @@
         <v>1000</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H332">
         <v>1</v>
@@ -19211,7 +19211,7 @@
         <v>637</v>
       </c>
       <c r="C333" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D333">
         <v>4</v>
@@ -19223,7 +19223,7 @@
         <v>1000</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -19261,7 +19261,7 @@
         <v>637</v>
       </c>
       <c r="C334" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D334">
         <v>4</v>
@@ -19273,7 +19273,7 @@
         <v>1000</v>
       </c>
       <c r="G334" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -19311,7 +19311,7 @@
         <v>637</v>
       </c>
       <c r="C335" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D335">
         <v>4</v>
@@ -19323,7 +19323,7 @@
         <v>1000</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H335">
         <v>1</v>
@@ -19361,7 +19361,7 @@
         <v>637</v>
       </c>
       <c r="C336" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D336">
         <v>4</v>
@@ -19373,7 +19373,7 @@
         <v>1000</v>
       </c>
       <c r="G336" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -19411,7 +19411,7 @@
         <v>637</v>
       </c>
       <c r="C337" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D337">
         <v>4</v>
@@ -19423,7 +19423,7 @@
         <v>1000</v>
       </c>
       <c r="G337" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -19461,7 +19461,7 @@
         <v>637</v>
       </c>
       <c r="C338" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D338">
         <v>4</v>
@@ -19473,7 +19473,7 @@
         <v>1000</v>
       </c>
       <c r="G338" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -19511,7 +19511,7 @@
         <v>637</v>
       </c>
       <c r="C339" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D339">
         <v>4</v>
@@ -19523,7 +19523,7 @@
         <v>1000</v>
       </c>
       <c r="G339" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -19561,7 +19561,7 @@
         <v>637</v>
       </c>
       <c r="C340" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D340">
         <v>4</v>
@@ -19573,7 +19573,7 @@
         <v>1000</v>
       </c>
       <c r="G340" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H340">
         <v>1</v>
@@ -19611,7 +19611,7 @@
         <v>637</v>
       </c>
       <c r="C341" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D341">
         <v>4</v>
@@ -19623,7 +19623,7 @@
         <v>1000</v>
       </c>
       <c r="G341" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H341">
         <v>1</v>
@@ -19655,10 +19655,10 @@
         <v>47</v>
       </c>
       <c r="Y341" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z341" t="s">
         <v>517</v>
-      </c>
-      <c r="Z341" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="342" spans="2:28" x14ac:dyDescent="0.25">
@@ -19667,7 +19667,7 @@
         <v>637</v>
       </c>
       <c r="C342" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D342">
         <v>4</v>
@@ -19679,7 +19679,7 @@
         <v>1000</v>
       </c>
       <c r="G342" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H342">
         <v>1</v>
@@ -19711,10 +19711,10 @@
         <v>47</v>
       </c>
       <c r="Y342" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z342" t="s">
         <v>517</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="343" spans="2:28" x14ac:dyDescent="0.25">
@@ -19723,7 +19723,7 @@
         <v>637</v>
       </c>
       <c r="C343" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D343">
         <v>4</v>
@@ -19735,7 +19735,7 @@
         <v>1000</v>
       </c>
       <c r="G343" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H343">
         <v>1</v>
@@ -19767,10 +19767,10 @@
         <v>47</v>
       </c>
       <c r="Y343" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z343" t="s">
         <v>517</v>
-      </c>
-      <c r="Z343" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="344" spans="2:28" x14ac:dyDescent="0.25">
@@ -19778,7 +19778,7 @@
         <v>700</v>
       </c>
       <c r="C344" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D344">
         <v>4</v>
@@ -19787,10 +19787,10 @@
         <v>47</v>
       </c>
       <c r="F344">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G344" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H344">
         <v>32</v>
@@ -19834,7 +19834,7 @@
         <v>701</v>
       </c>
       <c r="C345" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -19843,10 +19843,10 @@
         <v>47</v>
       </c>
       <c r="F345">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G345" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -19881,16 +19881,16 @@
         <v>47</v>
       </c>
       <c r="Y345" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Z345" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB345" t="s">
         <v>121</v>
-      </c>
-      <c r="AA345" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB345" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="346" spans="2:28" x14ac:dyDescent="0.25">
@@ -19899,7 +19899,7 @@
         <v>702</v>
       </c>
       <c r="C346" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D346">
         <v>4</v>
@@ -19908,10 +19908,10 @@
         <v>47</v>
       </c>
       <c r="F346">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G346" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H346">
         <v>32</v>
@@ -19955,7 +19955,7 @@
         <v>703</v>
       </c>
       <c r="C347" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D347">
         <v>4</v>
@@ -19964,10 +19964,10 @@
         <v>47</v>
       </c>
       <c r="F347">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G347" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H347">
         <v>32</v>
@@ -20011,7 +20011,7 @@
         <v>704</v>
       </c>
       <c r="C348" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D348">
         <v>4</v>
@@ -20020,10 +20020,10 @@
         <v>47</v>
       </c>
       <c r="F348">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G348" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H348">
         <v>32</v>
@@ -20067,19 +20067,19 @@
         <v>705</v>
       </c>
       <c r="C349" t="s">
+        <v>505</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349" t="s">
+        <v>47</v>
+      </c>
+      <c r="F349">
+        <v>100</v>
+      </c>
+      <c r="G349" t="s">
         <v>506</v>
-      </c>
-      <c r="D349">
-        <v>1</v>
-      </c>
-      <c r="E349" t="s">
-        <v>47</v>
-      </c>
-      <c r="F349">
-        <v>10</v>
-      </c>
-      <c r="G349" t="s">
-        <v>507</v>
       </c>
       <c r="H349">
         <v>2</v>
@@ -20114,16 +20114,16 @@
         <v>47</v>
       </c>
       <c r="Y349" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Z349" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AA349" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB349" t="s">
         <v>390</v>
-      </c>
-      <c r="AB349" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="350" spans="2:28" x14ac:dyDescent="0.25">
@@ -37857,62 +37857,62 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/codegen/CAN/CanMsgs.xlsx
+++ b/scripts/codegen/CAN/CanMsgs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5090" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5146" uniqueCount="559">
   <si>
     <t>Message Name</t>
   </si>
@@ -1650,6 +1650,48 @@
   </si>
   <si>
     <t>TASK_1KHZ</t>
+  </si>
+  <si>
+    <t>INV_ID</t>
+  </si>
+  <si>
+    <t>INV_IQ</t>
+  </si>
+  <si>
+    <t>INV_IS</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>INV_PID_IQ_PROP</t>
+  </si>
+  <si>
+    <t>INV_PID_ID_PROP</t>
+  </si>
+  <si>
+    <t>INV_PID_SPEED_PROP</t>
+  </si>
+  <si>
+    <t>PID_SPEED_PROP</t>
+  </si>
+  <si>
+    <t>PID_ID_PROP</t>
+  </si>
+  <si>
+    <t>PID_IQ_PROP</t>
+  </si>
+  <si>
+    <t>INV_VPHASE_LN</t>
+  </si>
+  <si>
+    <t>VPHASE_LN</t>
   </si>
 </sst>
 </file>
@@ -2034,13 +2076,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1026"/>
+  <dimension ref="A1:AE1033"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H334" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H188" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F349" sqref="F349"/>
+      <selection pane="bottomRight" activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11642,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <f t="shared" ref="M184:M250" si="9">IF(J184="Unsigned",0,-N184)</f>
+        <f t="shared" ref="M184:M257" si="9">IF(J184="Unsigned",0,-N184)</f>
         <v>0</v>
       </c>
       <c r="N184">
@@ -11658,7 +11700,7 @@
     </row>
     <row r="185" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B185">
-        <f t="shared" ref="B185:B248" si="10">IF(C185&lt;&gt;C184,B184+1,B184)</f>
+        <f t="shared" ref="B185:B255" si="10">IF(C185&lt;&gt;C184,B184+1,B184)</f>
         <v>601</v>
       </c>
       <c r="C185" t="s">
@@ -11935,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="N189">
-        <f t="shared" ref="N189:N255" si="11">IF(J189="Unsigned",2^(MIN(H189,32))-1,2^(MIN(H189,32))/2-1)</f>
+        <f t="shared" ref="N189:N262" si="11">IF(J189="Unsigned",2^(MIN(H189,32))-1,2^(MIN(H189,32))/2-1)</f>
         <v>1</v>
       </c>
       <c r="O189" t="s">
@@ -12266,7 +12308,7 @@
         <v>606</v>
       </c>
       <c r="C196" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D196">
         <v>4</v>
@@ -12278,7 +12320,7 @@
         <v>100</v>
       </c>
       <c r="G196" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H196">
         <v>32</v>
@@ -12296,11 +12338,11 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <f t="shared" ref="M196:M198" si="12">IF(J196="Unsigned",0,-N196)</f>
+        <f t="shared" si="9"/>
         <v>-2147483647</v>
       </c>
       <c r="N196">
-        <f t="shared" ref="N196:N198" si="13">IF(J196="Unsigned",2^(MIN(H196,32))-1,2^(MIN(H196,32))/2-1)</f>
+        <f t="shared" si="11"/>
         <v>2147483647</v>
       </c>
       <c r="O196" t="s">
@@ -12319,7 +12361,7 @@
         <v>607</v>
       </c>
       <c r="C197" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D197">
         <v>4</v>
@@ -12331,7 +12373,7 @@
         <v>100</v>
       </c>
       <c r="G197" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H197">
         <v>32</v>
@@ -12349,11 +12391,11 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-2147483647</v>
       </c>
       <c r="N197">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2147483647</v>
       </c>
       <c r="O197" t="s">
@@ -12372,7 +12414,7 @@
         <v>608</v>
       </c>
       <c r="C198" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D198">
         <v>4</v>
@@ -12384,7 +12426,7 @@
         <v>100</v>
       </c>
       <c r="G198" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H198">
         <v>32</v>
@@ -12402,11 +12444,11 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4294967295</v>
       </c>
       <c r="O198" t="s">
@@ -12425,7 +12467,7 @@
         <v>609</v>
       </c>
       <c r="C199" t="s">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="D199">
         <v>4</v>
@@ -12437,7 +12479,7 @@
         <v>100</v>
       </c>
       <c r="G199" t="s">
-        <v>143</v>
+        <v>541</v>
       </c>
       <c r="H199">
         <v>32</v>
@@ -12455,18 +12497,18 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M199:M204" si="12">IF(J199="Unsigned",0,-N199)</f>
         <v>-2147483647</v>
       </c>
       <c r="N199">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N199:N204" si="13">IF(J199="Unsigned",2^(MIN(H199,32))-1,2^(MIN(H199,32))/2-1)</f>
         <v>2147483647</v>
       </c>
       <c r="O199" t="s">
         <v>68</v>
       </c>
       <c r="P199" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X199" t="s">
         <v>47</v>
@@ -12478,7 +12520,7 @@
         <v>610</v>
       </c>
       <c r="C200" t="s">
-        <v>100</v>
+        <v>539</v>
       </c>
       <c r="D200">
         <v>4</v>
@@ -12490,7 +12532,7 @@
         <v>100</v>
       </c>
       <c r="G200" t="s">
-        <v>144</v>
+        <v>542</v>
       </c>
       <c r="H200">
         <v>32</v>
@@ -12508,18 +12550,18 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2147483647</v>
       </c>
       <c r="N200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2147483647</v>
       </c>
       <c r="O200" t="s">
         <v>68</v>
       </c>
       <c r="P200" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X200" t="s">
         <v>47</v>
@@ -12531,7 +12573,7 @@
         <v>611</v>
       </c>
       <c r="C201" t="s">
-        <v>101</v>
+        <v>540</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -12543,7 +12585,7 @@
         <v>100</v>
       </c>
       <c r="G201" t="s">
-        <v>145</v>
+        <v>543</v>
       </c>
       <c r="H201">
         <v>32</v>
@@ -12552,7 +12594,7 @@
         <v>50</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K201">
         <v>1</v>
@@ -12561,18 +12603,18 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <f t="shared" si="9"/>
-        <v>-2147483647</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N201">
-        <f t="shared" si="11"/>
-        <v>2147483647</v>
+        <f t="shared" si="13"/>
+        <v>4294967295</v>
       </c>
       <c r="O201" t="s">
         <v>68</v>
       </c>
       <c r="P201" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="X201" t="s">
         <v>47</v>
@@ -12584,7 +12626,7 @@
         <v>612</v>
       </c>
       <c r="C202" t="s">
-        <v>404</v>
+        <v>551</v>
       </c>
       <c r="D202">
         <v>4</v>
@@ -12596,7 +12638,7 @@
         <v>100</v>
       </c>
       <c r="G202" t="s">
-        <v>153</v>
+        <v>556</v>
       </c>
       <c r="H202">
         <v>32</v>
@@ -12614,11 +12656,11 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <f>IF(J202="Unsigned",0,-N202)</f>
+        <f t="shared" si="12"/>
         <v>-2147483647</v>
       </c>
       <c r="N202">
-        <f>IF(J202="Unsigned",2^(MIN(H202,32))-1,2^(MIN(H202,32))/2-1)</f>
+        <f t="shared" si="13"/>
         <v>2147483647</v>
       </c>
       <c r="O202" t="s">
@@ -12637,7 +12679,7 @@
         <v>613</v>
       </c>
       <c r="C203" t="s">
-        <v>134</v>
+        <v>552</v>
       </c>
       <c r="D203">
         <v>4</v>
@@ -12649,7 +12691,7 @@
         <v>100</v>
       </c>
       <c r="G203" t="s">
-        <v>154</v>
+        <v>555</v>
       </c>
       <c r="H203">
         <v>32</v>
@@ -12667,11 +12709,11 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <f>IF(J203="Unsigned",0,-N203)</f>
+        <f t="shared" si="12"/>
         <v>-2147483647</v>
       </c>
       <c r="N203">
-        <f>IF(J203="Unsigned",2^(MIN(H203,32))-1,2^(MIN(H203,32))/2-1)</f>
+        <f t="shared" si="13"/>
         <v>2147483647</v>
       </c>
       <c r="O203" t="s">
@@ -12690,7 +12732,7 @@
         <v>614</v>
       </c>
       <c r="C204" t="s">
-        <v>135</v>
+        <v>553</v>
       </c>
       <c r="D204">
         <v>4</v>
@@ -12702,7 +12744,7 @@
         <v>100</v>
       </c>
       <c r="G204" t="s">
-        <v>155</v>
+        <v>554</v>
       </c>
       <c r="H204">
         <v>32</v>
@@ -12720,11 +12762,11 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <f>IF(J204="Unsigned",0,-N204)</f>
+        <f t="shared" si="12"/>
         <v>-2147483647</v>
       </c>
       <c r="N204">
-        <f>IF(J204="Unsigned",2^(MIN(H204,32))-1,2^(MIN(H204,32))/2-1)</f>
+        <f t="shared" si="13"/>
         <v>2147483647</v>
       </c>
       <c r="O204" t="s">
@@ -12743,7 +12785,7 @@
         <v>615</v>
       </c>
       <c r="C205" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -12755,7 +12797,7 @@
         <v>100</v>
       </c>
       <c r="G205" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H205">
         <v>32</v>
@@ -12764,7 +12806,7 @@
         <v>50</v>
       </c>
       <c r="J205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K205">
         <v>1</v>
@@ -12774,17 +12816,17 @@
       </c>
       <c r="M205">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2147483647</v>
       </c>
       <c r="N205">
         <f t="shared" si="11"/>
-        <v>4294967295</v>
+        <v>2147483647</v>
       </c>
       <c r="O205" t="s">
         <v>68</v>
       </c>
       <c r="P205" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X205" t="s">
         <v>47</v>
@@ -12796,7 +12838,7 @@
         <v>616</v>
       </c>
       <c r="C206" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D206">
         <v>4</v>
@@ -12808,7 +12850,7 @@
         <v>100</v>
       </c>
       <c r="G206" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H206">
         <v>32</v>
@@ -12817,7 +12859,7 @@
         <v>50</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K206">
         <v>1</v>
@@ -12827,11 +12869,11 @@
       </c>
       <c r="M206">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2147483647</v>
       </c>
       <c r="N206">
         <f t="shared" si="11"/>
-        <v>4294967295</v>
+        <v>2147483647</v>
       </c>
       <c r="O206" t="s">
         <v>68</v>
@@ -12849,7 +12891,7 @@
         <v>617</v>
       </c>
       <c r="C207" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D207">
         <v>4</v>
@@ -12861,7 +12903,7 @@
         <v>100</v>
       </c>
       <c r="G207" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H207">
         <v>32</v>
@@ -12890,7 +12932,7 @@
         <v>68</v>
       </c>
       <c r="P207" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="X207" t="s">
         <v>47</v>
@@ -12902,7 +12944,7 @@
         <v>618</v>
       </c>
       <c r="C208" t="s">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="D208">
         <v>4</v>
@@ -12914,7 +12956,7 @@
         <v>100</v>
       </c>
       <c r="G208" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H208">
         <v>32</v>
@@ -12932,30 +12974,30 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <f t="shared" si="9"/>
+        <f>IF(J208="Unsigned",0,-N208)</f>
         <v>-2147483647</v>
       </c>
       <c r="N208">
-        <f t="shared" si="11"/>
+        <f>IF(J208="Unsigned",2^(MIN(H208,32))-1,2^(MIN(H208,32))/2-1)</f>
         <v>2147483647</v>
       </c>
       <c r="O208" t="s">
         <v>68</v>
       </c>
       <c r="P208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X208" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B209">
         <f t="shared" si="10"/>
         <v>619</v>
       </c>
       <c r="C209" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D209">
         <v>4</v>
@@ -12967,7 +13009,7 @@
         <v>100</v>
       </c>
       <c r="G209" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H209">
         <v>32</v>
@@ -12985,30 +13027,30 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <f t="shared" si="9"/>
+        <f>IF(J209="Unsigned",0,-N209)</f>
         <v>-2147483647</v>
       </c>
       <c r="N209">
-        <f t="shared" si="11"/>
+        <f>IF(J209="Unsigned",2^(MIN(H209,32))-1,2^(MIN(H209,32))/2-1)</f>
         <v>2147483647</v>
       </c>
       <c r="O209" t="s">
         <v>68</v>
       </c>
       <c r="P209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X209" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B210">
         <f t="shared" si="10"/>
         <v>620</v>
       </c>
       <c r="C210" t="s">
-        <v>525</v>
+        <v>135</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -13017,10 +13059,10 @@
         <v>43</v>
       </c>
       <c r="F210">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G210" t="s">
-        <v>528</v>
+        <v>155</v>
       </c>
       <c r="H210">
         <v>32</v>
@@ -13038,30 +13080,30 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <f t="shared" ref="M210:M215" si="14">IF(J210="Unsigned",0,-N210)</f>
+        <f>IF(J210="Unsigned",0,-N210)</f>
         <v>-2147483647</v>
       </c>
       <c r="N210">
-        <f t="shared" ref="N210:N215" si="15">IF(J210="Unsigned",2^(MIN(H210,32))-1,2^(MIN(H210,32))/2-1)</f>
+        <f>IF(J210="Unsigned",2^(MIN(H210,32))-1,2^(MIN(H210,32))/2-1)</f>
         <v>2147483647</v>
       </c>
       <c r="O210" t="s">
         <v>68</v>
       </c>
       <c r="P210" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="X210" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B211">
         <f t="shared" si="10"/>
         <v>621</v>
       </c>
       <c r="C211" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="D211">
         <v>4</v>
@@ -13070,10 +13112,10 @@
         <v>43</v>
       </c>
       <c r="F211">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G211" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="H211">
         <v>32</v>
@@ -13091,30 +13133,30 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <f t="shared" si="14"/>
+        <f>IF(J211="Unsigned",0,-N211)</f>
         <v>-2147483647</v>
       </c>
       <c r="N211">
-        <f t="shared" si="15"/>
+        <f>IF(J211="Unsigned",2^(MIN(H211,32))-1,2^(MIN(H211,32))/2-1)</f>
         <v>2147483647</v>
       </c>
       <c r="O211" t="s">
         <v>68</v>
       </c>
       <c r="P211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X211" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B212">
         <f t="shared" si="10"/>
         <v>622</v>
       </c>
       <c r="C212" t="s">
-        <v>527</v>
+        <v>99</v>
       </c>
       <c r="D212">
         <v>4</v>
@@ -13123,10 +13165,10 @@
         <v>43</v>
       </c>
       <c r="F212">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G212" t="s">
-        <v>530</v>
+        <v>146</v>
       </c>
       <c r="H212">
         <v>32</v>
@@ -13135,7 +13177,7 @@
         <v>50</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K212">
         <v>1</v>
@@ -13144,30 +13186,30 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <f t="shared" si="14"/>
-        <v>-2147483647</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N212">
-        <f t="shared" si="15"/>
-        <v>2147483647</v>
+        <f t="shared" si="11"/>
+        <v>4294967295</v>
       </c>
       <c r="O212" t="s">
         <v>68</v>
       </c>
       <c r="P212" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="X212" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B213">
         <f t="shared" si="10"/>
         <v>623</v>
       </c>
       <c r="C213" t="s">
-        <v>532</v>
+        <v>102</v>
       </c>
       <c r="D213">
         <v>4</v>
@@ -13179,7 +13221,7 @@
         <v>100</v>
       </c>
       <c r="G213" t="s">
-        <v>535</v>
+        <v>147</v>
       </c>
       <c r="H213">
         <v>32</v>
@@ -13197,30 +13239,30 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4294967295</v>
       </c>
       <c r="O213" t="s">
         <v>68</v>
       </c>
       <c r="P213" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="X213" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B214">
         <f t="shared" si="10"/>
         <v>624</v>
       </c>
       <c r="C214" t="s">
-        <v>533</v>
+        <v>103</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -13232,7 +13274,7 @@
         <v>100</v>
       </c>
       <c r="G214" t="s">
-        <v>536</v>
+        <v>148</v>
       </c>
       <c r="H214">
         <v>32</v>
@@ -13241,7 +13283,7 @@
         <v>50</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K214">
         <v>1</v>
@@ -13250,30 +13292,30 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2147483647</v>
       </c>
       <c r="N214">
-        <f t="shared" si="15"/>
-        <v>4294967295</v>
+        <f t="shared" si="11"/>
+        <v>2147483647</v>
       </c>
       <c r="O214" t="s">
         <v>68</v>
       </c>
       <c r="P214" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="X214" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B215">
         <f t="shared" si="10"/>
         <v>625</v>
       </c>
       <c r="C215" t="s">
-        <v>534</v>
+        <v>104</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -13285,7 +13327,7 @@
         <v>100</v>
       </c>
       <c r="G215" t="s">
-        <v>537</v>
+        <v>149</v>
       </c>
       <c r="H215">
         <v>32</v>
@@ -13294,7 +13336,7 @@
         <v>50</v>
       </c>
       <c r="J215" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -13303,30 +13345,30 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2147483647</v>
       </c>
       <c r="N215">
-        <f t="shared" si="15"/>
-        <v>4294967295</v>
+        <f t="shared" si="11"/>
+        <v>2147483647</v>
       </c>
       <c r="O215" t="s">
         <v>68</v>
       </c>
       <c r="P215" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="X215" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B216">
         <f t="shared" si="10"/>
         <v>626</v>
       </c>
       <c r="C216" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -13335,10 +13377,10 @@
         <v>43</v>
       </c>
       <c r="F216">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G216" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H216">
         <v>32</v>
@@ -13367,19 +13409,19 @@
         <v>68</v>
       </c>
       <c r="P216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X216" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B217">
         <f t="shared" si="10"/>
         <v>627</v>
       </c>
       <c r="C217" t="s">
-        <v>117</v>
+        <v>525</v>
       </c>
       <c r="D217">
         <v>4</v>
@@ -13391,7 +13433,7 @@
         <v>1000</v>
       </c>
       <c r="G217" t="s">
-        <v>152</v>
+        <v>528</v>
       </c>
       <c r="H217">
         <v>32</v>
@@ -13409,30 +13451,30 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M217:M222" si="14">IF(J217="Unsigned",0,-N217)</f>
         <v>-2147483647</v>
       </c>
       <c r="N217">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N217:N222" si="15">IF(J217="Unsigned",2^(MIN(H217,32))-1,2^(MIN(H217,32))/2-1)</f>
         <v>2147483647</v>
       </c>
       <c r="O217" t="s">
         <v>68</v>
       </c>
       <c r="P217" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X217" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B218">
         <f t="shared" si="10"/>
         <v>628</v>
       </c>
       <c r="C218" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D218">
         <v>4</v>
@@ -13441,10 +13483,10 @@
         <v>43</v>
       </c>
       <c r="F218">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G218" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H218">
         <v>32</v>
@@ -13453,7 +13495,7 @@
         <v>50</v>
       </c>
       <c r="J218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K218">
         <v>1</v>
@@ -13462,30 +13504,30 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-2147483647</v>
       </c>
       <c r="N218">
-        <f t="shared" si="11"/>
-        <v>4294967295</v>
+        <f t="shared" si="15"/>
+        <v>2147483647</v>
       </c>
       <c r="O218" t="s">
         <v>68</v>
       </c>
       <c r="P218" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="X218" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B219">
         <f t="shared" si="10"/>
         <v>629</v>
       </c>
       <c r="C219" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D219">
         <v>4</v>
@@ -13494,10 +13536,10 @@
         <v>43</v>
       </c>
       <c r="F219">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H219">
         <v>32</v>
@@ -13515,33 +13557,33 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-2147483647</v>
       </c>
       <c r="N219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2147483647</v>
       </c>
       <c r="O219" t="s">
         <v>68</v>
       </c>
       <c r="P219" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X219" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B220">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
       <c r="C220" t="s">
-        <v>115</v>
+        <v>532</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220" t="s">
         <v>43</v>
@@ -13550,10 +13592,10 @@
         <v>100</v>
       </c>
       <c r="G220" t="s">
-        <v>116</v>
+        <v>535</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I220" t="s">
         <v>50</v>
@@ -13568,51 +13610,42 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N220">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4294967295</v>
       </c>
       <c r="O220" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P220" t="s">
+        <v>61</v>
       </c>
       <c r="X220" t="s">
         <v>47</v>
       </c>
-      <c r="Y220" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA220" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB220" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="221" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B221">
         <f t="shared" si="10"/>
         <v>631</v>
       </c>
       <c r="C221" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E221" t="s">
         <v>43</v>
       </c>
       <c r="F221">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G221" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="H221">
         <v>32</v>
@@ -13630,45 +13663,45 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4294967295</v>
       </c>
       <c r="O221" t="s">
         <v>68</v>
       </c>
       <c r="P221" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="X221" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B222">
         <f t="shared" si="10"/>
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C222" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E222" t="s">
         <v>43</v>
       </c>
       <c r="F222">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G222" t="s">
-        <v>127</v>
+        <v>537</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I222" t="s">
         <v>50</v>
@@ -13683,28 +13716,33 @@
         <v>0</v>
       </c>
       <c r="M222">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N222">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>4294967295</v>
       </c>
       <c r="O222" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P222" t="s">
+        <v>61</v>
       </c>
       <c r="X222" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B223">
         <f t="shared" si="10"/>
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C223" t="s">
-        <v>519</v>
+        <v>118</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E223" t="s">
         <v>43</v>
@@ -13713,16 +13751,16 @@
         <v>1000</v>
       </c>
       <c r="G223" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I223" t="s">
         <v>50</v>
       </c>
       <c r="J223" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K223">
         <v>1</v>
@@ -13731,28 +13769,33 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2147483647</v>
       </c>
       <c r="N223">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>2147483647</v>
       </c>
       <c r="O223" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P223" t="s">
+        <v>27</v>
       </c>
       <c r="X223" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B224">
         <f t="shared" si="10"/>
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C224" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E224" t="s">
         <v>43</v>
@@ -13761,7 +13804,7 @@
         <v>1000</v>
       </c>
       <c r="G224" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
       <c r="H224">
         <v>32</v>
@@ -13770,7 +13813,7 @@
         <v>50</v>
       </c>
       <c r="J224" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K224">
         <v>1</v>
@@ -13780,41 +13823,41 @@
       </c>
       <c r="M224">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2147483647</v>
       </c>
       <c r="N224">
         <f t="shared" si="11"/>
-        <v>4294967295</v>
+        <v>2147483647</v>
       </c>
       <c r="O224" t="s">
         <v>68</v>
       </c>
       <c r="P224" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X224" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B225">
         <f t="shared" si="10"/>
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C225" t="s">
-        <v>129</v>
+        <v>521</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E225" t="s">
         <v>43</v>
       </c>
       <c r="F225">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G225" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="H225">
         <v>32</v>
@@ -13823,7 +13866,7 @@
         <v>50</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K225">
         <v>1</v>
@@ -13833,41 +13876,41 @@
       </c>
       <c r="M225">
         <f t="shared" si="9"/>
-        <v>-2147483647</v>
+        <v>0</v>
       </c>
       <c r="N225">
         <f t="shared" si="11"/>
-        <v>2147483647</v>
+        <v>4294967295</v>
       </c>
       <c r="O225" t="s">
         <v>68</v>
       </c>
       <c r="P225" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="X225" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="226" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B226">
         <f t="shared" si="10"/>
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C226" t="s">
-        <v>130</v>
+        <v>522</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E226" t="s">
         <v>43</v>
       </c>
       <c r="F226">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G226" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="H226">
         <v>32</v>
@@ -13876,7 +13919,7 @@
         <v>50</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K226">
         <v>1</v>
@@ -13886,50 +13929,50 @@
       </c>
       <c r="M226">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2147483647</v>
       </c>
       <c r="N226">
         <f t="shared" si="11"/>
-        <v>4294967295</v>
+        <v>2147483647</v>
       </c>
       <c r="O226" t="s">
         <v>68</v>
       </c>
       <c r="P226" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X226" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B227">
         <f t="shared" si="10"/>
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C227" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E227" t="s">
         <v>43</v>
       </c>
       <c r="F227">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G227" t="s">
-        <v>497</v>
+        <v>116</v>
       </c>
       <c r="H227">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I227" t="s">
         <v>50</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K227">
         <v>1</v>
@@ -13939,32 +13982,41 @@
       </c>
       <c r="M227">
         <f t="shared" si="9"/>
-        <v>-2147483647</v>
+        <v>0</v>
       </c>
       <c r="N227">
         <f t="shared" si="11"/>
-        <v>2147483647</v>
+        <v>3</v>
       </c>
       <c r="O227" t="s">
-        <v>68</v>
-      </c>
-      <c r="P227" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="X227" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="228" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y227" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="228" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B228">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C228" t="s">
-        <v>131</v>
+        <v>519</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E228" t="s">
         <v>43</v>
@@ -13973,10 +14025,10 @@
         <v>1000</v>
       </c>
       <c r="G228" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I228" t="s">
         <v>50</v>
@@ -13996,25 +14048,28 @@
       </c>
       <c r="N228">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4294967295</v>
       </c>
       <c r="O228" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P228" t="s">
+        <v>25</v>
       </c>
       <c r="X228" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B229">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C229" t="s">
-        <v>131</v>
+        <v>519</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E229" t="s">
         <v>43</v>
@@ -14023,7 +14078,7 @@
         <v>1000</v>
       </c>
       <c r="G229" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -14041,11 +14096,9 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N229">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O229" t="s">
@@ -14055,16 +14108,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B230">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C230" t="s">
-        <v>131</v>
+        <v>519</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E230" t="s">
         <v>43</v>
@@ -14073,7 +14126,7 @@
         <v>1000</v>
       </c>
       <c r="G230" t="s">
-        <v>467</v>
+        <v>128</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -14091,11 +14144,9 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N230">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O230" t="s">
@@ -14105,16 +14156,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B231">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C231" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E231" t="s">
         <v>43</v>
@@ -14123,10 +14174,10 @@
         <v>1000</v>
       </c>
       <c r="G231" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I231" t="s">
         <v>50</v>
@@ -14146,25 +14197,28 @@
       </c>
       <c r="N231">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4294967295</v>
       </c>
       <c r="O231" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P231" t="s">
+        <v>25</v>
       </c>
       <c r="X231" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B232">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C232" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D232">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E232" t="s">
         <v>43</v>
@@ -14173,16 +14227,16 @@
         <v>1000</v>
       </c>
       <c r="G232" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I232" t="s">
         <v>50</v>
       </c>
       <c r="J232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K232">
         <v>1</v>
@@ -14192,29 +14246,32 @@
       </c>
       <c r="M232">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2147483647</v>
       </c>
       <c r="N232">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2147483647</v>
       </c>
       <c r="O232" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P232" t="s">
+        <v>26</v>
       </c>
       <c r="X232" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B233">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C233" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E233" t="s">
         <v>43</v>
@@ -14223,10 +14280,10 @@
         <v>1000</v>
       </c>
       <c r="G233" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I233" t="s">
         <v>50</v>
@@ -14246,25 +14303,28 @@
       </c>
       <c r="N233">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4294967295</v>
       </c>
       <c r="O233" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P233" t="s">
+        <v>25</v>
       </c>
       <c r="X233" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B234">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C234" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E234" t="s">
         <v>43</v>
@@ -14273,16 +14333,16 @@
         <v>1000</v>
       </c>
       <c r="G234" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I234" t="s">
         <v>50</v>
       </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K234">
         <v>1</v>
@@ -14292,23 +14352,26 @@
       </c>
       <c r="M234">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2147483647</v>
       </c>
       <c r="N234">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2147483647</v>
       </c>
       <c r="O234" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="P234" t="s">
+        <v>26</v>
       </c>
       <c r="X234" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B235">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C235" t="s">
         <v>131</v>
@@ -14323,7 +14386,7 @@
         <v>1000</v>
       </c>
       <c r="G235" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -14355,10 +14418,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B236">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C236" t="s">
         <v>131</v>
@@ -14373,7 +14436,7 @@
         <v>1000</v>
       </c>
       <c r="G236" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -14405,10 +14468,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B237">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C237" t="s">
         <v>131</v>
@@ -14423,7 +14486,7 @@
         <v>1000</v>
       </c>
       <c r="G237" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -14455,10 +14518,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B238">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C238" t="s">
         <v>131</v>
@@ -14473,7 +14536,7 @@
         <v>1000</v>
       </c>
       <c r="G238" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -14505,10 +14568,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B239">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C239" t="s">
         <v>131</v>
@@ -14523,7 +14586,7 @@
         <v>1000</v>
       </c>
       <c r="G239" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -14555,10 +14618,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B240">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C240" t="s">
         <v>131</v>
@@ -14573,7 +14636,7 @@
         <v>1000</v>
       </c>
       <c r="G240" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -14608,7 +14671,7 @@
     <row r="241" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B241">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C241" t="s">
         <v>131</v>
@@ -14623,7 +14686,7 @@
         <v>1000</v>
       </c>
       <c r="G241" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -14658,7 +14721,7 @@
     <row r="242" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B242">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C242" t="s">
         <v>131</v>
@@ -14673,7 +14736,7 @@
         <v>1000</v>
       </c>
       <c r="G242" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -14708,7 +14771,7 @@
     <row r="243" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B243">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C243" t="s">
         <v>131</v>
@@ -14723,7 +14786,7 @@
         <v>1000</v>
       </c>
       <c r="G243" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -14758,7 +14821,7 @@
     <row r="244" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B244">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C244" t="s">
         <v>131</v>
@@ -14773,7 +14836,7 @@
         <v>1000</v>
       </c>
       <c r="G244" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -14808,7 +14871,7 @@
     <row r="245" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B245">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C245" t="s">
         <v>131</v>
@@ -14823,7 +14886,7 @@
         <v>1000</v>
       </c>
       <c r="G245" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -14858,7 +14921,7 @@
     <row r="246" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B246">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C246" t="s">
         <v>131</v>
@@ -14873,7 +14936,7 @@
         <v>1000</v>
       </c>
       <c r="G246" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -14908,7 +14971,7 @@
     <row r="247" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B247">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C247" t="s">
         <v>131</v>
@@ -14923,7 +14986,7 @@
         <v>1000</v>
       </c>
       <c r="G247" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -14958,7 +15021,7 @@
     <row r="248" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B248">
         <f t="shared" si="10"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C248" t="s">
         <v>131</v>
@@ -14973,7 +15036,7 @@
         <v>1000</v>
       </c>
       <c r="G248" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -15007,8 +15070,8 @@
     </row>
     <row r="249" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B249">
-        <f t="shared" ref="B249:B312" si="16">IF(C249&lt;&gt;C248,B248+1,B248)</f>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>641</v>
       </c>
       <c r="C249" t="s">
         <v>131</v>
@@ -15023,7 +15086,7 @@
         <v>1000</v>
       </c>
       <c r="G249" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -15057,8 +15120,8 @@
     </row>
     <row r="250" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B250">
-        <f t="shared" si="16"/>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>641</v>
       </c>
       <c r="C250" t="s">
         <v>131</v>
@@ -15073,7 +15136,7 @@
         <v>1000</v>
       </c>
       <c r="G250" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -15107,8 +15170,8 @@
     </row>
     <row r="251" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B251">
-        <f t="shared" si="16"/>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>641</v>
       </c>
       <c r="C251" t="s">
         <v>131</v>
@@ -15123,7 +15186,7 @@
         <v>1000</v>
       </c>
       <c r="G251" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -15141,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <f t="shared" ref="M251:M314" si="17">IF(J251="Unsigned",0,-N251)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N251">
@@ -15157,8 +15220,8 @@
     </row>
     <row r="252" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B252">
-        <f t="shared" si="16"/>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>641</v>
       </c>
       <c r="C252" t="s">
         <v>131</v>
@@ -15173,7 +15236,7 @@
         <v>1000</v>
       </c>
       <c r="G252" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -15191,7 +15254,7 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N252">
@@ -15207,8 +15270,8 @@
     </row>
     <row r="253" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B253">
-        <f t="shared" si="16"/>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>641</v>
       </c>
       <c r="C253" t="s">
         <v>131</v>
@@ -15223,7 +15286,7 @@
         <v>1000</v>
       </c>
       <c r="G253" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -15241,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N253">
@@ -15257,8 +15320,8 @@
     </row>
     <row r="254" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B254">
-        <f t="shared" si="16"/>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>641</v>
       </c>
       <c r="C254" t="s">
         <v>131</v>
@@ -15273,7 +15336,7 @@
         <v>1000</v>
       </c>
       <c r="G254" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -15291,7 +15354,7 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N254">
@@ -15307,8 +15370,8 @@
     </row>
     <row r="255" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B255">
-        <f t="shared" si="16"/>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>641</v>
       </c>
       <c r="C255" t="s">
         <v>131</v>
@@ -15323,7 +15386,7 @@
         <v>1000</v>
       </c>
       <c r="G255" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -15341,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N255">
@@ -15357,8 +15420,8 @@
     </row>
     <row r="256" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B256">
-        <f t="shared" si="16"/>
-        <v>634</v>
+        <f t="shared" ref="B256:B319" si="16">IF(C256&lt;&gt;C255,B255+1,B255)</f>
+        <v>641</v>
       </c>
       <c r="C256" t="s">
         <v>131</v>
@@ -15373,7 +15436,7 @@
         <v>1000</v>
       </c>
       <c r="G256" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -15391,11 +15454,11 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N256">
-        <f t="shared" ref="N256:N317" si="18">IF(J256="Unsigned",2^(MIN(H256,32))-1,2^(MIN(H256,32))/2-1)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O256" t="s">
@@ -15408,7 +15471,7 @@
     <row r="257" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B257">
         <f t="shared" si="16"/>
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C257" t="s">
         <v>131</v>
@@ -15423,7 +15486,7 @@
         <v>1000</v>
       </c>
       <c r="G257" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -15441,11 +15504,11 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N257">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O257" t="s">
@@ -15458,10 +15521,10 @@
     <row r="258" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B258">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C258" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D258">
         <v>4</v>
@@ -15473,7 +15536,7 @@
         <v>1000</v>
       </c>
       <c r="G258" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -15491,11 +15554,11 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="M258:M321" si="17">IF(J258="Unsigned",0,-N258)</f>
         <v>0</v>
       </c>
       <c r="N258">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O258" t="s">
@@ -15508,10 +15571,10 @@
     <row r="259" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B259">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C259" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D259">
         <v>4</v>
@@ -15523,7 +15586,7 @@
         <v>1000</v>
       </c>
       <c r="G259" t="s">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -15545,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="N259">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O259" t="s">
@@ -15558,10 +15621,10 @@
     <row r="260" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B260">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C260" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D260">
         <v>4</v>
@@ -15573,7 +15636,7 @@
         <v>1000</v>
       </c>
       <c r="G260" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="H260">
         <v>1</v>
@@ -15595,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="N260">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O260" t="s">
@@ -15608,10 +15671,10 @@
     <row r="261" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B261">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C261" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D261">
         <v>4</v>
@@ -15623,7 +15686,7 @@
         <v>1000</v>
       </c>
       <c r="G261" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -15645,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="N261">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O261" t="s">
@@ -15658,10 +15721,10 @@
     <row r="262" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B262">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C262" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D262">
         <v>4</v>
@@ -15673,7 +15736,7 @@
         <v>1000</v>
       </c>
       <c r="G262" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -15695,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="N262">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O262" t="s">
@@ -15708,10 +15771,10 @@
     <row r="263" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B263">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C263" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D263">
         <v>4</v>
@@ -15723,7 +15786,7 @@
         <v>1000</v>
       </c>
       <c r="G263" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -15745,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="N263">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="N263:N324" si="18">IF(J263="Unsigned",2^(MIN(H263,32))-1,2^(MIN(H263,32))/2-1)</f>
         <v>1</v>
       </c>
       <c r="O263" t="s">
@@ -15758,10 +15821,10 @@
     <row r="264" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B264">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C264" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D264">
         <v>4</v>
@@ -15773,7 +15836,7 @@
         <v>1000</v>
       </c>
       <c r="G264" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -15808,7 +15871,7 @@
     <row r="265" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B265">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C265" t="s">
         <v>132</v>
@@ -15823,7 +15886,7 @@
         <v>1000</v>
       </c>
       <c r="G265" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -15858,7 +15921,7 @@
     <row r="266" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B266">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C266" t="s">
         <v>132</v>
@@ -15873,7 +15936,7 @@
         <v>1000</v>
       </c>
       <c r="G266" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -15908,7 +15971,7 @@
     <row r="267" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B267">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C267" t="s">
         <v>132</v>
@@ -15923,7 +15986,7 @@
         <v>1000</v>
       </c>
       <c r="G267" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -15958,7 +16021,7 @@
     <row r="268" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B268">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C268" t="s">
         <v>132</v>
@@ -15973,7 +16036,7 @@
         <v>1000</v>
       </c>
       <c r="G268" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -16008,7 +16071,7 @@
     <row r="269" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B269">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C269" t="s">
         <v>132</v>
@@ -16023,7 +16086,7 @@
         <v>1000</v>
       </c>
       <c r="G269" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -16058,7 +16121,7 @@
     <row r="270" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B270">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C270" t="s">
         <v>132</v>
@@ -16073,7 +16136,7 @@
         <v>1000</v>
       </c>
       <c r="G270" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -16108,7 +16171,7 @@
     <row r="271" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B271">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C271" t="s">
         <v>132</v>
@@ -16123,7 +16186,7 @@
         <v>1000</v>
       </c>
       <c r="G271" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -16158,7 +16221,7 @@
     <row r="272" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B272">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C272" t="s">
         <v>132</v>
@@ -16173,7 +16236,7 @@
         <v>1000</v>
       </c>
       <c r="G272" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -16208,7 +16271,7 @@
     <row r="273" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B273">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C273" t="s">
         <v>132</v>
@@ -16223,7 +16286,7 @@
         <v>1000</v>
       </c>
       <c r="G273" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -16258,7 +16321,7 @@
     <row r="274" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B274">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C274" t="s">
         <v>132</v>
@@ -16273,7 +16336,7 @@
         <v>1000</v>
       </c>
       <c r="G274" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -16308,7 +16371,7 @@
     <row r="275" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B275">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C275" t="s">
         <v>132</v>
@@ -16323,7 +16386,7 @@
         <v>1000</v>
       </c>
       <c r="G275" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -16358,7 +16421,7 @@
     <row r="276" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B276">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C276" t="s">
         <v>132</v>
@@ -16373,7 +16436,7 @@
         <v>1000</v>
       </c>
       <c r="G276" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -16408,7 +16471,7 @@
     <row r="277" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B277">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C277" t="s">
         <v>132</v>
@@ -16423,7 +16486,7 @@
         <v>1000</v>
       </c>
       <c r="G277" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -16458,7 +16521,7 @@
     <row r="278" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B278">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C278" t="s">
         <v>132</v>
@@ -16473,7 +16536,7 @@
         <v>1000</v>
       </c>
       <c r="G278" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -16508,7 +16571,7 @@
     <row r="279" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B279">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C279" t="s">
         <v>132</v>
@@ -16523,7 +16586,7 @@
         <v>1000</v>
       </c>
       <c r="G279" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -16558,7 +16621,7 @@
     <row r="280" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B280">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C280" t="s">
         <v>132</v>
@@ -16573,7 +16636,7 @@
         <v>1000</v>
       </c>
       <c r="G280" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -16608,7 +16671,7 @@
     <row r="281" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B281">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C281" t="s">
         <v>132</v>
@@ -16623,7 +16686,7 @@
         <v>1000</v>
       </c>
       <c r="G281" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -16658,7 +16721,7 @@
     <row r="282" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B282">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C282" t="s">
         <v>132</v>
@@ -16673,7 +16736,7 @@
         <v>1000</v>
       </c>
       <c r="G282" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -16708,7 +16771,7 @@
     <row r="283" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B283">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C283" t="s">
         <v>132</v>
@@ -16723,7 +16786,7 @@
         <v>1000</v>
       </c>
       <c r="G283" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -16758,7 +16821,7 @@
     <row r="284" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B284">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C284" t="s">
         <v>132</v>
@@ -16773,7 +16836,7 @@
         <v>1000</v>
       </c>
       <c r="G284" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -16808,7 +16871,7 @@
     <row r="285" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B285">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C285" t="s">
         <v>132</v>
@@ -16823,7 +16886,7 @@
         <v>1000</v>
       </c>
       <c r="G285" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -16858,7 +16921,7 @@
     <row r="286" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B286">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C286" t="s">
         <v>132</v>
@@ -16873,7 +16936,7 @@
         <v>1000</v>
       </c>
       <c r="G286" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -16908,7 +16971,7 @@
     <row r="287" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B287">
         <f t="shared" si="16"/>
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C287" t="s">
         <v>132</v>
@@ -16923,7 +16986,7 @@
         <v>1000</v>
       </c>
       <c r="G287" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -16958,10 +17021,10 @@
     <row r="288" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B288">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C288" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D288">
         <v>4</v>
@@ -16973,7 +17036,7 @@
         <v>1000</v>
       </c>
       <c r="G288" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -17008,10 +17071,10 @@
     <row r="289" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B289">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C289" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D289">
         <v>4</v>
@@ -17023,7 +17086,7 @@
         <v>1000</v>
       </c>
       <c r="G289" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -17058,10 +17121,10 @@
     <row r="290" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B290">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C290" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D290">
         <v>4</v>
@@ -17073,7 +17136,7 @@
         <v>1000</v>
       </c>
       <c r="G290" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -17108,10 +17171,10 @@
     <row r="291" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B291">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C291" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D291">
         <v>4</v>
@@ -17123,7 +17186,7 @@
         <v>1000</v>
       </c>
       <c r="G291" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -17158,10 +17221,10 @@
     <row r="292" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B292">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C292" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D292">
         <v>4</v>
@@ -17173,7 +17236,7 @@
         <v>1000</v>
       </c>
       <c r="G292" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -17208,10 +17271,10 @@
     <row r="293" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B293">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C293" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D293">
         <v>4</v>
@@ -17223,7 +17286,7 @@
         <v>1000</v>
       </c>
       <c r="G293" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -17258,10 +17321,10 @@
     <row r="294" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B294">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C294" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D294">
         <v>4</v>
@@ -17273,7 +17336,7 @@
         <v>1000</v>
       </c>
       <c r="G294" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -17308,7 +17371,7 @@
     <row r="295" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B295">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C295" t="s">
         <v>133</v>
@@ -17323,7 +17386,7 @@
         <v>1000</v>
       </c>
       <c r="G295" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -17358,7 +17421,7 @@
     <row r="296" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B296">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C296" t="s">
         <v>133</v>
@@ -17373,7 +17436,7 @@
         <v>1000</v>
       </c>
       <c r="G296" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -17408,7 +17471,7 @@
     <row r="297" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B297">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C297" t="s">
         <v>133</v>
@@ -17423,7 +17486,7 @@
         <v>1000</v>
       </c>
       <c r="G297" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -17458,7 +17521,7 @@
     <row r="298" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B298">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C298" t="s">
         <v>133</v>
@@ -17473,7 +17536,7 @@
         <v>1000</v>
       </c>
       <c r="G298" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -17508,7 +17571,7 @@
     <row r="299" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B299">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C299" t="s">
         <v>133</v>
@@ -17523,7 +17586,7 @@
         <v>1000</v>
       </c>
       <c r="G299" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -17558,7 +17621,7 @@
     <row r="300" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B300">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C300" t="s">
         <v>133</v>
@@ -17573,7 +17636,7 @@
         <v>1000</v>
       </c>
       <c r="G300" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -17608,7 +17671,7 @@
     <row r="301" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B301">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C301" t="s">
         <v>133</v>
@@ -17623,7 +17686,7 @@
         <v>1000</v>
       </c>
       <c r="G301" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -17658,7 +17721,7 @@
     <row r="302" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B302">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C302" t="s">
         <v>133</v>
@@ -17673,7 +17736,7 @@
         <v>1000</v>
       </c>
       <c r="G302" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -17708,7 +17771,7 @@
     <row r="303" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B303">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C303" t="s">
         <v>133</v>
@@ -17723,7 +17786,7 @@
         <v>1000</v>
       </c>
       <c r="G303" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -17758,7 +17821,7 @@
     <row r="304" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B304">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C304" t="s">
         <v>133</v>
@@ -17773,7 +17836,7 @@
         <v>1000</v>
       </c>
       <c r="G304" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -17808,7 +17871,7 @@
     <row r="305" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B305">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C305" t="s">
         <v>133</v>
@@ -17823,7 +17886,7 @@
         <v>1000</v>
       </c>
       <c r="G305" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -17858,7 +17921,7 @@
     <row r="306" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B306">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C306" t="s">
         <v>133</v>
@@ -17873,7 +17936,7 @@
         <v>1000</v>
       </c>
       <c r="G306" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -17908,7 +17971,7 @@
     <row r="307" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B307">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C307" t="s">
         <v>133</v>
@@ -17923,7 +17986,7 @@
         <v>1000</v>
       </c>
       <c r="G307" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -17958,7 +18021,7 @@
     <row r="308" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B308">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C308" t="s">
         <v>133</v>
@@ -17973,7 +18036,7 @@
         <v>1000</v>
       </c>
       <c r="G308" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -18008,7 +18071,7 @@
     <row r="309" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B309">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C309" t="s">
         <v>133</v>
@@ -18023,7 +18086,7 @@
         <v>1000</v>
       </c>
       <c r="G309" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -18058,7 +18121,7 @@
     <row r="310" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B310">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C310" t="s">
         <v>133</v>
@@ -18073,7 +18136,7 @@
         <v>1000</v>
       </c>
       <c r="G310" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -18108,7 +18171,7 @@
     <row r="311" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B311">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C311" t="s">
         <v>133</v>
@@ -18123,7 +18186,7 @@
         <v>1000</v>
       </c>
       <c r="G311" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -18158,7 +18221,7 @@
     <row r="312" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B312">
         <f t="shared" si="16"/>
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C312" t="s">
         <v>133</v>
@@ -18173,7 +18236,7 @@
         <v>1000</v>
       </c>
       <c r="G312" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -18207,8 +18270,8 @@
     </row>
     <row r="313" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B313">
-        <f t="shared" ref="B313:B343" si="19">IF(C313&lt;&gt;C312,B312+1,B312)</f>
-        <v>636</v>
+        <f t="shared" si="16"/>
+        <v>643</v>
       </c>
       <c r="C313" t="s">
         <v>133</v>
@@ -18223,7 +18286,7 @@
         <v>1000</v>
       </c>
       <c r="G313" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -18257,8 +18320,8 @@
     </row>
     <row r="314" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B314">
-        <f t="shared" si="19"/>
-        <v>636</v>
+        <f t="shared" si="16"/>
+        <v>643</v>
       </c>
       <c r="C314" t="s">
         <v>133</v>
@@ -18273,7 +18336,7 @@
         <v>1000</v>
       </c>
       <c r="G314" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -18307,8 +18370,8 @@
     </row>
     <row r="315" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B315">
-        <f t="shared" si="19"/>
-        <v>636</v>
+        <f t="shared" si="16"/>
+        <v>643</v>
       </c>
       <c r="C315" t="s">
         <v>133</v>
@@ -18323,7 +18386,7 @@
         <v>1000</v>
       </c>
       <c r="G315" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -18341,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <f t="shared" ref="M315:M393" si="20">IF(J315="Unsigned",0,-N315)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N315">
@@ -18357,8 +18420,8 @@
     </row>
     <row r="316" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B316">
-        <f t="shared" si="19"/>
-        <v>636</v>
+        <f t="shared" si="16"/>
+        <v>643</v>
       </c>
       <c r="C316" t="s">
         <v>133</v>
@@ -18373,7 +18436,7 @@
         <v>1000</v>
       </c>
       <c r="G316" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -18391,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N316">
@@ -18407,8 +18470,8 @@
     </row>
     <row r="317" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B317">
-        <f t="shared" si="19"/>
-        <v>636</v>
+        <f t="shared" si="16"/>
+        <v>643</v>
       </c>
       <c r="C317" t="s">
         <v>133</v>
@@ -18423,7 +18486,7 @@
         <v>1000</v>
       </c>
       <c r="G317" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -18441,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N317">
@@ -18457,11 +18520,11 @@
     </row>
     <row r="318" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B318">
-        <f t="shared" si="19"/>
-        <v>637</v>
+        <f t="shared" si="16"/>
+        <v>643</v>
       </c>
       <c r="C318" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D318">
         <v>4</v>
@@ -18472,8 +18535,8 @@
       <c r="F318">
         <v>1000</v>
       </c>
-      <c r="G318" s="5" t="s">
-        <v>106</v>
+      <c r="G318" t="s">
+        <v>458</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -18491,11 +18554,11 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <f t="shared" ref="M318:M328" si="21">IF(J318="Unsigned",0,-N318)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N318">
-        <f t="shared" ref="N318:N328" si="22">IF(J318="Unsigned",2^(MIN(H318,32))-1,2^(MIN(H318,32))/2-1)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O318" t="s">
@@ -18507,11 +18570,11 @@
     </row>
     <row r="319" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B319">
-        <f t="shared" si="19"/>
-        <v>637</v>
+        <f t="shared" si="16"/>
+        <v>643</v>
       </c>
       <c r="C319" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D319">
         <v>4</v>
@@ -18522,8 +18585,8 @@
       <c r="F319">
         <v>1000</v>
       </c>
-      <c r="G319" s="5" t="s">
-        <v>111</v>
+      <c r="G319" t="s">
+        <v>459</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -18541,11 +18604,11 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N319">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O319" t="s">
@@ -18557,11 +18620,11 @@
     </row>
     <row r="320" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B320">
-        <f t="shared" si="19"/>
-        <v>637</v>
+        <f t="shared" ref="B320:B350" si="19">IF(C320&lt;&gt;C319,B319+1,B319)</f>
+        <v>643</v>
       </c>
       <c r="C320" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D320">
         <v>4</v>
@@ -18572,8 +18635,8 @@
       <c r="F320">
         <v>1000</v>
       </c>
-      <c r="G320" s="5" t="s">
-        <v>107</v>
+      <c r="G320" t="s">
+        <v>460</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -18591,11 +18654,11 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N320">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O320" t="s">
@@ -18608,10 +18671,10 @@
     <row r="321" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B321">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C321" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D321">
         <v>4</v>
@@ -18622,8 +18685,8 @@
       <c r="F321">
         <v>1000</v>
       </c>
-      <c r="G321" s="5" t="s">
-        <v>110</v>
+      <c r="G321" t="s">
+        <v>461</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -18641,11 +18704,11 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N321">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O321" t="s">
@@ -18658,10 +18721,10 @@
     <row r="322" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B322">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C322" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D322">
         <v>4</v>
@@ -18672,8 +18735,8 @@
       <c r="F322">
         <v>1000</v>
       </c>
-      <c r="G322" s="5" t="s">
-        <v>108</v>
+      <c r="G322" t="s">
+        <v>462</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -18691,11 +18754,11 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M322:M400" si="20">IF(J322="Unsigned",0,-N322)</f>
         <v>0</v>
       </c>
       <c r="N322">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O322" t="s">
@@ -18708,10 +18771,10 @@
     <row r="323" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B323">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C323" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D323">
         <v>4</v>
@@ -18722,8 +18785,8 @@
       <c r="F323">
         <v>1000</v>
       </c>
-      <c r="G323" s="5" t="s">
-        <v>109</v>
+      <c r="G323" t="s">
+        <v>463</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -18741,11 +18804,11 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N323">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O323" t="s">
@@ -18758,10 +18821,10 @@
     <row r="324" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B324">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C324" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D324">
         <v>4</v>
@@ -18772,8 +18835,8 @@
       <c r="F324">
         <v>1000</v>
       </c>
-      <c r="G324" s="5" t="s">
-        <v>112</v>
+      <c r="G324" t="s">
+        <v>464</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -18791,11 +18854,11 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N324">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O324" t="s">
@@ -18808,7 +18871,7 @@
     <row r="325" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B325">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C325" t="s">
         <v>95</v>
@@ -18823,7 +18886,7 @@
         <v>1000</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -18841,11 +18904,11 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M325:M335" si="21">IF(J325="Unsigned",0,-N325)</f>
         <v>0</v>
       </c>
       <c r="N325">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N325:N335" si="22">IF(J325="Unsigned",2^(MIN(H325,32))-1,2^(MIN(H325,32))/2-1)</f>
         <v>1</v>
       </c>
       <c r="O325" t="s">
@@ -18858,7 +18921,7 @@
     <row r="326" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B326">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C326" t="s">
         <v>95</v>
@@ -18873,7 +18936,7 @@
         <v>1000</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H326">
         <v>1</v>
@@ -18908,7 +18971,7 @@
     <row r="327" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B327">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C327" t="s">
         <v>95</v>
@@ -18923,7 +18986,7 @@
         <v>1000</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -18958,7 +19021,7 @@
     <row r="328" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B328">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C328" t="s">
         <v>95</v>
@@ -18973,7 +19036,7 @@
         <v>1000</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H328">
         <v>1</v>
@@ -19008,7 +19071,7 @@
     <row r="329" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B329">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C329" t="s">
         <v>95</v>
@@ -19023,7 +19086,7 @@
         <v>1000</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>499</v>
+        <v>108</v>
       </c>
       <c r="H329">
         <v>1</v>
@@ -19041,11 +19104,11 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <f t="shared" ref="M329:M335" si="23">IF(J329="Unsigned",0,-N329)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N329">
-        <f t="shared" ref="N329:N335" si="24">IF(J329="Unsigned",2^(MIN(H329,32))-1,2^(MIN(H329,32))/2-1)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O329" t="s">
@@ -19058,7 +19121,7 @@
     <row r="330" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B330">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C330" t="s">
         <v>95</v>
@@ -19072,8 +19135,8 @@
       <c r="F330">
         <v>1000</v>
       </c>
-      <c r="G330" s="4" t="s">
-        <v>500</v>
+      <c r="G330" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -19091,11 +19154,11 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N330">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O330" t="s">
@@ -19108,7 +19171,7 @@
     <row r="331" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B331">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C331" t="s">
         <v>95</v>
@@ -19122,8 +19185,8 @@
       <c r="F331">
         <v>1000</v>
       </c>
-      <c r="G331" s="4" t="s">
-        <v>498</v>
+      <c r="G331" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -19141,11 +19204,11 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N331">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O331" t="s">
@@ -19158,7 +19221,7 @@
     <row r="332" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B332">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C332" t="s">
         <v>95</v>
@@ -19172,8 +19235,8 @@
       <c r="F332">
         <v>1000</v>
       </c>
-      <c r="G332" s="4" t="s">
-        <v>508</v>
+      <c r="G332" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="H332">
         <v>1</v>
@@ -19191,11 +19254,11 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N332">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O332" t="s">
@@ -19208,7 +19271,7 @@
     <row r="333" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B333">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C333" t="s">
         <v>95</v>
@@ -19223,7 +19286,7 @@
         <v>1000</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>501</v>
+        <v>114</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -19241,11 +19304,11 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N333">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O333" t="s">
@@ -19258,7 +19321,7 @@
     <row r="334" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B334">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C334" t="s">
         <v>95</v>
@@ -19272,8 +19335,8 @@
       <c r="F334">
         <v>1000</v>
       </c>
-      <c r="G334" t="s">
-        <v>502</v>
+      <c r="G334" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -19291,11 +19354,11 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N334">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O334" t="s">
@@ -19308,7 +19371,7 @@
     <row r="335" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B335">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C335" t="s">
         <v>95</v>
@@ -19322,8 +19385,8 @@
       <c r="F335">
         <v>1000</v>
       </c>
-      <c r="G335" s="4" t="s">
-        <v>507</v>
+      <c r="G335" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="H335">
         <v>1</v>
@@ -19341,11 +19404,11 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N335">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O335" t="s">
@@ -19358,7 +19421,7 @@
     <row r="336" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B336">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C336" t="s">
         <v>95</v>
@@ -19372,8 +19435,8 @@
       <c r="F336">
         <v>1000</v>
       </c>
-      <c r="G336" t="s">
-        <v>509</v>
+      <c r="G336" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -19391,11 +19454,11 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <f>IF(J336="Unsigned",0,-N336)</f>
+        <f t="shared" ref="M336:M342" si="23">IF(J336="Unsigned",0,-N336)</f>
         <v>0</v>
       </c>
       <c r="N336">
-        <f>IF(J336="Unsigned",2^(MIN(H336,32))-1,2^(MIN(H336,32))/2-1)</f>
+        <f t="shared" ref="N336:N342" si="24">IF(J336="Unsigned",2^(MIN(H336,32))-1,2^(MIN(H336,32))/2-1)</f>
         <v>1</v>
       </c>
       <c r="O336" t="s">
@@ -19408,7 +19471,7 @@
     <row r="337" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B337">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C337" t="s">
         <v>95</v>
@@ -19422,8 +19485,8 @@
       <c r="F337">
         <v>1000</v>
       </c>
-      <c r="G337" t="s">
-        <v>531</v>
+      <c r="G337" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -19441,11 +19504,11 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <f>IF(J337="Unsigned",0,-N337)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N337">
-        <f>IF(J337="Unsigned",2^(MIN(H337,32))-1,2^(MIN(H337,32))/2-1)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O337" t="s">
@@ -19458,7 +19521,7 @@
     <row r="338" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B338">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C338" t="s">
         <v>95</v>
@@ -19472,8 +19535,8 @@
       <c r="F338">
         <v>1000</v>
       </c>
-      <c r="G338" t="s">
-        <v>510</v>
+      <c r="G338" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -19491,11 +19554,11 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <f>IF(J338="Unsigned",0,-N338)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N338">
-        <f>IF(J338="Unsigned",2^(MIN(H338,32))-1,2^(MIN(H338,32))/2-1)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O338" t="s">
@@ -19508,7 +19571,7 @@
     <row r="339" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B339">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C339" t="s">
         <v>95</v>
@@ -19522,8 +19585,8 @@
       <c r="F339">
         <v>1000</v>
       </c>
-      <c r="G339" t="s">
-        <v>511</v>
+      <c r="G339" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -19541,11 +19604,11 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <f>IF(J339="Unsigned",0,-N339)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N339">
-        <f>IF(J339="Unsigned",2^(MIN(H339,32))-1,2^(MIN(H339,32))/2-1)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O339" t="s">
@@ -19558,7 +19621,7 @@
     <row r="340" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B340">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C340" t="s">
         <v>95</v>
@@ -19572,8 +19635,8 @@
       <c r="F340">
         <v>1000</v>
       </c>
-      <c r="G340" t="s">
-        <v>512</v>
+      <c r="G340" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="H340">
         <v>1</v>
@@ -19591,11 +19654,11 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <f t="shared" ref="M340" si="25">IF(J340="Unsigned",0,-N340)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N340">
-        <f t="shared" ref="N340" si="26">IF(J340="Unsigned",2^(MIN(H340,32))-1,2^(MIN(H340,32))/2-1)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O340" t="s">
@@ -19608,7 +19671,7 @@
     <row r="341" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B341">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C341" t="s">
         <v>95</v>
@@ -19623,7 +19686,7 @@
         <v>1000</v>
       </c>
       <c r="G341" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="H341">
         <v>1</v>
@@ -19641,11 +19704,11 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <f t="shared" ref="M341:M349" si="27">IF(J341="Unsigned",0,-N341)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N341">
-        <f t="shared" ref="N341:N349" si="28">IF(J341="Unsigned",2^(MIN(H341,32))-1,2^(MIN(H341,32))/2-1)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O341" t="s">
@@ -19653,18 +19716,12 @@
       </c>
       <c r="X341" t="s">
         <v>47</v>
-      </c>
-      <c r="Y341" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z341" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="342" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B342">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C342" t="s">
         <v>95</v>
@@ -19678,8 +19735,8 @@
       <c r="F342">
         <v>1000</v>
       </c>
-      <c r="G342" t="s">
-        <v>514</v>
+      <c r="G342" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="H342">
         <v>1</v>
@@ -19697,11 +19754,11 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N342">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O342" t="s">
@@ -19709,18 +19766,12 @@
       </c>
       <c r="X342" t="s">
         <v>47</v>
-      </c>
-      <c r="Y342" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="343" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B343">
         <f t="shared" si="19"/>
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C343" t="s">
         <v>95</v>
@@ -19735,7 +19786,7 @@
         <v>1000</v>
       </c>
       <c r="G343" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H343">
         <v>1</v>
@@ -19753,11 +19804,11 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <f t="shared" si="27"/>
+        <f>IF(J343="Unsigned",0,-N343)</f>
         <v>0</v>
       </c>
       <c r="N343">
-        <f t="shared" si="28"/>
+        <f>IF(J343="Unsigned",2^(MIN(H343,32))-1,2^(MIN(H343,32))/2-1)</f>
         <v>1</v>
       </c>
       <c r="O343" t="s">
@@ -19766,587 +19817,753 @@
       <c r="X343" t="s">
         <v>47</v>
       </c>
-      <c r="Y343" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z343" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="344" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B344">
-        <v>700</v>
+        <f t="shared" si="19"/>
+        <v>644</v>
       </c>
       <c r="C344" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="D344">
         <v>4</v>
       </c>
       <c r="E344" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F344">
+        <v>1000</v>
+      </c>
+      <c r="G344" t="s">
+        <v>531</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344" t="s">
+        <v>50</v>
+      </c>
+      <c r="J344" t="s">
+        <v>52</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <f>IF(J344="Unsigned",0,-N344)</f>
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <f>IF(J344="Unsigned",2^(MIN(H344,32))-1,2^(MIN(H344,32))/2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>69</v>
+      </c>
+      <c r="X344" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="345" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <f t="shared" si="19"/>
+        <v>644</v>
+      </c>
+      <c r="C345" t="s">
+        <v>95</v>
+      </c>
+      <c r="D345">
+        <v>4</v>
+      </c>
+      <c r="E345" t="s">
+        <v>43</v>
+      </c>
+      <c r="F345">
+        <v>1000</v>
+      </c>
+      <c r="G345" t="s">
+        <v>510</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345" t="s">
+        <v>50</v>
+      </c>
+      <c r="J345" t="s">
+        <v>52</v>
+      </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <f>IF(J345="Unsigned",0,-N345)</f>
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <f>IF(J345="Unsigned",2^(MIN(H345,32))-1,2^(MIN(H345,32))/2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O345" t="s">
+        <v>69</v>
+      </c>
+      <c r="X345" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="346" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <f t="shared" si="19"/>
+        <v>644</v>
+      </c>
+      <c r="C346" t="s">
+        <v>95</v>
+      </c>
+      <c r="D346">
+        <v>4</v>
+      </c>
+      <c r="E346" t="s">
+        <v>43</v>
+      </c>
+      <c r="F346">
+        <v>1000</v>
+      </c>
+      <c r="G346" t="s">
+        <v>511</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346" t="s">
+        <v>50</v>
+      </c>
+      <c r="J346" t="s">
+        <v>52</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <f>IF(J346="Unsigned",0,-N346)</f>
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <f>IF(J346="Unsigned",2^(MIN(H346,32))-1,2^(MIN(H346,32))/2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
+        <v>69</v>
+      </c>
+      <c r="X346" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="347" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <f t="shared" si="19"/>
+        <v>644</v>
+      </c>
+      <c r="C347" t="s">
+        <v>95</v>
+      </c>
+      <c r="D347">
+        <v>4</v>
+      </c>
+      <c r="E347" t="s">
+        <v>43</v>
+      </c>
+      <c r="F347">
+        <v>1000</v>
+      </c>
+      <c r="G347" t="s">
+        <v>512</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+      <c r="I347" t="s">
+        <v>50</v>
+      </c>
+      <c r="J347" t="s">
+        <v>52</v>
+      </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <f t="shared" ref="M347" si="25">IF(J347="Unsigned",0,-N347)</f>
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <f t="shared" ref="N347" si="26">IF(J347="Unsigned",2^(MIN(H347,32))-1,2^(MIN(H347,32))/2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>69</v>
+      </c>
+      <c r="X347" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="348" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <f t="shared" si="19"/>
+        <v>644</v>
+      </c>
+      <c r="C348" t="s">
+        <v>95</v>
+      </c>
+      <c r="D348">
+        <v>4</v>
+      </c>
+      <c r="E348" t="s">
+        <v>43</v>
+      </c>
+      <c r="F348">
+        <v>1000</v>
+      </c>
+      <c r="G348" t="s">
+        <v>513</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
+        <v>50</v>
+      </c>
+      <c r="J348" t="s">
+        <v>52</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <f t="shared" ref="M348:M356" si="27">IF(J348="Unsigned",0,-N348)</f>
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <f t="shared" ref="N348:N356" si="28">IF(J348="Unsigned",2^(MIN(H348,32))-1,2^(MIN(H348,32))/2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O348" t="s">
+        <v>69</v>
+      </c>
+      <c r="X348" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="349" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <f t="shared" si="19"/>
+        <v>644</v>
+      </c>
+      <c r="C349" t="s">
+        <v>95</v>
+      </c>
+      <c r="D349">
+        <v>4</v>
+      </c>
+      <c r="E349" t="s">
+        <v>43</v>
+      </c>
+      <c r="F349">
+        <v>1000</v>
+      </c>
+      <c r="G349" t="s">
+        <v>514</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349" t="s">
+        <v>50</v>
+      </c>
+      <c r="J349" t="s">
+        <v>52</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O349" t="s">
+        <v>69</v>
+      </c>
+      <c r="X349" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="350" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <f t="shared" si="19"/>
+        <v>644</v>
+      </c>
+      <c r="C350" t="s">
+        <v>95</v>
+      </c>
+      <c r="D350">
+        <v>4</v>
+      </c>
+      <c r="E350" t="s">
+        <v>43</v>
+      </c>
+      <c r="F350">
+        <v>1000</v>
+      </c>
+      <c r="G350" t="s">
+        <v>515</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350" t="s">
+        <v>50</v>
+      </c>
+      <c r="J350" t="s">
+        <v>52</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
+        <v>69</v>
+      </c>
+      <c r="X350" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="351" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>700</v>
+      </c>
+      <c r="C351" t="s">
+        <v>136</v>
+      </c>
+      <c r="D351">
+        <v>4</v>
+      </c>
+      <c r="E351" t="s">
+        <v>47</v>
+      </c>
+      <c r="F351">
         <v>100</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G351" t="s">
         <v>156</v>
       </c>
-      <c r="H344">
+      <c r="H351">
         <v>32</v>
       </c>
-      <c r="I344" t="s">
-        <v>50</v>
-      </c>
-      <c r="J344" t="s">
+      <c r="I351" t="s">
+        <v>50</v>
+      </c>
+      <c r="J351" t="s">
         <v>53</v>
       </c>
-      <c r="K344">
-        <v>1</v>
-      </c>
-      <c r="L344">
-        <v>0</v>
-      </c>
-      <c r="M344">
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
         <f t="shared" si="27"/>
         <v>-2147483647</v>
       </c>
-      <c r="N344">
+      <c r="N351">
         <f t="shared" si="28"/>
         <v>2147483647</v>
       </c>
-      <c r="O344" t="s">
-        <v>68</v>
-      </c>
-      <c r="P344" t="s">
+      <c r="O351" t="s">
+        <v>68</v>
+      </c>
+      <c r="P351" t="s">
         <v>30</v>
       </c>
-      <c r="U344" t="s">
+      <c r="U351" t="s">
         <v>43</v>
       </c>
-      <c r="X344" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="345" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B345">
-        <f t="shared" ref="B345:B349" si="29">IF(C345&lt;&gt;C344,B344+1,B344)</f>
+      <c r="X351" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="352" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <f t="shared" ref="B352:B356" si="29">IF(C352&lt;&gt;C351,B351+1,B351)</f>
         <v>701</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C352" t="s">
         <v>137</v>
       </c>
-      <c r="D345">
-        <v>1</v>
-      </c>
-      <c r="E345" t="s">
-        <v>47</v>
-      </c>
-      <c r="F345">
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352" t="s">
+        <v>47</v>
+      </c>
+      <c r="F352">
         <v>100</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G352" t="s">
         <v>157</v>
       </c>
-      <c r="H345">
+      <c r="H352">
         <v>2</v>
       </c>
-      <c r="I345" t="s">
-        <v>50</v>
-      </c>
-      <c r="J345" t="s">
-        <v>52</v>
-      </c>
-      <c r="K345">
-        <v>1</v>
-      </c>
-      <c r="L345">
-        <v>0</v>
-      </c>
-      <c r="M345">
+      <c r="I352" t="s">
+        <v>50</v>
+      </c>
+      <c r="J352" t="s">
+        <v>52</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N345">
+      <c r="N352">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="O345" t="s">
+      <c r="O352" t="s">
         <v>69</v>
       </c>
-      <c r="U345" t="s">
+      <c r="U352" t="s">
         <v>43</v>
       </c>
-      <c r="X345" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y345" t="s">
+      <c r="X352" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y352" t="s">
         <v>520</v>
       </c>
-      <c r="Z345" t="s">
+      <c r="Z352" t="s">
         <v>120</v>
       </c>
-      <c r="AA345" t="s">
+      <c r="AA352" t="s">
         <v>119</v>
       </c>
-      <c r="AB345" t="s">
+      <c r="AB352" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B346">
+    <row r="353" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B353">
         <f t="shared" si="29"/>
         <v>702</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C353" t="s">
         <v>138</v>
       </c>
-      <c r="D346">
+      <c r="D353">
         <v>4</v>
       </c>
-      <c r="E346" t="s">
-        <v>47</v>
-      </c>
-      <c r="F346">
+      <c r="E353" t="s">
+        <v>47</v>
+      </c>
+      <c r="F353">
         <v>100</v>
       </c>
-      <c r="G346" t="s">
+      <c r="G353" t="s">
         <v>158</v>
       </c>
-      <c r="H346">
+      <c r="H353">
         <v>32</v>
       </c>
-      <c r="I346" t="s">
-        <v>50</v>
-      </c>
-      <c r="J346" t="s">
-        <v>52</v>
-      </c>
-      <c r="K346">
-        <v>1</v>
-      </c>
-      <c r="L346">
-        <v>0</v>
-      </c>
-      <c r="M346">
+      <c r="I353" t="s">
+        <v>50</v>
+      </c>
+      <c r="J353" t="s">
+        <v>52</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N346">
+      <c r="N353">
         <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
-      <c r="O346" t="s">
-        <v>68</v>
-      </c>
-      <c r="P346" t="s">
+      <c r="O353" t="s">
+        <v>68</v>
+      </c>
+      <c r="P353" t="s">
         <v>31</v>
       </c>
-      <c r="U346" t="s">
+      <c r="U353" t="s">
         <v>43</v>
       </c>
-      <c r="X346" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="347" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B347">
+      <c r="X353" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="354" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B354">
         <f t="shared" si="29"/>
         <v>703</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C354" t="s">
         <v>140</v>
       </c>
-      <c r="D347">
+      <c r="D354">
         <v>4</v>
       </c>
-      <c r="E347" t="s">
-        <v>47</v>
-      </c>
-      <c r="F347">
+      <c r="E354" t="s">
+        <v>47</v>
+      </c>
+      <c r="F354">
         <v>100</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G354" t="s">
         <v>160</v>
       </c>
-      <c r="H347">
+      <c r="H354">
         <v>32</v>
       </c>
-      <c r="I347" t="s">
-        <v>50</v>
-      </c>
-      <c r="J347" t="s">
-        <v>52</v>
-      </c>
-      <c r="K347">
-        <v>1</v>
-      </c>
-      <c r="L347">
-        <v>0</v>
-      </c>
-      <c r="M347">
+      <c r="I354" t="s">
+        <v>50</v>
+      </c>
+      <c r="J354" t="s">
+        <v>52</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N347">
+      <c r="N354">
         <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
-      <c r="O347" t="s">
-        <v>68</v>
-      </c>
-      <c r="P347" t="s">
+      <c r="O354" t="s">
+        <v>68</v>
+      </c>
+      <c r="P354" t="s">
         <v>26</v>
       </c>
-      <c r="U347" t="s">
+      <c r="U354" t="s">
         <v>43</v>
       </c>
-      <c r="X347" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="348" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B348">
+      <c r="X354" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="355" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B355">
         <f t="shared" si="29"/>
         <v>704</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C355" t="s">
         <v>139</v>
       </c>
-      <c r="D348">
+      <c r="D355">
         <v>4</v>
       </c>
-      <c r="E348" t="s">
-        <v>47</v>
-      </c>
-      <c r="F348">
+      <c r="E355" t="s">
+        <v>47</v>
+      </c>
+      <c r="F355">
         <v>100</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G355" t="s">
         <v>159</v>
       </c>
-      <c r="H348">
+      <c r="H355">
         <v>32</v>
       </c>
-      <c r="I348" t="s">
-        <v>50</v>
-      </c>
-      <c r="J348" t="s">
-        <v>52</v>
-      </c>
-      <c r="K348">
-        <v>1</v>
-      </c>
-      <c r="L348">
-        <v>0</v>
-      </c>
-      <c r="M348">
+      <c r="I355" t="s">
+        <v>50</v>
+      </c>
+      <c r="J355" t="s">
+        <v>52</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N348">
+      <c r="N355">
         <f t="shared" si="28"/>
         <v>4294967295</v>
       </c>
-      <c r="O348" t="s">
-        <v>68</v>
-      </c>
-      <c r="P348" t="s">
+      <c r="O355" t="s">
+        <v>68</v>
+      </c>
+      <c r="P355" t="s">
         <v>58</v>
       </c>
-      <c r="U348" t="s">
+      <c r="U355" t="s">
         <v>43</v>
       </c>
-      <c r="X348" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="349" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B349">
+      <c r="X355" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="356" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B356">
         <f t="shared" si="29"/>
         <v>705</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C356" t="s">
         <v>505</v>
       </c>
-      <c r="D349">
-        <v>1</v>
-      </c>
-      <c r="E349" t="s">
-        <v>47</v>
-      </c>
-      <c r="F349">
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356" t="s">
+        <v>47</v>
+      </c>
+      <c r="F356">
         <v>100</v>
       </c>
-      <c r="G349" t="s">
+      <c r="G356" t="s">
         <v>506</v>
       </c>
-      <c r="H349">
+      <c r="H356">
         <v>2</v>
       </c>
-      <c r="I349" t="s">
-        <v>50</v>
-      </c>
-      <c r="J349" t="s">
-        <v>52</v>
-      </c>
-      <c r="K349">
-        <v>1</v>
-      </c>
-      <c r="L349">
-        <v>0</v>
-      </c>
-      <c r="M349">
+      <c r="I356" t="s">
+        <v>50</v>
+      </c>
+      <c r="J356" t="s">
+        <v>52</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+      <c r="M356">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N349">
+      <c r="N356">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="O349" t="s">
+      <c r="O356" t="s">
         <v>69</v>
       </c>
-      <c r="U349" t="s">
+      <c r="U356" t="s">
         <v>43</v>
       </c>
-      <c r="X349" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y349" t="s">
+      <c r="X356" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y356" t="s">
         <v>385</v>
       </c>
-      <c r="Z349" t="s">
+      <c r="Z356" t="s">
         <v>503</v>
       </c>
-      <c r="AA349" t="s">
+      <c r="AA356" t="s">
         <v>389</v>
       </c>
-      <c r="AB349" t="s">
+      <c r="AB356" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="350" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I350" t="s">
-        <v>50</v>
-      </c>
-      <c r="J350" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="351" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I351" t="s">
-        <v>50</v>
-      </c>
-      <c r="J351" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="352" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I352" t="s">
-        <v>50</v>
-      </c>
-      <c r="J352" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="353" spans="9:24" x14ac:dyDescent="0.25">
-      <c r="I353" t="s">
-        <v>50</v>
-      </c>
-      <c r="J353" t="s">
-        <v>52</v>
-      </c>
-      <c r="K353">
-        <v>1</v>
-      </c>
-      <c r="L353">
-        <v>0</v>
-      </c>
-      <c r="M353">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N353">
-        <f t="shared" ref="N353:N398" si="30">IF(J353="Unsigned",2^(MIN(H353,32))-1,2^(MIN(H353,32))/2-1)</f>
-        <v>4294967295</v>
-      </c>
-      <c r="O353" t="s">
-        <v>68</v>
-      </c>
-      <c r="X353" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="354" spans="9:24" x14ac:dyDescent="0.25">
-      <c r="I354" t="s">
-        <v>50</v>
-      </c>
-      <c r="J354" t="s">
-        <v>52</v>
-      </c>
-      <c r="K354">
-        <v>1</v>
-      </c>
-      <c r="L354">
-        <v>0</v>
-      </c>
-      <c r="M354">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N354">
-        <f t="shared" si="30"/>
-        <v>4294967295</v>
-      </c>
-      <c r="O354" t="s">
-        <v>68</v>
-      </c>
-      <c r="X354" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="355" spans="9:24" x14ac:dyDescent="0.25">
-      <c r="I355" t="s">
-        <v>50</v>
-      </c>
-      <c r="J355" t="s">
-        <v>52</v>
-      </c>
-      <c r="K355">
-        <v>1</v>
-      </c>
-      <c r="L355">
-        <v>0</v>
-      </c>
-      <c r="M355">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N355">
-        <f t="shared" si="30"/>
-        <v>4294967295</v>
-      </c>
-      <c r="O355" t="s">
-        <v>68</v>
-      </c>
-      <c r="X355" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="356" spans="9:24" x14ac:dyDescent="0.25">
-      <c r="I356" t="s">
-        <v>50</v>
-      </c>
-      <c r="J356" t="s">
-        <v>52</v>
-      </c>
-      <c r="K356">
-        <v>1</v>
-      </c>
-      <c r="L356">
-        <v>0</v>
-      </c>
-      <c r="M356">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N356">
-        <f t="shared" si="30"/>
-        <v>4294967295</v>
-      </c>
-      <c r="O356" t="s">
-        <v>68</v>
-      </c>
-      <c r="X356" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="357" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I357" t="s">
         <v>50</v>
       </c>
       <c r="J357" t="s">
         <v>52</v>
       </c>
-      <c r="K357">
-        <v>1</v>
-      </c>
-      <c r="L357">
-        <v>0</v>
-      </c>
-      <c r="M357">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N357">
-        <f t="shared" si="30"/>
-        <v>4294967295</v>
-      </c>
-      <c r="O357" t="s">
-        <v>68</v>
-      </c>
-      <c r="X357" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="358" spans="9:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I358" t="s">
         <v>50</v>
       </c>
       <c r="J358" t="s">
         <v>52</v>
       </c>
-      <c r="K358">
-        <v>1</v>
-      </c>
-      <c r="L358">
-        <v>0</v>
-      </c>
-      <c r="M358">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N358">
-        <f t="shared" si="30"/>
-        <v>4294967295</v>
-      </c>
-      <c r="O358" t="s">
-        <v>68</v>
-      </c>
-      <c r="X358" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="359" spans="9:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I359" t="s">
         <v>50</v>
       </c>
       <c r="J359" t="s">
         <v>52</v>
       </c>
-      <c r="K359">
-        <v>1</v>
-      </c>
-      <c r="L359">
-        <v>0</v>
-      </c>
-      <c r="M359">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N359">
-        <f t="shared" si="30"/>
-        <v>4294967295</v>
-      </c>
-      <c r="O359" t="s">
-        <v>68</v>
-      </c>
-      <c r="X359" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="360" spans="9:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I360" t="s">
         <v>50</v>
       </c>
@@ -20364,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="N360">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="N360:N405" si="30">IF(J360="Unsigned",2^(MIN(H360,32))-1,2^(MIN(H360,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O360" t="s">
@@ -20374,7 +20591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="361" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I361" t="s">
         <v>50</v>
       </c>
@@ -20402,7 +20619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="362" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I362" t="s">
         <v>50</v>
       </c>
@@ -20430,7 +20647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="363" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I363" t="s">
         <v>50</v>
       </c>
@@ -20458,7 +20675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="364" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I364" t="s">
         <v>50</v>
       </c>
@@ -20486,7 +20703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I365" t="s">
         <v>50</v>
       </c>
@@ -20514,7 +20731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="366" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I366" t="s">
         <v>50</v>
       </c>
@@ -20542,7 +20759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="367" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I367" t="s">
         <v>50</v>
       </c>
@@ -20570,7 +20787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="368" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I368" t="s">
         <v>50</v>
       </c>
@@ -21312,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <f t="shared" ref="M394:M457" si="31">IF(J394="Unsigned",0,-N394)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N394">
@@ -21340,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N395">
@@ -21368,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N396">
@@ -21396,7 +21613,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N397">
@@ -21424,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N398">
@@ -21452,11 +21669,11 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N399">
-        <f t="shared" ref="N399:N462" si="32">IF(J399="Unsigned",2^(MIN(H399,32))-1,2^(MIN(H399,32))/2-1)</f>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O399" t="s">
@@ -21480,11 +21697,11 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N400">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O400" t="s">
@@ -21508,11 +21725,11 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="M401:M464" si="31">IF(J401="Unsigned",0,-N401)</f>
         <v>0</v>
       </c>
       <c r="N401">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O401" t="s">
@@ -21540,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="N402">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O402" t="s">
@@ -21568,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="N403">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O403" t="s">
@@ -21596,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="N404">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O404" t="s">
@@ -21624,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="N405">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4294967295</v>
       </c>
       <c r="O405" t="s">
@@ -21652,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="N406">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="N406:N469" si="32">IF(J406="Unsigned",2^(MIN(H406,32))-1,2^(MIN(H406,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O406" t="s">
@@ -23104,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <f t="shared" ref="M458:M521" si="33">IF(J458="Unsigned",0,-N458)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N458">
@@ -23132,7 +23349,7 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N459">
@@ -23160,7 +23377,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N460">
@@ -23188,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N461">
@@ -23216,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N462">
@@ -23244,11 +23461,11 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N463">
-        <f t="shared" ref="N463:N526" si="34">IF(J463="Unsigned",2^(MIN(H463,32))-1,2^(MIN(H463,32))/2-1)</f>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O463" t="s">
@@ -23272,11 +23489,11 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N464">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O464" t="s">
@@ -23300,11 +23517,11 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="M465:M528" si="33">IF(J465="Unsigned",0,-N465)</f>
         <v>0</v>
       </c>
       <c r="N465">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O465" t="s">
@@ -23332,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="N466">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O466" t="s">
@@ -23360,7 +23577,7 @@
         <v>0</v>
       </c>
       <c r="N467">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O467" t="s">
@@ -23388,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="N468">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O468" t="s">
@@ -23416,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="N469">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4294967295</v>
       </c>
       <c r="O469" t="s">
@@ -23444,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="N470">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="N470:N533" si="34">IF(J470="Unsigned",2^(MIN(H470,32))-1,2^(MIN(H470,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O470" t="s">
@@ -24896,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <f t="shared" ref="M522:M585" si="35">IF(J522="Unsigned",0,-N522)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N522">
@@ -24924,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N523">
@@ -24952,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N524">
@@ -24980,7 +25197,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N525">
@@ -25008,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N526">
@@ -25036,11 +25253,11 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N527">
-        <f t="shared" ref="N527:N590" si="36">IF(J527="Unsigned",2^(MIN(H527,32))-1,2^(MIN(H527,32))/2-1)</f>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O527" t="s">
@@ -25064,11 +25281,11 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N528">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O528" t="s">
@@ -25092,11 +25309,11 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="M529:M592" si="35">IF(J529="Unsigned",0,-N529)</f>
         <v>0</v>
       </c>
       <c r="N529">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O529" t="s">
@@ -25124,7 +25341,7 @@
         <v>0</v>
       </c>
       <c r="N530">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O530" t="s">
@@ -25152,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="N531">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O531" t="s">
@@ -25180,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="N532">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O532" t="s">
@@ -25208,7 +25425,7 @@
         <v>0</v>
       </c>
       <c r="N533">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>4294967295</v>
       </c>
       <c r="O533" t="s">
@@ -25236,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="N534">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="N534:N597" si="36">IF(J534="Unsigned",2^(MIN(H534,32))-1,2^(MIN(H534,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O534" t="s">
@@ -26688,7 +26905,7 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <f t="shared" ref="M586:M649" si="37">IF(J586="Unsigned",0,-N586)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N586">
@@ -26716,7 +26933,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N587">
@@ -26744,7 +26961,7 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N588">
@@ -26772,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N589">
@@ -26800,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N590">
@@ -26828,11 +27045,11 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N591">
-        <f t="shared" ref="N591:N654" si="38">IF(J591="Unsigned",2^(MIN(H591,32))-1,2^(MIN(H591,32))/2-1)</f>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="O591" t="s">
@@ -26856,11 +27073,11 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N592">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="O592" t="s">
@@ -26884,11 +27101,11 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="M593:M656" si="37">IF(J593="Unsigned",0,-N593)</f>
         <v>0</v>
       </c>
       <c r="N593">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="O593" t="s">
@@ -26916,7 +27133,7 @@
         <v>0</v>
       </c>
       <c r="N594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="O594" t="s">
@@ -26944,7 +27161,7 @@
         <v>0</v>
       </c>
       <c r="N595">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="O595" t="s">
@@ -26972,7 +27189,7 @@
         <v>0</v>
       </c>
       <c r="N596">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="O596" t="s">
@@ -27000,7 +27217,7 @@
         <v>0</v>
       </c>
       <c r="N597">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4294967295</v>
       </c>
       <c r="O597" t="s">
@@ -27028,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="N598">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="N598:N661" si="38">IF(J598="Unsigned",2^(MIN(H598,32))-1,2^(MIN(H598,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O598" t="s">
@@ -28480,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <f t="shared" ref="M650:M713" si="39">IF(J650="Unsigned",0,-N650)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N650">
@@ -28508,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N651">
@@ -28536,7 +28753,7 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N652">
@@ -28564,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N653">
@@ -28592,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N654">
@@ -28620,11 +28837,11 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N655">
-        <f t="shared" ref="N655:N718" si="40">IF(J655="Unsigned",2^(MIN(H655,32))-1,2^(MIN(H655,32))/2-1)</f>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="O655" t="s">
@@ -28648,11 +28865,11 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N656">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="O656" t="s">
@@ -28676,11 +28893,11 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="M657:M720" si="39">IF(J657="Unsigned",0,-N657)</f>
         <v>0</v>
       </c>
       <c r="N657">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="O657" t="s">
@@ -28708,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="N658">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="O658" t="s">
@@ -28736,7 +28953,7 @@
         <v>0</v>
       </c>
       <c r="N659">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="O659" t="s">
@@ -28764,7 +28981,7 @@
         <v>0</v>
       </c>
       <c r="N660">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="O660" t="s">
@@ -28792,7 +29009,7 @@
         <v>0</v>
       </c>
       <c r="N661">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4294967295</v>
       </c>
       <c r="O661" t="s">
@@ -28820,7 +29037,7 @@
         <v>0</v>
       </c>
       <c r="N662">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="N662:N725" si="40">IF(J662="Unsigned",2^(MIN(H662,32))-1,2^(MIN(H662,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O662" t="s">
@@ -30272,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="M714">
-        <f t="shared" ref="M714:M777" si="41">IF(J714="Unsigned",0,-N714)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N714">
@@ -30300,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="M715">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N715">
@@ -30328,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="M716">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N716">
@@ -30356,7 +30573,7 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N717">
@@ -30384,7 +30601,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N718">
@@ -30412,11 +30629,11 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N719">
-        <f t="shared" ref="N719:N782" si="42">IF(J719="Unsigned",2^(MIN(H719,32))-1,2^(MIN(H719,32))/2-1)</f>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
       <c r="O719" t="s">
@@ -30440,11 +30657,11 @@
         <v>0</v>
       </c>
       <c r="M720">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N720">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
       <c r="O720" t="s">
@@ -30468,11 +30685,11 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="M721:M784" si="41">IF(J721="Unsigned",0,-N721)</f>
         <v>0</v>
       </c>
       <c r="N721">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
       <c r="O721" t="s">
@@ -30500,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="N722">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
       <c r="O722" t="s">
@@ -30528,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="N723">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
       <c r="O723" t="s">
@@ -30556,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="N724">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
       <c r="O724" t="s">
@@ -30584,7 +30801,7 @@
         <v>0</v>
       </c>
       <c r="N725">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4294967295</v>
       </c>
       <c r="O725" t="s">
@@ -30612,7 +30829,7 @@
         <v>0</v>
       </c>
       <c r="N726">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="N726:N789" si="42">IF(J726="Unsigned",2^(MIN(H726,32))-1,2^(MIN(H726,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="O726" t="s">
@@ -31147,6 +31364,9 @@
         <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
+      <c r="O745" t="s">
+        <v>68</v>
+      </c>
       <c r="X745" t="s">
         <v>47</v>
       </c>
@@ -31172,6 +31392,9 @@
         <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
+      <c r="O746" t="s">
+        <v>68</v>
+      </c>
       <c r="X746" t="s">
         <v>47</v>
       </c>
@@ -31197,6 +31420,9 @@
         <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
+      <c r="O747" t="s">
+        <v>68</v>
+      </c>
       <c r="X747" t="s">
         <v>47</v>
       </c>
@@ -31222,6 +31448,9 @@
         <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
+      <c r="O748" t="s">
+        <v>68</v>
+      </c>
       <c r="X748" t="s">
         <v>47</v>
       </c>
@@ -31247,6 +31476,9 @@
         <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
+      <c r="O749" t="s">
+        <v>68</v>
+      </c>
       <c r="X749" t="s">
         <v>47</v>
       </c>
@@ -31272,6 +31504,9 @@
         <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
+      <c r="O750" t="s">
+        <v>68</v>
+      </c>
       <c r="X750" t="s">
         <v>47</v>
       </c>
@@ -31297,6 +31532,9 @@
         <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
+      <c r="O751" t="s">
+        <v>68</v>
+      </c>
       <c r="X751" t="s">
         <v>47</v>
       </c>
@@ -31965,7 +32203,7 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <f t="shared" ref="M778:M841" si="43">IF(J778="Unsigned",0,-N778)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N778">
@@ -31990,7 +32228,7 @@
         <v>0</v>
       </c>
       <c r="M779">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N779">
@@ -32015,7 +32253,7 @@
         <v>0</v>
       </c>
       <c r="M780">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N780">
@@ -32040,7 +32278,7 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N781">
@@ -32065,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N782">
@@ -32090,11 +32328,11 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N783">
-        <f t="shared" ref="N783:N846" si="44">IF(J783="Unsigned",2^(MIN(H783,32))-1,2^(MIN(H783,32))/2-1)</f>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
       <c r="X783" t="s">
@@ -32115,11 +32353,11 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N784">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
       <c r="X784" t="s">
@@ -32140,11 +32378,11 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="M785:M848" si="43">IF(J785="Unsigned",0,-N785)</f>
         <v>0</v>
       </c>
       <c r="N785">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
       <c r="X785" t="s">
@@ -32169,7 +32407,7 @@
         <v>0</v>
       </c>
       <c r="N786">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
       <c r="X786" t="s">
@@ -32194,7 +32432,7 @@
         <v>0</v>
       </c>
       <c r="N787">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
       <c r="X787" t="s">
@@ -32219,7 +32457,7 @@
         <v>0</v>
       </c>
       <c r="N788">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
       <c r="X788" t="s">
@@ -32244,7 +32482,7 @@
         <v>0</v>
       </c>
       <c r="N789">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>4294967295</v>
       </c>
       <c r="X789" t="s">
@@ -32269,7 +32507,7 @@
         <v>0</v>
       </c>
       <c r="N790">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="N790:N853" si="44">IF(J790="Unsigned",2^(MIN(H790,32))-1,2^(MIN(H790,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="X790" t="s">
@@ -33565,7 +33803,7 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <f t="shared" ref="M842:M905" si="45">IF(J842="Unsigned",0,-N842)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N842">
@@ -33590,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N843">
@@ -33615,7 +33853,7 @@
         <v>0</v>
       </c>
       <c r="M844">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N844">
@@ -33640,7 +33878,7 @@
         <v>0</v>
       </c>
       <c r="M845">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N845">
@@ -33665,7 +33903,7 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N846">
@@ -33690,11 +33928,11 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N847">
-        <f t="shared" ref="N847:N910" si="46">IF(J847="Unsigned",2^(MIN(H847,32))-1,2^(MIN(H847,32))/2-1)</f>
+        <f t="shared" si="44"/>
         <v>4294967295</v>
       </c>
       <c r="X847" t="s">
@@ -33715,11 +33953,11 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N848">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4294967295</v>
       </c>
       <c r="X848" t="s">
@@ -33740,11 +33978,11 @@
         <v>0</v>
       </c>
       <c r="M849">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="M849:M912" si="45">IF(J849="Unsigned",0,-N849)</f>
         <v>0</v>
       </c>
       <c r="N849">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4294967295</v>
       </c>
       <c r="X849" t="s">
@@ -33769,7 +34007,7 @@
         <v>0</v>
       </c>
       <c r="N850">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4294967295</v>
       </c>
       <c r="X850" t="s">
@@ -33794,7 +34032,7 @@
         <v>0</v>
       </c>
       <c r="N851">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4294967295</v>
       </c>
       <c r="X851" t="s">
@@ -33819,7 +34057,7 @@
         <v>0</v>
       </c>
       <c r="N852">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4294967295</v>
       </c>
       <c r="X852" t="s">
@@ -33844,7 +34082,7 @@
         <v>0</v>
       </c>
       <c r="N853">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4294967295</v>
       </c>
       <c r="X853" t="s">
@@ -33869,7 +34107,7 @@
         <v>0</v>
       </c>
       <c r="N854">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="N854:N917" si="46">IF(J854="Unsigned",2^(MIN(H854,32))-1,2^(MIN(H854,32))/2-1)</f>
         <v>4294967295</v>
       </c>
       <c r="X854" t="s">
@@ -33947,6 +34185,9 @@
         <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
+      <c r="X857" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="858" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I858" t="s">
@@ -33969,6 +34210,9 @@
         <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
+      <c r="X858" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="859" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I859" t="s">
@@ -33991,6 +34235,9 @@
         <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
+      <c r="X859" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="860" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I860" t="s">
@@ -34013,6 +34260,9 @@
         <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
+      <c r="X860" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="861" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I861" t="s">
@@ -34035,6 +34285,9 @@
         <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
+      <c r="X861" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="862" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I862" t="s">
@@ -34057,6 +34310,9 @@
         <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
+      <c r="X862" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="863" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I863" t="s">
@@ -34079,6 +34335,9 @@
         <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
+      <c r="X863" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="864" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I864" t="s">
@@ -35018,7 +35277,7 @@
         <v>0</v>
       </c>
       <c r="M906">
-        <f t="shared" ref="M906:M969" si="47">IF(J906="Unsigned",0,-N906)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N906">
@@ -35040,7 +35299,7 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N907">
@@ -35062,7 +35321,7 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N908">
@@ -35084,7 +35343,7 @@
         <v>0</v>
       </c>
       <c r="M909">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N909">
@@ -35106,7 +35365,7 @@
         <v>0</v>
       </c>
       <c r="M910">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N910">
@@ -35128,11 +35387,11 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N911">
-        <f t="shared" ref="N911:N974" si="48">IF(J911="Unsigned",2^(MIN(H911,32))-1,2^(MIN(H911,32))/2-1)</f>
+        <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35150,11 +35409,11 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N912">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35172,11 +35431,11 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="M913:M976" si="47">IF(J913="Unsigned",0,-N913)</f>
         <v>0</v>
       </c>
       <c r="N913">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35198,7 +35457,7 @@
         <v>0</v>
       </c>
       <c r="N914">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35220,7 +35479,7 @@
         <v>0</v>
       </c>
       <c r="N915">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35242,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="N916">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35264,7 +35523,7 @@
         <v>0</v>
       </c>
       <c r="N917">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -35286,7 +35545,7 @@
         <v>0</v>
       </c>
       <c r="N918">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="N918:N981" si="48">IF(J918="Unsigned",2^(MIN(H918,32))-1,2^(MIN(H918,32))/2-1)</f>
         <v>4294967295</v>
       </c>
     </row>
@@ -36426,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <f t="shared" ref="M970:M1026" si="49">IF(J970="Unsigned",0,-N970)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N970">
@@ -36448,7 +36707,7 @@
         <v>0</v>
       </c>
       <c r="M971">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N971">
@@ -36470,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="M972">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N972">
@@ -36492,7 +36751,7 @@
         <v>0</v>
       </c>
       <c r="M973">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N973">
@@ -36514,7 +36773,7 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N974">
@@ -36536,11 +36795,11 @@
         <v>0</v>
       </c>
       <c r="M975">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N975">
-        <f t="shared" ref="N975:N1026" si="50">IF(J975="Unsigned",2^(MIN(H975,32))-1,2^(MIN(H975,32))/2-1)</f>
+        <f t="shared" si="48"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36558,11 +36817,11 @@
         <v>0</v>
       </c>
       <c r="M976">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N976">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36580,11 +36839,11 @@
         <v>0</v>
       </c>
       <c r="M977">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="M977:M1033" si="49">IF(J977="Unsigned",0,-N977)</f>
         <v>0</v>
       </c>
       <c r="N977">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36606,7 +36865,7 @@
         <v>0</v>
       </c>
       <c r="N978">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36628,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="N979">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36650,7 +36909,7 @@
         <v>0</v>
       </c>
       <c r="N980">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36672,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="N981">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4294967295</v>
       </c>
     </row>
@@ -36694,7 +36953,7 @@
         <v>0</v>
       </c>
       <c r="N982">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="N982:N1033" si="50">IF(J982="Unsigned",2^(MIN(H982,32))-1,2^(MIN(H982,32))/2-1)</f>
         <v>4294967295</v>
       </c>
     </row>
@@ -37662,6 +37921,160 @@
         <v>0</v>
       </c>
       <c r="N1026">
+        <f t="shared" si="50"/>
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="1027" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I1027" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1027" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1027">
+        <v>1</v>
+      </c>
+      <c r="L1027">
+        <v>0</v>
+      </c>
+      <c r="M1027">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N1027">
+        <f t="shared" si="50"/>
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="1028" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I1028" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1028" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1028">
+        <v>1</v>
+      </c>
+      <c r="L1028">
+        <v>0</v>
+      </c>
+      <c r="M1028">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N1028">
+        <f t="shared" si="50"/>
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="1029" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I1029" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1029" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1029">
+        <v>1</v>
+      </c>
+      <c r="L1029">
+        <v>0</v>
+      </c>
+      <c r="M1029">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N1029">
+        <f t="shared" si="50"/>
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="1030" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I1030" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1030" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1030">
+        <v>1</v>
+      </c>
+      <c r="L1030">
+        <v>0</v>
+      </c>
+      <c r="M1030">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N1030">
+        <f t="shared" si="50"/>
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="1031" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I1031" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1031" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1031">
+        <v>1</v>
+      </c>
+      <c r="L1031">
+        <v>0</v>
+      </c>
+      <c r="M1031">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N1031">
+        <f t="shared" si="50"/>
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="1032" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I1032" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1032" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1032">
+        <v>1</v>
+      </c>
+      <c r="L1032">
+        <v>0</v>
+      </c>
+      <c r="M1032">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N1032">
+        <f t="shared" si="50"/>
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="1033" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I1033" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1033" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1033">
+        <v>1</v>
+      </c>
+      <c r="L1033">
+        <v>0</v>
+      </c>
+      <c r="M1033">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N1033">
         <f t="shared" si="50"/>
         <v>4294967295</v>
       </c>
@@ -37676,19 +38089,19 @@
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:W182 E3:E166 E342:E349 E353:E1048576 Q353:X1048576 Q334:X349 X329:X333 E168:E328 Q183:X328</xm:sqref>
+          <xm:sqref>Q3:W182 E3:E166 E349:E356 E360:E1048576 Q360:X1048576 Q341:X356 X336:X340 E168:E335 Q183:X335</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>P353:P1048576 P334:P349 P3:P328</xm:sqref>
+          <xm:sqref>P360:P1048576 P341:P356 P3:P335</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O353:O1048576 O3:O349</xm:sqref>
+          <xm:sqref>O360:O1048576 O3:O356</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/scripts/codegen/CAN/CanMsgs.xlsx
+++ b/scripts/codegen/CAN/CanMsgs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5170" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="565">
   <si>
     <t>Message Name</t>
   </si>
@@ -1707,6 +1707,9 @@
   </si>
   <si>
     <t>CURRENT_LIMIT</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
@@ -2094,10 +2097,10 @@
   <dimension ref="A1:AE1036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H67" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,10 +2108,10 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="54" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
@@ -8267,7 +8270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>315</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>315</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>315</v>
       </c>
@@ -8426,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>315</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>315</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>315</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>405</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408</v>
       </c>
@@ -11554,7 +11557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:30" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>510</v>
       </c>
@@ -13241,7 +13244,7 @@
         <v>147</v>
       </c>
       <c r="H213">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I213" t="s">
         <v>50</v>
@@ -13250,7 +13253,8 @@
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1</v>
+        <f>N213/(2^H213-1)</f>
+        <v>1.5259021896696421E-2</v>
       </c>
       <c r="L213">
         <v>0</v>
@@ -13260,11 +13264,10 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <f t="shared" si="11"/>
-        <v>4294967295</v>
+        <v>1000</v>
       </c>
       <c r="O213" t="s">
-        <v>68</v>
+        <v>564</v>
       </c>
       <c r="P213" t="s">
         <v>25</v>
@@ -38260,7 +38263,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$9</xm:f>
@@ -38277,7 +38280,7 @@
           <x14:formula1>
             <xm:f>Lists!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O363:O1048576 O3:O359</xm:sqref>
+          <xm:sqref>O755:O1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -38291,6 +38294,12 @@
           </x14:formula1>
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lists!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>O3:O754</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -38302,7 +38311,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38368,6 +38377,9 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
+      <c r="E4" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/scripts/codegen/CAN/CanMsgs.xlsx
+++ b/scripts/codegen/CAN/CanMsgs.xlsx
@@ -2072,10 +2072,10 @@
   <dimension ref="A1:AE1039"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H347" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="K51" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G365" sqref="G365"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
